--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -719,7 +719,11 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS 87-AMS160/          REDUÇÃO: I=5,30/FORMA CONSTRUT: M1/CÓDIGO SEW: RF87 AMS160/                   PARA MOTOR: CARCAÇA 160/DESENHO SEW: NÃO INFORMADO/</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -748,7 +752,11 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>MOTOR SEW MODELO: DRN80MP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/      CARCAÇA: 80M/NRº DE FASES: 3/POTÊNCIA: 1,10KW/FREQUENCIA: 60HZ/               EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF165/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -777,7 +785,11 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>MOTOR SEW MODELO: DRN132SP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/     CARCAÇA: 132S/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF265/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -806,7 +818,11 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 04_0.01/MODELO: WAF10 DR2S56MP4/        REDUÇÃO: I=39,00/ROTAÇÃO: N=41RPM/                                            FORMA CONSTRUT.: M4A-L (CAIXA DE LIGAÇÃO 180°/X)/POTÊNCIA: 0,15KW/            FREQUÊNCIA: 60HZ/EFICIENCIA: STANDARD (IR1)/TENSÃO: 220/380V/                 GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA ABNT/   FLANGE: EF W003/06/PONTA DE EIXO: Ø16mm/                                      CARAC. ESPECIAL: COM COBERTURA DE PROTEÇÃO DO EIXO,EIXO VEIO OCO/</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -835,7 +851,11 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM045B/CÓDIGO NETZSCH: NS57/              REDUÇÃO: I=17,57/ROTAÇÃO: N=100RPM/FORMA CONSTR: M2A/POTÊNCIA MOTOR: 3,70KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF57 DRN90LP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -864,7 +884,11 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=7,28/ROTAÇÃO: N=242RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 5,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN112MP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -893,7 +917,11 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_5.1/MODELO: RF77 DRN100L4/           REDUÇÃO: I=36,83/ROTAÇÃO: N=40RPM/POTÊNCIA: 3,00KW/FREQUÊNCIA: 50HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380V/                   GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA IEC/    FLANGE: Ø250mm/PONTA DE EIXO: 35X70MM/</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -922,7 +950,11 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>MOTOR ELÉTRICO TRIFÁSICO PMM (IMÃS PERMANENTES)W22,IE4; FORMA CONSTRUTIVA V1T; TORQUE CONSTANTE 1196NM (882 ft.lb); 16 POLOS; ROTAÇÃO NOMINAL 375RPM; POTÊNCIA 47KW (63,5HP); TEFC; IP-55; FREQUÊNCIA 4 ATÉ 50 HZ; TENSÃO 380V C/ 6 TERMINAIS; CORRENTE 82A; ISOLAMENTO CLASSE F; FATOR DE SERVIÇO: 1,00; CARCAÇA 315S/M; PLANO DE PINTURA 202P; COR 091A.3145; COM PLACA DE BORNES; FLANGE FF-600; COM FURO PASSANTE NO EIXO Ø60MM; COM PONTA DE EIXO NA PARTE SUPERIOR; SAÍDA DE CABOS DA CAIXA DE LIGAÇÃO PRINCIPAL VOLTADA PARA EIXO; COM CERTIFICAÇÃO ATEX/IECEX, ZONA 2, GRUPO IIC, T3; ESPECIAL PARA APLICAÇÃO EM CABEÇOTES DE ACIONAMENTOS PCP. PLAQUETA DO MOTOR COM VALOR DE TORQUE EXPRESSA EM FT.LB E POTÊNCIA EM HP. CONFORME FOLHA DE DADOS NR...., ITEM FORNECEDOR: 17464798.</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -951,7 +983,11 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -980,7 +1016,11 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1009,7 +1049,11 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 12"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -1038,7 +1082,11 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1067,7 +1115,11 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1096,7 +1148,11 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -1125,7 +1181,11 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -1154,7 +1214,11 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -1183,7 +1247,11 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -1212,7 +1280,11 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -1241,7 +1313,11 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -1270,7 +1346,11 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -1299,7 +1379,11 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM:,ESPANHA, PORTUGAL, TAIWAN, CHINA, LESTE EUROPEU, ÁFRICA, AMÉRICA CENTRAL E DO SUL, LAOS, C/</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -1328,7 +1412,11 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 300#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -1357,7 +1445,11 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO NACE MR0175/ISO 15156/</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -1386,7 +1478,11 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 12"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -1415,7 +1511,11 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: DUPLEX UNS S31803/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -1444,7 +1544,11 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: DUPLEX UNS S31803/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -1473,7 +1577,11 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -1502,7 +1610,11 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -1531,7 +1643,11 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3/4"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -1560,7 +1676,11 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -1589,7 +1709,11 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM: CHINA E ESTADOS UNIDOS./</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -1618,7 +1742,11 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -1647,7 +1775,11 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -1676,7 +1808,11 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 5"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -1705,7 +1841,11 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>MOTOR SEW MODELO: DRN132M4/FE/FORMA CONSTR: B35/POS. CAIXA LIG: T (270°/X)/   CARCAÇA: 132M/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IP55/NORMA: ABNT/FLANGE: FF265/             TENSÃO: 220/380V COM 06 TERMINAIS/ISOLAMENTO: F/REGIME SERVIÇO: S1/           CARAC. ESPECIAL: ENSAIO DE TIPO SEM INSPETOR - TODO LOTE,MOTOR C/ 2 FITAS DE AQUECIMENTO AC 230V, LADO A+B/</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -1734,7 +1874,11 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1/2"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -1763,7 +1907,11 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -1792,7 +1940,11 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 4"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -1821,7 +1973,11 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -1850,7 +2006,11 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 14"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -1879,7 +2039,11 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/                       CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -1908,7 +2072,11 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -1937,7 +2105,11 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/ACABAM. FACE: LISO/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -1966,7 +2138,11 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 14"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -1995,7 +2171,11 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -2024,7 +2204,11 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -2053,7 +2237,11 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS 27-AD2/             REDUÇÃO: I=9,41/FORMA CONSTRUT: M1/CÓDIGO SEW: RF27 AD2/</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -2082,7 +2270,11 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=10,49/ROTAÇÃO: N=167RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 2,20KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KAF37 DRN90LP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -2111,7 +2303,11 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=8,91/ROTAÇÃO: N=197RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 1,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF37 DRN90SP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -2140,7 +2336,11 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: FF/MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/  CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -2169,7 +2369,11 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>ACOPLADOR CAM-LOK CI BRONZE HPF ROSCA FEMEA NPT 64 4"" - B0008- 11810017 0064</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -2198,7 +2402,11 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM011B/CÓDIGO NETZSCH: NSF17/             REDUÇÃO: I=6,15/ROTAÇÃO: N=281RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 0,37KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: R17F DRN71M4/DESENHO SEW: 415994608-800/</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -2227,7 +2435,11 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_0.1/MODELO: R27F DRN71MS4/V/         REDUÇÃO: I=74,11/ROTAÇÃO: N=23RPM/POTÊNCIA: 0,25KW/FREQUÊNCIA: 60HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380/440/760V/           GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVF/ISOLAMENTO: F/NORMA ABNT/   FLANGE: Ø120mm/PONTA DE EIXO: 18X50MM/                                        CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -2256,7 +2468,11 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM076B/CÓDIGO NETZSCH: NS77/              REDUÇÃO: I=10,84/ROTAÇÃO: N=325RPM/FORMA CONSTR: M1A/POTÊNCIA MOTOR: 11,00KW/ FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 2/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF77 DRN132MEP2/</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -2285,7 +2501,11 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=5,20/ROTAÇÃO: N=341RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 9,20KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN132MP4/                                     CARAC. ESPECIAL: ÓLEO SINTÉTICO,DUPLA VEDAÇÃO NO EIXO DE SAÍDA,EIXO DE SAÍDA: 40X80mm,TANQUE DE EXPANSÃO,RESPIRO ESPECIAL/</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -2314,7 +2534,11 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>BOCA DE RECALQUE  NM105-14 MATERIAL AISI 304L FLANGE CFE ANSI B16.5 150PSI 6" FF.</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -2343,7 +2567,11 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>BASE MÓVEL PARA BOMBA NM031BH01L06-/02S12- MATERIAL: AISI 304; ACABAMENTO JATEADO; APTA PARA:  -MOTOREDUTOR NS 27; ESPECIAL: BASE COM 3 RODIZIOS; OBS.: FORNECER BASE SEM USINAGEM, COM FURAÇÃO E SOLDA COMPLETA.</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -2372,7 +2600,11 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 06/GEOMETRIA: S/BORRACHA: NEMOLAST S459/    MATERIAL TUBO: 1020/TERMOSTATO: STP3/MEDIDA Lst: 101,50mm/MEDIDA A: M8/       MEDIDA B: 10,30mm/MEDIDA t: 40,00mm/                                          CARAC. ESPECIAL: SOLDADO,NH - NÃO HIGIÊNICO (NÃO INDICADO PARA APLICAÇÕES HIGIÊNICAS)/</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -2401,7 +2633,11 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: EP/               MATERIAL: 1020/MATERIAL TELA: TELA 1008/10/</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
@@ -2430,7 +2666,11 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>APERTA SELO MECANICO  NM053B-(P) MATERIAL  AISI 316    P/SELO M74-D C/ QUENCH G=1/4"NPT</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -2459,7 +2699,11 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 12/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -2488,7 +2732,11 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 01/GEOMETRIA: P/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -2517,7 +2765,11 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>FLANGE DIANTEIRA PRÉ-USINADO  MODELO: 3NS-/80H13-/MATERIAL: ASTM A-36/        MEDIDA A: 418,00mm/MEDIDA B: 310,00mm/MEDIDA C: 80,00mm/MEDIDA D: 371,00mm/   MEDIDA D1: D1=493,00/MEDIDA E: 367,00mm/MEDIDA F: 10,00mm/MEDIDA G: 50,00mm/  MEDIDA H: 520,00mm/                                                           MEDIDA X°: USINAR CFE DETALHE X, PARA ESPESSURA DO TUBO &gt;22mm/                MEDIDA Y°: Y°=30°/MEDIDA R: R=5,00/MEDIDA R1: R1=5,00/</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -2546,7 +2798,11 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>ANEL INTERMEDIÁRIO MODELO: 3NS-/80H2-/MATERIAL: ASTM A-36/                    MEDIDA A: A=120,00mm/MEDIDA B: B=85,00/MEDIDA C: C=15,00/MEDIDA D: D=5,00/    MEDIDA X°: X°=45°/MEDIDA E: E=5,00/MEDIDA Y°: Y°=45°/</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -2575,7 +2831,11 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>CORPO PCP SOLDADO PARA CABEÇOTE GH20-H  MATERIAL: A-36  *TESTES/CERTIFICADOS EXIGIDOS: *TESTE DE PARTÍCULA MAGNÉTICA E CERTIFICADOS 100% NOS OLHAIS DE IÇAMENTO</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -2604,7 +2864,11 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>CORPO PCP USINADO PARA CABEÇOTE GH20-H  MATERIAL: A-36</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -2633,7 +2897,11 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM125/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL: 1020/                                                               CARAC. ESPECIAL: COM CHANFRO S NAS DUAS EXTREMIDADES DO ESTATOR/</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -2662,7 +2930,11 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
@@ -2691,7 +2963,11 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>GARGANTA DN10" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -2720,7 +2996,11 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>GARGANTA DN4" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
@@ -2749,7 +3029,11 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>GARGANTA DN8" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
@@ -2778,7 +3062,11 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM031-12. MATERIAL  AISI 316. FLANGE CFE ANSI B16.5 150PSI 2" RF. G= 3/4" NPT. ESPECIAL: ALTURA DA FACE DA FLANGE ATÉ A LINHA DE CENTRO DE 93MM.</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -2807,7 +3095,11 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>GARGANTA DN12" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -2836,7 +3128,11 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
@@ -2865,7 +3161,11 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>GARGANTA DN10" - SCH80 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
@@ -2894,7 +3194,11 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>ADAPTADOR HN5 MATERIAL SAE 1045</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
@@ -2923,7 +3227,11 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>DISPLAY/STAND COM ROTOR, PARA TRITURADOR N.MAC 50C (STAND PARA BOMBAS DE SHOW-ROOM E FEIRAS) COM PEDESTAL NO CHÃO + ROTOR + PLATAFORMA DE MADEIRA PARA O TRITURADOR  ACABAMENTO SUPERFICIAL: *BUCHA DO ROTOR/ROTOR/FLANGE DE SUSTENTAÇÃO DA PLATAFORMA - POLIDOS *DEMAIS COMPONENTES - PINTADOS: TINTA DE FUNDO - TINTA EPOXI TINTA DE ACABAMENTO - TINTA POLIÉSTER NA COR PRATA ANDINO</t>
+        </is>
+      </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
@@ -2952,7 +3260,11 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>GARGANTA DN 32 DIN 11851 MATERIAL: AISI 304 POLIDO INT / EXT.</t>
+        </is>
+      </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
@@ -2981,7 +3293,11 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>MODELO: 2NS-/16H3- EXECUÇÃO: PÉ P MAX PROJ SUC: 3 BAR P MAX PROJ DESC: 10 BAR ESPECIAL: ESP SENTIDO FLUXO: ESQUERDA/DIREITA FLANGE SUCÇÃO: DN 2" - ASME B16.5 - #300 - RF FLANGE DESCARGA: DN 2" - ASME B16.5 - #300 - RF CON. MAN/VACUOM: 1/2" NPT DRENO SUCÇÃO: DN 1/2" - ASME B16.5 - #300 - RF DRENO DESCARGA: DN 1/2" - ASME B16.5 - #300 - RF C/ VÁLV. ALÍVIO: EXTERNA MAT CO BOMBA: SAE 1020 CAR ES CO BOMBA: CERTIFICADO DE CONFORMIDADE|CONFORME NORMA DIN EN 10204-3.1 (CERTIFICADOS DE MATÉRIA-PRIMA CONTENDO COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS)|COM MANUAL DE JUNTAS SOLDADAS|FORNECER DOCUMENTAÇÃO NO IDIOMA INGLÊS|INSPEÇÃO E RELATÓRIO DE LÍQUIDO PENETRANTE|INSPEÇÃO DE SOLDAGEM (IEIS/EPS/RQPS/RQS/RIS)|TODOS OS RELATÓRIOS E PROCEDIMENTOS DEVEM SER ASSINADOS POR INSPETORES QUALIFICADOS SNQC NIVEL II|ITEM RASTREÁVEL|SUPORTE PLAQUETA NÃO RASTREÁVEL|RELATÓRIO DE PARTÍCULA MAGNÉTICA ONDE APLICÁVEL|RELATÓRIO DE TESTE HIDROSTÁTICO|RELATÓRIO DE EVS (ENSAIO VISUAL DE SOLDA)|MATERIAL DO SUPORTE DA PLAQUETA: AISI 316L</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
@@ -3010,7 +3326,11 @@
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM090/TIPO BOMBA: BH(P)/             MATERIAL: AISI 316/ACABAMENTO: POLIDO - NORMA WN0113/                         CARAC. ESPECIAL: ESPECIAL P/SELO HJ977GN,COM RESSALTO NO ENCAIXE DO SELO/</t>
+        </is>
+      </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
@@ -3039,7 +3359,11 @@
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>BATENTE DO EIXO DO EXTRATOR DE LÓBULOS DE BOMBAS TORNADO MODELO DE BOMBA: TORNADO T1 XB MATERIAL: SAE 1020  PARA NOVA EXECUÇÃO FACELIFT</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -3068,7 +3392,11 @@
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>GARGANTA DN 1.1/2" - SCH80; MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
@@ -3097,7 +3425,11 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>GARGANTA DN 1.1/2" - SCH80 MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
@@ -3126,7 +3458,11 @@
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>BOCA DE RECALQUE NM063-18; FLANGE DIN EN 1092 DN 100 PN40 FF; MATERIAL: SAE 1020; COM 1 CONEXÃO P/ MANÔMETRO 3/4" NPT.</t>
+        </is>
+      </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
@@ -3155,7 +3491,11 @@
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 18/SÉRIE DA BOMBA: 16/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 3/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO NITRETADO 20MNCR5/                                        SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        TÊMPERA: 850°C-860°C/REVENIMENTO: 540°C-560°C, DUREZA 25+4 HRC/               NITRETAÇÃO: 500°C, DUREZA &gt;= 650HV, CAMADA 300+100µm/SENTIDO HÉLICE: DIREITA/ CARAC ESP PROJ: FURO DE RETORNO PARA ACL MAGNÉTICO/</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
@@ -3184,7 +3524,11 @@
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 10/SÉRIE DA BOMBA: 80/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 2/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO TOOLOX 44/                                                SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        SENTIDO HÉLICE: DIREITA/</t>
+        </is>
+      </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
@@ -3213,7 +3557,11 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>CORPO BOMBA  TAMANHO: 2NS-/16H8/EXECUÇÃO: FLANGE/MAT CORPO BOMBA: GJS500 7/   NORMA/CLASSE FL: B16.42/150FF/ESPECIAL: ESP/                                  NORMA MATERIAL: EN 1563 EN GJS 500 7/SENTIDO FLUXO: ESQUERDA P/ DIREITA/      TAMANHO FLANGE: DN 150/PRES PROJ (BAR): 16/CONEXÕES: R1/2" BSP/               CAR ES CO BOMBA: SEM USINAGEM PARA VÁLVULA,COM FURO DE DESAERAÇÃO PASSANTE,SEM UM DOS FUROS PARA RETORNO DE ÓLEO,ALOJAMENTO DOS FUSOS DESLOCADO P/ ALTA PRES. E GIRO HORÁRIO/</t>
+        </is>
+      </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
@@ -3242,7 +3590,11 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>EIXO MOVIDO DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
+        </is>
+      </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
@@ -3271,7 +3623,11 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>EIXO MOTOR DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
+        </is>
+      </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
@@ -3300,7 +3656,11 @@
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>GARGANTA COM CONEXÇÃO SANITÁRIA MATERIAL: AISI 304  CONEXÃO SANITÁRIA 2" TC  ESPECIAL:  - INCLINADA EM 45 GRAUS  - PARA TUBO Ø88,9mm</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
@@ -3329,7 +3689,11 @@
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>PORTA SELO MEC  TIPO DE BOMBA: NM105B/PLATAFORMA: (P)/TIPO: MG1-G60/          MAT CARCAÇA VED: AISI304L/EXEC VEDA EIXO: C/ DRENO,C/ FLUSHING,C/ QUENCH/     CONEX VEDA EIXO: G=1/4" NPT/CONEX. FLUSHING: G=1/4" NPT/DIÂM. DO EIXO: Ø100/  FIXAÇÃO SELAGEM: PADRÃO (PRENSADO)/                                           EXEC. ESPECIAL: COM BUCHA DE RESTRIÇÃO,PARA EXECUÇÃO SEM ANEL DE ENCOSTO,PARA PLANO API 32/</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
@@ -3358,7 +3722,11 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>FLANGE INTERMEDIÁRIA 3NS-/16H4I MATERIAL: FERRO FUNDIDO NODULAR - GGG50 ESPECIAL: APTA SOMENTE PARA ACOPLAMENTO MAGNÉTICO KTR MINEX 60/8; FOLGA ESPECIAL NA VEDAÇÃO DO FUSO Ø41,5 +0,18/+0,16 VAZÃO NECESSÁRIA PARA REFRIGERAÇÃO DO ACOPLAMENTO 30L/H À 2 BAR.</t>
+        </is>
+      </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
@@ -3387,7 +3755,11 @@
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>SUPORTE PARA JUNCTION BOX (CAIXA DE JUNÇÃO) MATERIAL: AÇO CARBONO E AISI 316 ONDE INDICADO NO DESENHO.  MEDIDA: A= 1165,0mm / B= 280,0mm</t>
+        </is>
+      </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
@@ -3416,7 +3788,11 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>TAMPA DIANTEIRA 3NS-/--3I MATERIAL SAE 1045  CARACT. ESPECIAL: EXECUÇÃO PARA ACOPLAMENTO MAGNÉTICO</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
@@ -3445,7 +3821,11 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>EIXO DE CONEXÃO ROTOR/LÂMINA NX549/NM053 ESPECIAL P/ MOLA MATERIAL: AISI 316</t>
+        </is>
+      </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
@@ -3474,7 +3854,11 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>BASE DE BOMBA "E" - APTA PARA:  -BOMBA 3NS-/80H9E;  -MOTOR ELÉTRICO CARCAÇA 225SM; -ACOPLAMENTO VULKAN H128-200; -MATERIAL: A-36;  OBS.: FORNECER BASE COM USINAGEM E SOLDA COMPLETA, SUPERFÍCIES USINADAS SEM PINTURA E PROTEGIDAS SOMENTE COM INIBIDOR DE CORROSÃO.</t>
+        </is>
+      </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
@@ -3503,7 +3887,11 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>TUBO DE IMERSÃO (SUCÇÃO) SEM FILTRO  PARA BOMBA 3NS-/80S3E MATERIAL: AISI 316</t>
+        </is>
+      </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
@@ -3532,7 +3920,11 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>EIXO DE ACIONAMENTO PCP NDH020DH20-HB-SB ESPECIAL PARA ACL SUPERIOR DA VEDAÇÃO ESTÁTICA DO LIP SEAL P/HASTE 1.1/4" MATERIAL: SAE 4140</t>
+        </is>
+      </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
@@ -3561,7 +3953,11 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>BOMBA NETZSCH "NEMO" MOD. NM021BY01L06B  ESPECIFICAÇÕES INTERFACE: BOCAIS DE SUCÇÃO E DESCARGA COM ROSCA INTERNA 1.1/4" NPT POSIÇÃO BOCAL SUCÇÃO: 1.a.1 (VERTICAL CENTRAL) POSIÇÃO BOCAL DESCARGA: 4.a.0 (CENTRAL) BY-PASS: VÁLVULA MOD. DN15, PRESSÃO DE ABERTURA: 2 BAR  MATERIAIS CARCAÇA: AÇO INOX 316 PARTES GIRATÓRIAS: AÇO INOX 316 ROTOR: AÇO INOX 316 UM20 MACIÇO ESTATOR: ELASTÔMERO SBE SELO MECÂNICO: UNS-SEAL 100 Ø25 Q1Q1VGG (8016162) ARTICULAÇÕES/VEDAÇÃO: B/SM ELASTÔMERO NBR ACIONAMENTO: MOTOREDUTOR NM021B NS17 0,75KW 60HZ N=565RPM (NDB4345946) BY-PASS: AÇO INOX 304 VÁLVULA: AÇO INOX 316/MEMBRANA SBE  OBS.  * REGULAR PRESSÃO DE ABERTURA DA VÁLVULA EM 2 BAR.  * APÓS FINALIZAR O TESTE DE PERFORMANCE INVERTER O SENTIDO DE MONTAGEM DA    VÁLVULA.</t>
+        </is>
+      </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
@@ -3590,7 +3986,11 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ELÁSTICO  MODELO: ROTEX/TAMANHO: 24/MEDIDA A: A=22,00mm/          MEDIDA B: B=24,50mm/MEDIDA C: C=6,00mm/CUBO FURO A: NORMAL/                   MEDIDA A1: A1=28,00mm/MEDIDA B1: B1=31,00mm/MEDIDA C1: C1=8,00mm/             CUBO FURO A1: GRANDE/FABRICANTE: KTR/                                         CARAC. ESPECIAL: CUBO 1A/1A (GRANDE/GRANDE),MEDIDA ATÉ O CENTRO DO FURO OBLONGO CONFORME DETALHE X IGUAL A 40,00/</t>
+        </is>
+      </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
@@ -3619,7 +4019,11 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST I459/    MATERIAL TUBO: AISI 304/</t>
+        </is>
+      </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
@@ -3648,7 +4052,11 @@
       <c r="P105" t="inlineStr"/>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM076/TIPO BOMBA: BH(P)/             MATERIAL: AISI 304/ACABAMENTO: POLIDO - NORMA WN0113/                         DIÂMETRO FURO: d1=50,00mm/</t>
+        </is>
+      </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
@@ -3677,7 +4085,11 @@
       <c r="P106" t="inlineStr"/>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S05G/    MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
@@ -3706,7 +4118,11 @@
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: NEMOLAST S63/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
@@ -3735,7 +4151,11 @@
       <c r="P108" t="inlineStr"/>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 120/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/  CARAC. ESPECIAL: BRUTO/</t>
+        </is>
+      </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
@@ -3764,7 +4184,11 @@
       <c r="P109" t="inlineStr"/>
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S43/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
@@ -3793,7 +4217,11 @@
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>BASE P/ BOMBA NM038BY-S/L/P(WP)       ESPECIAL ALTURA 69mm MATERIAL: SAE 1020</t>
+        </is>
+      </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
@@ -3822,7 +4250,11 @@
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA LB07-40 NORMA ANSI B-16.1 DN 2" 250LBS TIPO FF  GG-25</t>
+        </is>
+      </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
@@ -3851,7 +4283,11 @@
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 20/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
@@ -3880,7 +4316,11 @@
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>FLANGE MANCAL NEL50A  304 POS 015</t>
+        </is>
+      </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
@@ -3909,7 +4349,11 @@
       <c r="P114" t="inlineStr"/>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>ANEL PARA APERTO NESP 60 A MATERIAL: AISI 304</t>
+        </is>
+      </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
@@ -3938,7 +4382,11 @@
       <c r="P115" t="inlineStr"/>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>BIELA P/ BOMBA SERA R 411.1-1100E D=25; L=149,5; MATERIAL  1.4201/ST   CÓDIGO: 90005392</t>
+        </is>
+      </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
@@ -3967,7 +4415,11 @@
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
       <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>ANEL DE VEDACAO  TC 1/2" CONFORME ISO2852 TIPO A MATERIAL PERBUNAN</t>
+        </is>
+      </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
@@ -3996,7 +4448,11 @@
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>COLAR TRASEIRO EXTERNO PTFE P/ MDM-1516 CÓD. MDM0613</t>
+        </is>
+      </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
@@ -4025,7 +4481,11 @@
       <c r="P118" t="inlineStr"/>
       <c r="Q118" t="inlineStr"/>
       <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>PARAFUSO  TIPO: SEXT./BITOLA: M24 x  70,00mm/MATERIAL: A2-70 (304)/           NORMA: ISO 4014/</t>
+        </is>
+      </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
@@ -4054,7 +4514,11 @@
       <c r="P119" t="inlineStr"/>
       <c r="Q119" t="inlineStr"/>
       <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 11 (WN); FACE B1; DN 25; PN 40; ESPESSURA DA PAREDE DO PESCOÇO S= 2,6 MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE. FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
@@ -4083,7 +4547,11 @@
       <c r="P120" t="inlineStr"/>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 63; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
+        </is>
+      </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
@@ -4112,7 +4580,11 @@
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 40; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
+        </is>
+      </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
@@ -4141,7 +4613,11 @@
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>ALÇA PARA DESLOCAMENTO P/ BOMBA TORNADO XB-4; MATERIAL SAE 1020 OBS.: FORNECER BASE COM USINAGEM, FURAÇÃO E SOLDA COMPLETA.</t>
+        </is>
+      </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
@@ -4170,7 +4646,11 @@
       <c r="P123" t="inlineStr"/>
       <c r="Q123" t="inlineStr"/>
       <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>ROTOR  TIPO DE CABEÇA: B/TAMANHO: NX549/NM076/ESTÁGIOS: 02/GEOMETRIA: S/      CLASSE PRESSÃO: 12/MATERIAL: AISI 316/TEMPERATURA: UM20/ESTRUTURA: MACIÇO/    CARAC. ESPECIAL: ESPECIAL PARA LÂMINA (EIXO SOLDADO)/</t>
+        </is>
+      </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
@@ -4199,7 +4679,11 @@
       <c r="P124" t="inlineStr"/>
       <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>MATERIAL: SAE 1020 PINTURA EXTERNA: COR VERDE EMBLEMA 2,5 G 3/4 PINTURA INTERNA: COR BRANCA</t>
+        </is>
+      </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
@@ -4228,7 +4712,11 @@
       <c r="P125" t="inlineStr"/>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS ESPECIAL MODELO: 3NS-/80-7- MATERIAL: FERRO FUNDIDO DIN EN 1563 EN GJS 500 7 (GGG-50)  **ESPECIAL = POS.15 DO ANEL-O DESLOCADO**  **MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.**</t>
+        </is>
+      </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
@@ -4257,7 +4745,11 @@
       <c r="P126" t="inlineStr"/>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
@@ -4286,7 +4778,11 @@
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 03/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
@@ -4315,7 +4811,11 @@
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 01/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
@@ -4344,7 +4844,11 @@
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: J/SÉRIE: NES/TAMANHO: 60A/MATERIAL: AISI 304/          TIPO DA ROSCA: ROSCA S/ FIM/</t>
+        </is>
+      </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
@@ -4373,7 +4877,11 @@
       <c r="P130" t="inlineStr"/>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B-SM/SÉRIE: NBS/TAMANHO: 40A/MATERIAL: AISI 316/       VEDAÇÃO SM: VED SM/TIPO DA ROSCA: ROSCA S/ FIM/</t>
+        </is>
+      </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
@@ -4402,7 +4910,11 @@
       <c r="P131" t="inlineStr"/>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM105/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 04/ MATERIAL: AISI 304/</t>
+        </is>
+      </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
@@ -4431,7 +4943,11 @@
       <c r="P132" t="inlineStr"/>
       <c r="Q132" t="inlineStr"/>
       <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA NES40A  MATERIAL AISI 304. COM CAMISA DE AQUECIMENTO. POLIDO INTERNAMENTE.</t>
+        </is>
+      </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
@@ -4460,7 +4976,11 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>GARGANTA  NE 100      MATERIAL  AISI 316</t>
+        </is>
+      </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
@@ -4489,7 +5009,11 @@
       <c r="P134" t="inlineStr"/>
       <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA NEC 60A    ESPECIAL BOCAL DE SUCÇÃO 4"SMS TANGENCIAL C/ BOCAL ADICIONAL P/ LIMPEZA CIP 2"SMS TANGENCIAL MATERIAL AISI 304 POLIDO INT/EXT.</t>
+        </is>
+      </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
@@ -4518,7 +5042,11 @@
       <c r="P135" t="inlineStr"/>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>GARGANTA NEC 60A ESPECIAL P/CONEXÃO SANITÁRIA 4" TANGENCIAL MATERIAL: AISI 304.</t>
+        </is>
+      </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
@@ -4547,7 +5075,11 @@
       <c r="P136" t="inlineStr"/>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM053/EXECUÇÃO BOMBA: O/ESTÁGIOS: 04/       GEOMETRIA: S/CLASSE PRESSÃO: 24/MATERIAL: AISI 304/                           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: ESP./DIST. ARTICUL.: GA=1100mm/       CARAC. ESPECIAL: COM ROSCA EM TODA EXTENSÃO DO FUNIL,PARA CORPO DA BOMBA COM FUNIL 602 X 224/</t>
+        </is>
+      </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
@@ -4576,7 +5108,11 @@
       <c r="P137" t="inlineStr"/>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM031-H-12- MATERIAL  AISI 304 CONEXÃO SANITÁRIA 2.1/2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
+        </is>
+      </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
@@ -4605,7 +5141,11 @@
       <c r="P138" t="inlineStr"/>
       <c r="Q138" t="inlineStr"/>
       <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM038-12   C/ CONEXÃO SANITÁRIA 3"SMS   MATERIAL:  AISI 316 POLIDO INTERNAMENTE. C/ CAMISA DE AQUECIMENTO.</t>
+        </is>
+      </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
@@ -4634,7 +5174,11 @@
       <c r="P139" t="inlineStr"/>
       <c r="Q139" t="inlineStr"/>
       <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM045-F-12 MATERIAL  AISI 316 BOCA RETANGULAR 750 X 220 ACABAMENTO: POLIDO INTERNO</t>
+        </is>
+      </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
@@ -4663,7 +5207,11 @@
       <c r="P140" t="inlineStr"/>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr"/>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 14/ PLATAFORMA P: (P)/MATERIAL: AISI 316L/ACABAMENTO: ESP/                        CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
+        </is>
+      </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
@@ -4692,7 +5240,11 @@
       <c r="P141" t="inlineStr"/>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM031/EXECUÇÃO BOMBA: H/ESTÁGIOS: 02/       GEOMETRIA: S/CLASSE PRESSÃO: 12/PLATAFORMA: (P)/MATERIAL: AISI 304/           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: POL./                                 TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
+        </is>
+      </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
@@ -4721,7 +5273,11 @@
       <c r="P142" t="inlineStr"/>
       <c r="Q142" t="inlineStr"/>
       <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM076-14             01 DRENO COM CAMISA DE AQUECIMENTO MATERIAL  AISI 304 FLANGE CFE ANSI B16.5 150PSI 6" FF</t>
+        </is>
+      </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
@@ -4750,7 +5306,11 @@
       <c r="P143" t="inlineStr"/>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM021-12 MATERIAL  AISI 316 CONEXAO  ROSCA NPT 1.1/4" (+01 DRENO) BOCAL DE SUCÇÃO TANGENCIAL À DIREITA (VISTA DO ACIONAMENTO)</t>
+        </is>
+      </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
@@ -4779,7 +5339,11 @@
       <c r="P144" t="inlineStr"/>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM031/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 48/ MATERIAL: AISI 316L/</t>
+        </is>
+      </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
@@ -4808,7 +5372,11 @@
       <c r="P145" t="inlineStr"/>
       <c r="Q145" t="inlineStr"/>
       <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM038/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 420/ACABAMENTO: POLIDO/                      TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
+        </is>
+      </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
@@ -4837,7 +5405,11 @@
       <c r="P146" t="inlineStr"/>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM021-O-12 MATERIAL  AISI 316 BOCA RETANGULAR 104 X 204 STANDARD: COM 01 DRENO  (EXECUÇÃO C/ ROSCA SEM FIM EM TODA EXTENSÃO DO FUNIL).</t>
+        </is>
+      </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
@@ -4866,7 +5438,11 @@
       <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>ESTATOR  NM093--02S  C/02CHANFROS(ESPECIAL) MATERIAL  NEMOLAST G91 (VI-65/Alu)</t>
+        </is>
+      </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
@@ -4895,7 +5471,11 @@
       <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM105-T---12        MATERIAL  SAE 1020. FLANGE 8"ANSI B16.5 / 150PSI / FF. C/ PLACA DE SUSTENTAÇÃO RETANGULAR (1200X800). PROFUNDIDADE DE IMERSÃO: 2800mm. DIMENSÕES: A=3368mm; B=3168mm; L=2084mm;</t>
+        </is>
+      </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
@@ -4924,7 +5504,11 @@
       <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>CORPO DE DESGASTE PARA BOMBA DE FUSOS MODELO PARA CORPO FUNDIDO: 3NS-/40H5- MATERIAL: FERRO FUNDIDO GG-30 - BRUNIMENTO NO ALOJAMENTO DOS FUSOS MOVIDOS; - MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.</t>
+        </is>
+      </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
@@ -4953,7 +5537,11 @@
       <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>BU MANCAL 2NS -/16-4-  MATERIAL: VESCONITE HILUBE</t>
+        </is>
+      </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
@@ -4982,7 +5570,11 @@
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7</t>
+        </is>
+      </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
@@ -5011,7 +5603,11 @@
       <c r="P152" t="inlineStr"/>
       <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>PLACA DE ARRASTE PCP HASTE 1.1/2" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
+        </is>
+      </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
@@ -5040,7 +5636,11 @@
       <c r="P153" t="inlineStr"/>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr"/>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>PLACA DE ARRASTE PCP HASTE 1.1/4" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
+        </is>
+      </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
@@ -5069,7 +5669,11 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr"/>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM105/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 02/ MATERIAL: UNS S31803/</t>
+        </is>
+      </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
@@ -5098,7 +5702,11 @@
       <c r="P155" t="inlineStr"/>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr"/>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>PÉ DA BOMBA DE FUSOS 3NS-/40H5- E 3NS-/40H6- MATERIAL FERRO FUNDIDO NODULAR DIN EN 1563 EN GJS 500 7 CONEXÕES PARA O AQUECIMENTO: 3/8"BSP PRESSÃO MÁXIMA NA CÂMARA DE AQUECIMENTO: 16,0 BAR (T_MÁX: 200°C) PRESSÃO TH MÁXIMO NA CÂMARA DE AQUECIMENTO: 24,0 BAR  MODELO NR NB4949103 (IDENT NDB4949103)</t>
+        </is>
+      </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
@@ -5127,7 +5735,11 @@
       <c r="P156" t="inlineStr"/>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr"/>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>BOCAL DE SUCÇÃO  TAMANHO: 3NS-/-L5-/NORMA: DIN EN 1563 EN GJS 500 7/          EXECUÇÃO: BOCAL ORIENTÁVEL EM TODOS OS QUADRANTES/                            MATERIAL: FERRO FUNDIDO NODULAR/MODELO: NB 4949924/                           CERTIFICADO: COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS ESPECÍFICAS PARA O ITEM ADQUIRIDO, NORMA DE FABRICAÇÃO, NÚMERO DA CORRIDA E LOTE/PESO/PÇ (KG): 5,10/</t>
+        </is>
+      </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
@@ -5156,7 +5768,11 @@
       <c r="P157" t="inlineStr"/>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr"/>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>ESTATOR 2N 60 SBE (NBR COM 465 ACN) COM FERRAMENTA BB DIAM MENOR 59,6-0,70MM TUBO EVEN WALL</t>
+        </is>
+      </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
@@ -5185,7 +5801,11 @@
       <c r="P158" t="inlineStr"/>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM038-O-12        ESPECIAL MATERIAL  AISI 316 BOCA RETANGULAR 154 X 254mm ACABAMENTO: POLIDO INTERNO</t>
+        </is>
+      </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr"/>
@@ -5214,7 +5834,11 @@
       <c r="P159" t="inlineStr"/>
       <c r="Q159" t="inlineStr"/>
       <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM090-P-18  G=1"NPT MATERIAL  SAE 1020 BOCA RETANGULAR 750 X 720MM</t>
+        </is>
+      </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
@@ -5243,7 +5867,11 @@
       <c r="P160" t="inlineStr"/>
       <c r="Q160" t="inlineStr"/>
       <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM038-H-12-              (CORPO C/ REPUXE) MATERIAL AISI 304 CONEXÃO SANITÁRIA 2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
+        </is>
+      </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
@@ -5272,7 +5900,11 @@
       <c r="P161" t="inlineStr"/>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM045/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 304/ALTURA IMERSÃO: 2200mm/                 MEDIDA GA: GA=1692mm/MEDIDA B: B=1724mm/</t>
+        </is>
+      </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
@@ -5301,7 +5933,11 @@
       <c r="P162" t="inlineStr"/>
       <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM031/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ MATERIAL: AISI 304/ACABAMENTO: ESP/                                           CARAC. ESPECIAL: APENAS PARA BOMBAS EM CORTE (EXPOSIÇÕES)/</t>
+        </is>
+      </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
@@ -5330,7 +5966,11 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP/                         CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
+        </is>
+      </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
@@ -5359,7 +5999,11 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: K/TAMANHO: NM105/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 420/ALTURA IMERSÃO: 2891mm/                 MEDIDA GA: GA=1841mm/MEDIDA B: B=1985mm/</t>
+        </is>
+      </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
@@ -5388,7 +6032,11 @@
       <c r="P165" t="inlineStr"/>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr"/>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM063-14 MATERIAL AISI 316 CONEXÃO SANITÁRIA 3"TC POLIDO INTERNO</t>
+        </is>
+      </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
@@ -5417,7 +6065,11 @@
       <c r="P166" t="inlineStr"/>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: J/TAMANHO: NM076/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 07/ PLATAFORMA P: (P)/MATERIAL: SAE 1020/ACABAMENTO: ESP/                         CARAC. ESPECIAL: MEDIDA A = 405mm/</t>
+        </is>
+      </c>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
@@ -5446,7 +6098,11 @@
       <c r="P167" t="inlineStr"/>
       <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>FLANGE DO CORPO  MODELO: 4NS-/-H1E/MATERIAL: ASTM A-36/MEDIDA B: B=280,00/    MEDIDA C: C=330,00/MEDIDA A: A=35,00/MEDIDA D: D=190,00/MEDIDA E: E=230,00/   MEDIDA F: F=10,00/MEDIDA G: G=41,28/MEDIDA H: H=140,00/MEDIDA J: J=40,00/     MEDIDA K: K=270,50/MEDIDA L: L=181,00/MEDIDA M: M=202,00/MEDIDA N: N=140,00/  MEDIDA R: R=350,00mm/MEDIDA R1: R1=180,00/</t>
+        </is>
+      </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
@@ -5475,7 +6131,11 @@
       <c r="P168" t="inlineStr"/>
       <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>FLANGE DO CORPO  MODELO: 4NS-/-H4E/MATERIAL: ASTM A-36/MEDIDA B: B=430,00/    MEDIDA C: C=520,00/MEDIDA A: A=65,00/MEDIDA D: D=260,00/MEDIDA E: E=380,00/   MEDIDA F: F=25,00/MEDIDA G: G=50,80/MEDIDA H: H=230,00/MEDIDA J: J=50,00/     MEDIDA K: K=269,00/MEDIDA L: L=313,00/MEDIDA M: M=344,00/MEDIDA N: N=230,00/  MEDIDA R: R=590,00mm/MEDIDA R1: R1=430,00/</t>
+        </is>
+      </c>
       <c r="T168" t="inlineStr"/>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
@@ -5504,7 +6164,11 @@
       <c r="P169" t="inlineStr"/>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr"/>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>BOMBA DE FUSOS NETZSCH MOD. 3NS 07/25M2E  DIÂMETRO EXTERNO/PASSO: Ø26/38 3 = 3 FUSOS NS = NETZSCH SCREW 07 = VAZÃO (0,7m³/h @ 1000 RPM @ 0 BAR) /25 = PRESSÃO DE DESCARGA MÁX. (bar) M = EXECUÇÃO MINI 2 = MANCAL NR. 2 E = ROLAMENTO EXTERNO BLINDADO COM VÁLVULA DE ALÍVIO INTEGRADA - 10 A 25 BAR ABERTURA VÁLVULA REGULADA 20 BAR FLANGES DE CONEXÃO 1.1/2" SAE J518C 3000 PSI</t>
+        </is>
+      </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
@@ -5533,7 +6197,11 @@
       <c r="P170" t="inlineStr"/>
       <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr"/>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM038/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP,POLIDO/                  TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/                                CARAC. ESPECIAL: SEM FUROS ADICIONAIS/</t>
+        </is>
+      </c>
       <c r="T170" t="inlineStr"/>
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
@@ -5562,7 +6230,11 @@
       <c r="P171" t="inlineStr"/>
       <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr"/>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/80-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7 SEM FURO PARA RETORNO DE ÓLEO.</t>
+        </is>
+      </c>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
@@ -5591,7 +6263,11 @@
       <c r="P172" t="inlineStr"/>
       <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr"/>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-8- (MODELO ANTIGO - COMPRIMENTO MENOR) EXECUÇÃO: HOUSING; MATERIAL: FERRO FUNDIDO GGG-50;  **MEDIR RUGOSIDADE (RMAX=4) DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.*</t>
+        </is>
+      </c>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W175"/>
+  <dimension ref="A1:Z175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,21 @@
           <t>SAP17</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>MAKTX(EN)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MAKTX(ES)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>MAKTX(DE)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -666,6 +681,9 @@
           <t>NORMT (Normbezeichnung)</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -695,6 +713,9 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -728,6 +749,9 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -761,6 +785,9 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -794,6 +821,9 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -827,6 +857,9 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -860,6 +893,9 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -893,6 +929,9 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -926,6 +965,9 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -959,6 +1001,9 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -992,6 +1037,9 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1025,6 +1073,9 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1058,6 +1109,9 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1091,6 +1145,9 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1124,6 +1181,9 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1157,6 +1217,9 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1190,6 +1253,9 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1223,6 +1289,9 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1256,6 +1325,9 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1289,6 +1361,9 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1322,6 +1397,9 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1355,6 +1433,9 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1388,6 +1469,9 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1421,6 +1505,9 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1454,6 +1541,9 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1487,6 +1577,9 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1520,6 +1613,9 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1553,6 +1649,9 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1586,6 +1685,9 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1619,6 +1721,9 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1652,6 +1757,9 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1685,6 +1793,9 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1718,6 +1829,9 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1751,6 +1865,9 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1784,6 +1901,9 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1817,6 +1937,9 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1850,6 +1973,9 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1883,6 +2009,9 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1916,6 +2045,9 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1949,6 +2081,9 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1982,6 +2117,9 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2015,6 +2153,9 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2048,6 +2189,9 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2081,6 +2225,9 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2114,6 +2261,9 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2147,6 +2297,9 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2180,6 +2333,9 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2213,6 +2369,9 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2246,6 +2405,9 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2279,6 +2441,9 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2312,6 +2477,9 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2345,6 +2513,9 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2378,6 +2549,9 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2411,6 +2585,9 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2444,6 +2621,9 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2477,6 +2657,9 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2510,6 +2693,9 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2543,6 +2729,9 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2576,6 +2765,9 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2609,6 +2801,9 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2642,6 +2837,9 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2675,6 +2873,9 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2708,6 +2909,9 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2741,6 +2945,9 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2774,6 +2981,9 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2807,6 +3017,9 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2840,6 +3053,9 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2873,6 +3089,9 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2906,6 +3125,9 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2939,6 +3161,9 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2972,6 +3197,9 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3005,6 +3233,9 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3038,6 +3269,9 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3071,6 +3305,9 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3104,6 +3341,9 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3137,6 +3377,9 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3170,6 +3413,9 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3203,6 +3449,9 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3236,6 +3485,9 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3269,6 +3521,9 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3302,6 +3557,9 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3335,6 +3593,9 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3368,6 +3629,9 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3401,6 +3665,9 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3434,6 +3701,9 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3467,6 +3737,9 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3500,6 +3773,9 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3533,6 +3809,9 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3566,6 +3845,9 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3599,6 +3881,9 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3632,6 +3917,9 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3665,6 +3953,9 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3698,6 +3989,9 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3731,6 +4025,9 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3764,6 +4061,9 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3797,6 +4097,9 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3830,6 +4133,9 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3863,6 +4169,9 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3896,6 +4205,9 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3929,6 +4241,9 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3962,6 +4277,9 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3995,6 +4313,9 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4028,6 +4349,9 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4061,6 +4385,9 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4094,6 +4421,9 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4127,6 +4457,9 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4160,6 +4493,9 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4193,6 +4529,9 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4226,6 +4565,9 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4259,6 +4601,9 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4292,6 +4637,9 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4325,6 +4673,9 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4358,6 +4709,9 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4391,6 +4745,9 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4424,6 +4781,9 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4457,6 +4817,9 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4490,6 +4853,9 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4523,6 +4889,9 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4556,6 +4925,9 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4589,6 +4961,9 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4622,6 +4997,9 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4655,6 +5033,9 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4688,6 +5069,9 @@
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4721,6 +5105,9 @@
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4754,6 +5141,9 @@
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4787,6 +5177,9 @@
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4820,6 +5213,9 @@
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4853,6 +5249,9 @@
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4886,6 +5285,9 @@
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4919,6 +5321,9 @@
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4952,6 +5357,9 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4985,6 +5393,9 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5018,6 +5429,9 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5051,6 +5465,9 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5084,6 +5501,9 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5117,6 +5537,9 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5150,6 +5573,9 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5183,6 +5609,9 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5216,6 +5645,9 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5249,6 +5681,9 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5282,6 +5717,9 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5315,6 +5753,9 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5348,6 +5789,9 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5381,6 +5825,9 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5414,6 +5861,9 @@
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5447,6 +5897,9 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5480,6 +5933,9 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5513,6 +5969,9 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5546,6 +6005,9 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5579,6 +6041,9 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5612,6 +6077,9 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5645,6 +6113,9 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5678,6 +6149,9 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5711,6 +6185,9 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5744,6 +6221,9 @@
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5777,6 +6257,9 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5810,6 +6293,9 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr"/>
       <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5843,6 +6329,9 @@
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
       <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5876,6 +6365,9 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5909,6 +6401,9 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5942,6 +6437,9 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5975,6 +6473,9 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6008,6 +6509,9 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6041,6 +6545,9 @@
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6074,6 +6581,9 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6107,6 +6617,9 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6140,6 +6653,9 @@
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6173,6 +6689,9 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
       <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6206,6 +6725,9 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6239,6 +6761,9 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6272,6 +6797,9 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6301,6 +6829,9 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6330,6 +6861,9 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6359,6 +6893,9 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z175"/>
+  <dimension ref="A1:P176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>SAP10</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SAP5</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SAP14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>SAP1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Spalte1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SAP2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Coluna2</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SAP3</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Coluna3</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Coluna34</t>
+          <t>Coluna32</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Coluna32</t>
+          <t>SAP6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Coluna33</t>
+          <t>SAP15</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>SAP42</t>
+          <t>Coluna4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>SAP5</t>
+          <t>SAP17</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>SAP6</t>
+          <t>SAP123</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>SAP7</t>
+          <t>MAKTX(EN)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>SAP8</t>
+          <t>MAKTX(ES)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SAP9</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>SAP10</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>SAP11</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>SAP123</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>SAP14</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>SAP15</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Coluna4</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>SAP17</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>MAKTX(EN)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>MAKTX(ES)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>MAKTX(DE)</t>
         </is>
@@ -568,159 +518,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Material </t>
+          <t>item(table) + it-codigo(field)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAKTX (PT)</t>
+          <t>SAP10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;- Length</t>
+          <t>SAP5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MAKTX (EN)</t>
+          <t>SAP14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;- Length</t>
+          <t>SAP1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MAKTX (ES)</t>
+          <t>SAP2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;- Length</t>
+          <t>SAP3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MAKTX (DE) NEW</t>
+          <t>Coluna32</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>MAKTX (DE)</t>
+          <t>SAP6</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>&lt;- Length</t>
+          <t>SAP15</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ZZ_DICT_KEY_MAIN</t>
+          <t>Coluna4</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>MEINS</t>
+          <t>SAP17</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Product group</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PRDHA</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NTGEW + BRGEW</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>GEWEI</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>MSTAE (X-Plant Mat.Status)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>MSTDE (Valid from)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Internal comment (narrative)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>LABOR</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>GROES (Size/Dimension)</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>WRKST (material)</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>NORMT (Normbezeichnung)</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+          <t>SAP123</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4076411</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+          <t xml:space="preserve">Material </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MSTAE (X-Plant Mat.Status)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MEINS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LABOR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MAKTX (PT)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MAKTX (EN)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MAKTX (ES)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MAKTX (DE)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Product group</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>GROES (Size/Dimension)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>WRKST (material)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NORMT (Normbezeichnung)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Internal comment (narrative)</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4076541</t>
+          <t>4076411</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -734,29 +672,19 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=4,22/ROTAÇÃO: N=416RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 2,20KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: FAF37-DRN90LP4/V/TF/                                CARAC. ESPECIAL: COM TERMISTOR TIPO PTC - TF,VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS 87-AMS160/          REDUÇÃO: I=5,30/FORMA CONSTRUT: M1/CÓDIGO SEW: RF87 AMS160/                   PARA MOTOR: CARCAÇA 160/DESENHO SEW: NÃO INFORMADO/</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4076994</t>
+          <t>4076541</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -770,29 +698,19 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS 87-AMS160/          REDUÇÃO: I=5,30/FORMA CONSTRUT: M1/CÓDIGO SEW: RF87 AMS160/                   PARA MOTOR: CARCAÇA 160/DESENHO SEW: NÃO INFORMADO/</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>MOTOR SEW MODELO: DRN80MP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/      CARCAÇA: 80M/NRº DE FASES: 3/POTÊNCIA: 1,10KW/FREQUENCIA: 60HZ/               EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF165/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4076998</t>
+          <t>4076994</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -806,29 +724,19 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MOTOR SEW MODELO: DRN80MP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/      CARCAÇA: 80M/NRº DE FASES: 3/POTÊNCIA: 1,10KW/FREQUENCIA: 60HZ/               EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF165/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>MOTOR SEW MODELO: DRN132SP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/     CARCAÇA: 132S/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF265/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4077213</t>
+          <t>4076998</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -842,29 +750,19 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MOTOR SEW MODELO: DRN132SP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/     CARCAÇA: 132S/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF265/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 04_0.01/MODELO: WAF10 DR2S56MP4/        REDUÇÃO: I=39,00/ROTAÇÃO: N=41RPM/                                            FORMA CONSTRUT.: M4A-L (CAIXA DE LIGAÇÃO 180°/X)/POTÊNCIA: 0,15KW/            FREQUÊNCIA: 60HZ/EFICIENCIA: STANDARD (IR1)/TENSÃO: 220/380V/                 GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA ABNT/   FLANGE: EF W003/06/PONTA DE EIXO: Ø16mm/                                      CARAC. ESPECIAL: COM COBERTURA DE PROTEÇÃO DO EIXO,EIXO VEIO OCO/</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4077235</t>
+          <t>4077213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -878,29 +776,19 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 04_0.01/MODELO: WAF10 DR2S56MP4/        REDUÇÃO: I=39,00/ROTAÇÃO: N=41RPM/                                            FORMA CONSTRUT.: M4A-L (CAIXA DE LIGAÇÃO 180°/X)/POTÊNCIA: 0,15KW/            FREQUÊNCIA: 60HZ/EFICIENCIA: STANDARD (IR1)/TENSÃO: 220/380V/                 GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA ABNT/   FLANGE: EF W003/06/PONTA DE EIXO: Ø16mm/                                      CARAC. ESPECIAL: COM COBERTURA DE PROTEÇÃO DO EIXO,EIXO VEIO OCO/</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM045B/CÓDIGO NETZSCH: NS57/              REDUÇÃO: I=17,57/ROTAÇÃO: N=100RPM/FORMA CONSTR: M2A/POTÊNCIA MOTOR: 3,70KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF57 DRN90LP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4077526</t>
+          <t>4077235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -914,29 +802,19 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM045B/CÓDIGO NETZSCH: NS57/              REDUÇÃO: I=17,57/ROTAÇÃO: N=100RPM/FORMA CONSTR: M2A/POTÊNCIA MOTOR: 3,70KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF57 DRN90LP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=7,28/ROTAÇÃO: N=242RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 5,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN112MP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4077987</t>
+          <t>4077526</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -950,29 +828,19 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=7,28/ROTAÇÃO: N=242RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 5,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN112MP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_5.1/MODELO: RF77 DRN100L4/           REDUÇÃO: I=36,83/ROTAÇÃO: N=40RPM/POTÊNCIA: 3,00KW/FREQUÊNCIA: 50HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380V/                   GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA IEC/    FLANGE: Ø250mm/PONTA DE EIXO: 35X70MM/</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4078021</t>
+          <t>4077987</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -986,29 +854,19 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_5.1/MODELO: RF77 DRN100L4/           REDUÇÃO: I=36,83/ROTAÇÃO: N=40RPM/POTÊNCIA: 3,00KW/FREQUÊNCIA: 50HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380V/                   GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA IEC/    FLANGE: Ø250mm/PONTA DE EIXO: 35X70MM/</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>MOTOR ELÉTRICO TRIFÁSICO PMM (IMÃS PERMANENTES)W22,IE4; FORMA CONSTRUTIVA V1T; TORQUE CONSTANTE 1196NM (882 ft.lb); 16 POLOS; ROTAÇÃO NOMINAL 375RPM; POTÊNCIA 47KW (63,5HP); TEFC; IP-55; FREQUÊNCIA 4 ATÉ 50 HZ; TENSÃO 380V C/ 6 TERMINAIS; CORRENTE 82A; ISOLAMENTO CLASSE F; FATOR DE SERVIÇO: 1,00; CARCAÇA 315S/M; PLANO DE PINTURA 202P; COR 091A.3145; COM PLACA DE BORNES; FLANGE FF-600; COM FURO PASSANTE NO EIXO Ø60MM; COM PONTA DE EIXO NA PARTE SUPERIOR; SAÍDA DE CABOS DA CAIXA DE LIGAÇÃO PRINCIPAL VOLTADA PARA EIXO; COM CERTIFICAÇÃO ATEX/IECEX, ZONA 2, GRUPO IIC, T3; ESPECIAL PARA APLICAÇÃO EM CABEÇOTES DE ACIONAMENTOS PCP. PLAQUETA DO MOTOR COM VALOR DE TORQUE EXPRESSA EM FT.LB E POTÊNCIA EM HP. CONFORME FOLHA DE DADOS NR...., ITEM FORNECEDOR: 17464798.</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4323918</t>
+          <t>4078021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1022,29 +880,19 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MOTOR ELÉTRICO TRIFÁSICO PMM (IMÃS PERMANENTES)W22,IE4; FORMA CONSTRUTIVA V1T; TORQUE CONSTANTE 1196NM (882 ft.lb); 16 POLOS; ROTAÇÃO NOMINAL 375RPM; POTÊNCIA 47KW (63,5HP); TEFC; IP-55; FREQUÊNCIA 4 ATÉ 50 HZ; TENSÃO 380V C/ 6 TERMINAIS; CORRENTE 82A; ISOLAMENTO CLASSE F; FATOR DE SERVIÇO: 1,00; CARCAÇA 315S/M; PLANO DE PINTURA 202P; COR 091A.3145; COM PLACA DE BORNES; FLANGE FF-600; COM FURO PASSANTE NO EIXO Ø60MM; COM PONTA DE EIXO NA PARTE SUPERIOR; SAÍDA DE CABOS DA CAIXA DE LIGAÇÃO PRINCIPAL VOLTADA PARA EIXO; COM CERTIFICAÇÃO ATEX/IECEX, ZONA 2, GRUPO IIC, T3; ESPECIAL PARA APLICAÇÃO EM CABEÇOTES DE ACIONAMENTOS PCP. PLAQUETA DO MOTOR COM VALOR DE TORQUE EXPRESSA EM FT.LB E POTÊNCIA EM HP. CONFORME FOLHA DE DADOS NR...., ITEM FORNECEDOR: 17464798.</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4324050</t>
+          <t>4323918</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1058,29 +906,19 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4324228</t>
+          <t>4324050</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1094,29 +932,19 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 12"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4324229</t>
+          <t>4324228</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1130,29 +958,19 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 12"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4324266</t>
+          <t>4324229</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1166,29 +984,19 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4324273</t>
+          <t>4324266</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1202,29 +1010,19 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4324275</t>
+          <t>4324273</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1238,29 +1036,19 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4324292</t>
+          <t>4324275</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1274,29 +1062,19 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4324299</t>
+          <t>4324292</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1310,29 +1088,19 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4324300</t>
+          <t>4324299</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1346,29 +1114,19 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4324322</t>
+          <t>4324300</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1382,29 +1140,19 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4324462</t>
+          <t>4324322</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1418,29 +1166,19 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4324463</t>
+          <t>4324462</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1454,29 +1192,19 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM:,ESPANHA, PORTUGAL, TAIWAN, CHINA, LESTE EUROPEU, ÁFRICA, AMÉRICA CENTRAL E DO SUL, LAOS, C/</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4324476</t>
+          <t>4324463</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1490,29 +1218,19 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM:,ESPANHA, PORTUGAL, TAIWAN, CHINA, LESTE EUROPEU, ÁFRICA, AMÉRICA CENTRAL E DO SUL, LAOS, C/</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 300#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4324478</t>
+          <t>4324476</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1526,29 +1244,19 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 300#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO NACE MR0175/ISO 15156/</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4324483</t>
+          <t>4324478</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1562,29 +1270,19 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO NACE MR0175/ISO 15156/</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 12"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4324742</t>
+          <t>4324483</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1598,29 +1296,19 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 12"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: DUPLEX UNS S31803/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4324744</t>
+          <t>4324742</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1634,29 +1322,19 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: DUPLEX UNS S31803/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: DUPLEX UNS S31803/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4324774</t>
+          <t>4324744</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1670,29 +1348,19 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: DUPLEX UNS S31803/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4324896</t>
+          <t>4324774</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1706,29 +1374,19 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4324897</t>
+          <t>4324896</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1742,29 +1400,19 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3/4"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4324921</t>
+          <t>4324897</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1778,29 +1426,19 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3/4"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4325017</t>
+          <t>4324921</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1814,29 +1452,19 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM: CHINA E ESTADOS UNIDOS./</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4325105</t>
+          <t>4325017</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1850,29 +1478,19 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM: CHINA E ESTADOS UNIDOS./</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4325164</t>
+          <t>4325105</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1886,29 +1504,19 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4325308</t>
+          <t>4325164</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1922,29 +1530,19 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 5"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4325782</t>
+          <t>4325308</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1958,29 +1556,19 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 5"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>MOTOR SEW MODELO: DRN132M4/FE/FORMA CONSTR: B35/POS. CAIXA LIG: T (270°/X)/   CARCAÇA: 132M/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IP55/NORMA: ABNT/FLANGE: FF265/             TENSÃO: 220/380V COM 06 TERMINAIS/ISOLAMENTO: F/REGIME SERVIÇO: S1/           CARAC. ESPECIAL: ENSAIO DE TIPO SEM INSPETOR - TODO LOTE,MOTOR C/ 2 FITAS DE AQUECIMENTO AC 230V, LADO A+B/</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4325797</t>
+          <t>4325782</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1994,29 +1582,19 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>MOTOR SEW MODELO: DRN132M4/FE/FORMA CONSTR: B35/POS. CAIXA LIG: T (270°/X)/   CARCAÇA: 132M/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IP55/NORMA: ABNT/FLANGE: FF265/             TENSÃO: 220/380V COM 06 TERMINAIS/ISOLAMENTO: F/REGIME SERVIÇO: S1/           CARAC. ESPECIAL: ENSAIO DE TIPO SEM INSPETOR - TODO LOTE,MOTOR C/ 2 FITAS DE AQUECIMENTO AC 230V, LADO A+B/</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1/2"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4348119</t>
+          <t>4325797</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2030,29 +1608,19 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1/2"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4348127</t>
+          <t>4348119</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2066,29 +1634,19 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 4"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4348151</t>
+          <t>4348127</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -2102,29 +1660,19 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 4"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4348218</t>
+          <t>4348151</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -2138,29 +1686,19 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 14"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4348281</t>
+          <t>4348218</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2174,29 +1712,19 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 14"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/                       CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4348288</t>
+          <t>4348281</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2210,29 +1738,19 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/                       CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4348682</t>
+          <t>4348288</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2246,29 +1764,19 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/ACABAM. FACE: LISO/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4348970</t>
+          <t>4348682</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2282,29 +1790,19 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/ACABAM. FACE: LISO/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 14"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4349150</t>
+          <t>4348970</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2318,29 +1816,19 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 14"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4349612</t>
+          <t>4349150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2354,29 +1842,19 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4360533</t>
+          <t>4349612</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2390,29 +1868,19 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS 27-AD2/             REDUÇÃO: I=9,41/FORMA CONSTRUT: M1/CÓDIGO SEW: RF27 AD2/</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4361881</t>
+          <t>4360533</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2426,29 +1894,19 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS 27-AD2/             REDUÇÃO: I=9,41/FORMA CONSTRUT: M1/CÓDIGO SEW: RF27 AD2/</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=10,49/ROTAÇÃO: N=167RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 2,20KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KAF37 DRN90LP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4361882</t>
+          <t>4361881</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2462,29 +1920,19 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=10,49/ROTAÇÃO: N=167RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 2,20KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KAF37 DRN90LP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=8,91/ROTAÇÃO: N=197RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 1,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF37 DRN90SP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4362878</t>
+          <t>4361882</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2498,29 +1946,19 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=8,91/ROTAÇÃO: N=197RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 1,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF37 DRN90SP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: FF/MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/  CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4364731</t>
+          <t>4362878</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2534,29 +1972,19 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: FF/MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/  CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>ACOPLADOR CAM-LOK CI BRONZE HPF ROSCA FEMEA NPT 64 4"" - B0008- 11810017 0064</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4368590</t>
+          <t>4364731</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2570,29 +1998,19 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ACOPLADOR CAM-LOK CI BRONZE HPF ROSCA FEMEA NPT 64 4"" - B0008- 11810017 0064</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM011B/CÓDIGO NETZSCH: NSF17/             REDUÇÃO: I=6,15/ROTAÇÃO: N=281RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 0,37KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: R17F DRN71M4/DESENHO SEW: 415994608-800/</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4369391</t>
+          <t>4368590</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2606,29 +2024,19 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM011B/CÓDIGO NETZSCH: NSF17/             REDUÇÃO: I=6,15/ROTAÇÃO: N=281RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 0,37KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: R17F DRN71M4/DESENHO SEW: 415994608-800/</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_0.1/MODELO: R27F DRN71MS4/V/         REDUÇÃO: I=74,11/ROTAÇÃO: N=23RPM/POTÊNCIA: 0,25KW/FREQUÊNCIA: 60HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380/440/760V/           GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVF/ISOLAMENTO: F/NORMA ABNT/   FLANGE: Ø120mm/PONTA DE EIXO: 18X50MM/                                        CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4369568</t>
+          <t>4369391</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2642,29 +2050,19 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_0.1/MODELO: R27F DRN71MS4/V/         REDUÇÃO: I=74,11/ROTAÇÃO: N=23RPM/POTÊNCIA: 0,25KW/FREQUÊNCIA: 60HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380/440/760V/           GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVF/ISOLAMENTO: F/NORMA ABNT/   FLANGE: Ø120mm/PONTA DE EIXO: 18X50MM/                                        CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM076B/CÓDIGO NETZSCH: NS77/              REDUÇÃO: I=10,84/ROTAÇÃO: N=325RPM/FORMA CONSTR: M1A/POTÊNCIA MOTOR: 11,00KW/ FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 2/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF77 DRN132MEP2/</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4369676</t>
+          <t>4369568</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2678,29 +2076,19 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM076B/CÓDIGO NETZSCH: NS77/              REDUÇÃO: I=10,84/ROTAÇÃO: N=325RPM/FORMA CONSTR: M1A/POTÊNCIA MOTOR: 11,00KW/ FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 2/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF77 DRN132MEP2/</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=5,20/ROTAÇÃO: N=341RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 9,20KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN132MP4/                                     CARAC. ESPECIAL: ÓLEO SINTÉTICO,DUPLA VEDAÇÃO NO EIXO DE SAÍDA,EIXO DE SAÍDA: 40X80mm,TANQUE DE EXPANSÃO,RESPIRO ESPECIAL/</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4407432</t>
+          <t>4369676</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2714,29 +2102,19 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=5,20/ROTAÇÃO: N=341RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 9,20KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN132MP4/                                     CARAC. ESPECIAL: ÓLEO SINTÉTICO,DUPLA VEDAÇÃO NO EIXO DE SAÍDA,EIXO DE SAÍDA: 40X80mm,TANQUE DE EXPANSÃO,RESPIRO ESPECIAL/</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>BOCA DE RECALQUE  NM105-14 MATERIAL AISI 304L FLANGE CFE ANSI B16.5 150PSI 6" FF.</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4407813</t>
+          <t>4407432</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2750,29 +2128,19 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>BOCA DE RECALQUE  NM105-14 MATERIAL AISI 304L FLANGE CFE ANSI B16.5 150PSI 6" FF.</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>BASE MÓVEL PARA BOMBA NM031BH01L06-/02S12- MATERIAL: AISI 304; ACABAMENTO JATEADO; APTA PARA:  -MOTOREDUTOR NS 27; ESPECIAL: BASE COM 3 RODIZIOS; OBS.: FORNECER BASE SEM USINAGEM, COM FURAÇÃO E SOLDA COMPLETA.</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4630361</t>
+          <t>4407813</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2786,29 +2154,19 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>BASE MÓVEL PARA BOMBA NM031BH01L06-/02S12- MATERIAL: AISI 304; ACABAMENTO JATEADO; APTA PARA:  -MOTOREDUTOR NS 27; ESPECIAL: BASE COM 3 RODIZIOS; OBS.: FORNECER BASE SEM USINAGEM, COM FURAÇÃO E SOLDA COMPLETA.</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 06/GEOMETRIA: S/BORRACHA: NEMOLAST S459/    MATERIAL TUBO: 1020/TERMOSTATO: STP3/MEDIDA Lst: 101,50mm/MEDIDA A: M8/       MEDIDA B: 10,30mm/MEDIDA t: 40,00mm/                                          CARAC. ESPECIAL: SOLDADO,NH - NÃO HIGIÊNICO (NÃO INDICADO PARA APLICAÇÕES HIGIÊNICAS)/</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4631271</t>
+          <t>4630361</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2822,29 +2180,19 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 06/GEOMETRIA: S/BORRACHA: NEMOLAST S459/    MATERIAL TUBO: 1020/TERMOSTATO: STP3/MEDIDA Lst: 101,50mm/MEDIDA A: M8/       MEDIDA B: 10,30mm/MEDIDA t: 40,00mm/                                          CARAC. ESPECIAL: SOLDADO,NH - NÃO HIGIÊNICO (NÃO INDICADO PARA APLICAÇÕES HIGIÊNICAS)/</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: EP/               MATERIAL: 1020/MATERIAL TELA: TELA 1008/10/</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4632414</t>
+          <t>4631271</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2858,29 +2206,19 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: EP/               MATERIAL: 1020/MATERIAL TELA: TELA 1008/10/</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>APERTA SELO MECANICO  NM053B-(P) MATERIAL  AISI 316    P/SELO M74-D C/ QUENCH G=1/4"NPT</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4634181</t>
+          <t>4632414</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2894,29 +2232,19 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>APERTA SELO MECANICO  NM053B-(P) MATERIAL  AISI 316    P/SELO M74-D C/ QUENCH G=1/4"NPT</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 12/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4634590</t>
+          <t>4634181</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2930,29 +2258,19 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 12/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 01/GEOMETRIA: P/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4636617</t>
+          <t>4634590</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2966,29 +2284,19 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 01/GEOMETRIA: P/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>FLANGE DIANTEIRA PRÉ-USINADO  MODELO: 3NS-/80H13-/MATERIAL: ASTM A-36/        MEDIDA A: 418,00mm/MEDIDA B: 310,00mm/MEDIDA C: 80,00mm/MEDIDA D: 371,00mm/   MEDIDA D1: D1=493,00/MEDIDA E: 367,00mm/MEDIDA F: 10,00mm/MEDIDA G: 50,00mm/  MEDIDA H: 520,00mm/                                                           MEDIDA X°: USINAR CFE DETALHE X, PARA ESPESSURA DO TUBO &gt;22mm/                MEDIDA Y°: Y°=30°/MEDIDA R: R=5,00/MEDIDA R1: R1=5,00/</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4637143</t>
+          <t>4636617</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -3002,29 +2310,19 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>FLANGE DIANTEIRA PRÉ-USINADO  MODELO: 3NS-/80H13-/MATERIAL: ASTM A-36/        MEDIDA A: 418,00mm/MEDIDA B: 310,00mm/MEDIDA C: 80,00mm/MEDIDA D: 371,00mm/   MEDIDA D1: D1=493,00/MEDIDA E: 367,00mm/MEDIDA F: 10,00mm/MEDIDA G: 50,00mm/  MEDIDA H: 520,00mm/                                                           MEDIDA X°: USINAR CFE DETALHE X, PARA ESPESSURA DO TUBO &gt;22mm/                MEDIDA Y°: Y°=30°/MEDIDA R: R=5,00/MEDIDA R1: R1=5,00/</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>ANEL INTERMEDIÁRIO MODELO: 3NS-/80H2-/MATERIAL: ASTM A-36/                    MEDIDA A: A=120,00mm/MEDIDA B: B=85,00/MEDIDA C: C=15,00/MEDIDA D: D=5,00/    MEDIDA X°: X°=45°/MEDIDA E: E=5,00/MEDIDA Y°: Y°=45°/</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4651382</t>
+          <t>4637143</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -3038,29 +2336,19 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ANEL INTERMEDIÁRIO MODELO: 3NS-/80H2-/MATERIAL: ASTM A-36/                    MEDIDA A: A=120,00mm/MEDIDA B: B=85,00/MEDIDA C: C=15,00/MEDIDA D: D=5,00/    MEDIDA X°: X°=45°/MEDIDA E: E=5,00/MEDIDA Y°: Y°=45°/</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>CORPO PCP SOLDADO PARA CABEÇOTE GH20-H  MATERIAL: A-36  *TESTES/CERTIFICADOS EXIGIDOS: *TESTE DE PARTÍCULA MAGNÉTICA E CERTIFICADOS 100% NOS OLHAIS DE IÇAMENTO</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4651383</t>
+          <t>4651382</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -3074,29 +2362,19 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>CORPO PCP SOLDADO PARA CABEÇOTE GH20-H  MATERIAL: A-36  *TESTES/CERTIFICADOS EXIGIDOS: *TESTE DE PARTÍCULA MAGNÉTICA E CERTIFICADOS 100% NOS OLHAIS DE IÇAMENTO</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>CORPO PCP USINADO PARA CABEÇOTE GH20-H  MATERIAL: A-36</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4652153</t>
+          <t>4651383</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -3110,29 +2388,19 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>CORPO PCP USINADO PARA CABEÇOTE GH20-H  MATERIAL: A-36</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM125/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL: 1020/                                                               CARAC. ESPECIAL: COM CHANFRO S NAS DUAS EXTREMIDADES DO ESTATOR/</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4652645</t>
+          <t>4652153</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -3146,29 +2414,19 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM125/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL: 1020/                                                               CARAC. ESPECIAL: COM CHANFRO S NAS DUAS EXTREMIDADES DO ESTATOR/</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4652646</t>
+          <t>4652645</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -3182,29 +2440,19 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>GARGANTA DN10" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4652784</t>
+          <t>4652646</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -3218,29 +2466,19 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>GARGANTA DN10" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>GARGANTA DN4" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4652838</t>
+          <t>4652784</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -3254,29 +2492,19 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>GARGANTA DN4" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>GARGANTA DN8" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4653149</t>
+          <t>4652838</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -3290,29 +2518,19 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>GARGANTA DN8" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM031-12. MATERIAL  AISI 316. FLANGE CFE ANSI B16.5 150PSI 2" RF. G= 3/4" NPT. ESPECIAL: ALTURA DA FACE DA FLANGE ATÉ A LINHA DE CENTRO DE 93MM.</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4653315</t>
+          <t>4653149</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -3326,29 +2544,19 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM031-12. MATERIAL  AISI 316. FLANGE CFE ANSI B16.5 150PSI 2" RF. G= 3/4" NPT. ESPECIAL: ALTURA DA FACE DA FLANGE ATÉ A LINHA DE CENTRO DE 93MM.</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>GARGANTA DN12" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4653447</t>
+          <t>4653315</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -3362,29 +2570,19 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>GARGANTA DN12" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4653453</t>
+          <t>4653447</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -3398,29 +2596,19 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>GARGANTA DN10" - SCH80 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4653575</t>
+          <t>4653453</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -3434,29 +2622,19 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>GARGANTA DN10" - SCH80 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>ADAPTADOR HN5 MATERIAL SAE 1045</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4653856</t>
+          <t>4653575</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -3470,29 +2648,19 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>ADAPTADOR HN5 MATERIAL SAE 1045</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>DISPLAY/STAND COM ROTOR, PARA TRITURADOR N.MAC 50C (STAND PARA BOMBAS DE SHOW-ROOM E FEIRAS) COM PEDESTAL NO CHÃO + ROTOR + PLATAFORMA DE MADEIRA PARA O TRITURADOR  ACABAMENTO SUPERFICIAL: *BUCHA DO ROTOR/ROTOR/FLANGE DE SUSTENTAÇÃO DA PLATAFORMA - POLIDOS *DEMAIS COMPONENTES - PINTADOS: TINTA DE FUNDO - TINTA EPOXI TINTA DE ACABAMENTO - TINTA POLIÉSTER NA COR PRATA ANDINO</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4654187</t>
+          <t>4653856</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -3506,29 +2674,19 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>DISPLAY/STAND COM ROTOR, PARA TRITURADOR N.MAC 50C (STAND PARA BOMBAS DE SHOW-ROOM E FEIRAS) COM PEDESTAL NO CHÃO + ROTOR + PLATAFORMA DE MADEIRA PARA O TRITURADOR  ACABAMENTO SUPERFICIAL: *BUCHA DO ROTOR/ROTOR/FLANGE DE SUSTENTAÇÃO DA PLATAFORMA - POLIDOS *DEMAIS COMPONENTES - PINTADOS: TINTA DE FUNDO - TINTA EPOXI TINTA DE ACABAMENTO - TINTA POLIÉSTER NA COR PRATA ANDINO</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>GARGANTA DN 32 DIN 11851 MATERIAL: AISI 304 POLIDO INT / EXT.</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4655561</t>
+          <t>4654187</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -3542,29 +2700,19 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>GARGANTA DN 32 DIN 11851 MATERIAL: AISI 304 POLIDO INT / EXT.</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>MODELO: 2NS-/16H3- EXECUÇÃO: PÉ P MAX PROJ SUC: 3 BAR P MAX PROJ DESC: 10 BAR ESPECIAL: ESP SENTIDO FLUXO: ESQUERDA/DIREITA FLANGE SUCÇÃO: DN 2" - ASME B16.5 - #300 - RF FLANGE DESCARGA: DN 2" - ASME B16.5 - #300 - RF CON. MAN/VACUOM: 1/2" NPT DRENO SUCÇÃO: DN 1/2" - ASME B16.5 - #300 - RF DRENO DESCARGA: DN 1/2" - ASME B16.5 - #300 - RF C/ VÁLV. ALÍVIO: EXTERNA MAT CO BOMBA: SAE 1020 CAR ES CO BOMBA: CERTIFICADO DE CONFORMIDADE|CONFORME NORMA DIN EN 10204-3.1 (CERTIFICADOS DE MATÉRIA-PRIMA CONTENDO COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS)|COM MANUAL DE JUNTAS SOLDADAS|FORNECER DOCUMENTAÇÃO NO IDIOMA INGLÊS|INSPEÇÃO E RELATÓRIO DE LÍQUIDO PENETRANTE|INSPEÇÃO DE SOLDAGEM (IEIS/EPS/RQPS/RQS/RIS)|TODOS OS RELATÓRIOS E PROCEDIMENTOS DEVEM SER ASSINADOS POR INSPETORES QUALIFICADOS SNQC NIVEL II|ITEM RASTREÁVEL|SUPORTE PLAQUETA NÃO RASTREÁVEL|RELATÓRIO DE PARTÍCULA MAGNÉTICA ONDE APLICÁVEL|RELATÓRIO DE TESTE HIDROSTÁTICO|RELATÓRIO DE EVS (ENSAIO VISUAL DE SOLDA)|MATERIAL DO SUPORTE DA PLAQUETA: AISI 316L</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4655828</t>
+          <t>4655561</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -3578,29 +2726,19 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>MODELO: 2NS-/16H3- EXECUÇÃO: PÉ P MAX PROJ SUC: 3 BAR P MAX PROJ DESC: 10 BAR ESPECIAL: ESP SENTIDO FLUXO: ESQUERDA/DIREITA FLANGE SUCÇÃO: DN 2" - ASME B16.5 - #300 - RF FLANGE DESCARGA: DN 2" - ASME B16.5 - #300 - RF CON. MAN/VACUOM: 1/2" NPT DRENO SUCÇÃO: DN 1/2" - ASME B16.5 - #300 - RF DRENO DESCARGA: DN 1/2" - ASME B16.5 - #300 - RF C/ VÁLV. ALÍVIO: EXTERNA MAT CO BOMBA: SAE 1020 CAR ES CO BOMBA: CERTIFICADO DE CONFORMIDADE|CONFORME NORMA DIN EN 10204-3.1 (CERTIFICADOS DE MATÉRIA-PRIMA CONTENDO COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS)|COM MANUAL DE JUNTAS SOLDADAS|FORNECER DOCUMENTAÇÃO NO IDIOMA INGLÊS|INSPEÇÃO E RELATÓRIO DE LÍQUIDO PENETRANTE|INSPEÇÃO DE SOLDAGEM (IEIS/EPS/RQPS/RQS/RIS)|TODOS OS RELATÓRIOS E PROCEDIMENTOS DEVEM SER ASSINADOS POR INSPETORES QUALIFICADOS SNQC NIVEL II|ITEM RASTREÁVEL|SUPORTE PLAQUETA NÃO RASTREÁVEL|RELATÓRIO DE PARTÍCULA MAGNÉTICA ONDE APLICÁVEL|RELATÓRIO DE TESTE HIDROSTÁTICO|RELATÓRIO DE EVS (ENSAIO VISUAL DE SOLDA)|MATERIAL DO SUPORTE DA PLAQUETA: AISI 316L</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM090/TIPO BOMBA: BH(P)/             MATERIAL: AISI 316/ACABAMENTO: POLIDO - NORMA WN0113/                         CARAC. ESPECIAL: ESPECIAL P/SELO HJ977GN,COM RESSALTO NO ENCAIXE DO SELO/</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4656108</t>
+          <t>4655828</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3614,29 +2752,19 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM090/TIPO BOMBA: BH(P)/             MATERIAL: AISI 316/ACABAMENTO: POLIDO - NORMA WN0113/                         CARAC. ESPECIAL: ESPECIAL P/SELO HJ977GN,COM RESSALTO NO ENCAIXE DO SELO/</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>BATENTE DO EIXO DO EXTRATOR DE LÓBULOS DE BOMBAS TORNADO MODELO DE BOMBA: TORNADO T1 XB MATERIAL: SAE 1020  PARA NOVA EXECUÇÃO FACELIFT</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4656604</t>
+          <t>4656108</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -3650,29 +2778,19 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>BATENTE DO EIXO DO EXTRATOR DE LÓBULOS DE BOMBAS TORNADO MODELO DE BOMBA: TORNADO T1 XB MATERIAL: SAE 1020  PARA NOVA EXECUÇÃO FACELIFT</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>GARGANTA DN 1.1/2" - SCH80; MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4656605</t>
+          <t>4656604</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -3686,29 +2804,19 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>GARGANTA DN 1.1/2" - SCH80; MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>GARGANTA DN 1.1/2" - SCH80 MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4658517</t>
+          <t>4656605</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -3722,29 +2830,19 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>GARGANTA DN 1.1/2" - SCH80 MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>BOCA DE RECALQUE NM063-18; FLANGE DIN EN 1092 DN 100 PN40 FF; MATERIAL: SAE 1020; COM 1 CONEXÃO P/ MANÔMETRO 3/4" NPT.</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4659830</t>
+          <t>4658517</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3758,29 +2856,19 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>BOCA DE RECALQUE NM063-18; FLANGE DIN EN 1092 DN 100 PN40 FF; MATERIAL: SAE 1020; COM 1 CONEXÃO P/ MANÔMETRO 3/4" NPT.</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 18/SÉRIE DA BOMBA: 16/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 3/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO NITRETADO 20MNCR5/                                        SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        TÊMPERA: 850°C-860°C/REVENIMENTO: 540°C-560°C, DUREZA 25+4 HRC/               NITRETAÇÃO: 500°C, DUREZA &gt;= 650HV, CAMADA 300+100µm/SENTIDO HÉLICE: DIREITA/ CARAC ESP PROJ: FURO DE RETORNO PARA ACL MAGNÉTICO/</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4661506</t>
+          <t>4659830</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -3794,29 +2882,19 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 18/SÉRIE DA BOMBA: 16/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 3/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO NITRETADO 20MNCR5/                                        SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        TÊMPERA: 850°C-860°C/REVENIMENTO: 540°C-560°C, DUREZA 25+4 HRC/               NITRETAÇÃO: 500°C, DUREZA &gt;= 650HV, CAMADA 300+100µm/SENTIDO HÉLICE: DIREITA/ CARAC ESP PROJ: FURO DE RETORNO PARA ACL MAGNÉTICO/</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 10/SÉRIE DA BOMBA: 80/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 2/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO TOOLOX 44/                                                SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        SENTIDO HÉLICE: DIREITA/</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4663378</t>
+          <t>4661506</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3830,29 +2908,19 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 10/SÉRIE DA BOMBA: 80/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 2/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO TOOLOX 44/                                                SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        SENTIDO HÉLICE: DIREITA/</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>CORPO BOMBA  TAMANHO: 2NS-/16H8/EXECUÇÃO: FLANGE/MAT CORPO BOMBA: GJS500 7/   NORMA/CLASSE FL: B16.42/150FF/ESPECIAL: ESP/                                  NORMA MATERIAL: EN 1563 EN GJS 500 7/SENTIDO FLUXO: ESQUERDA P/ DIREITA/      TAMANHO FLANGE: DN 150/PRES PROJ (BAR): 16/CONEXÕES: R1/2" BSP/               CAR ES CO BOMBA: SEM USINAGEM PARA VÁLVULA,COM FURO DE DESAERAÇÃO PASSANTE,SEM UM DOS FUROS PARA RETORNO DE ÓLEO,ALOJAMENTO DOS FUSOS DESLOCADO P/ ALTA PRES. E GIRO HORÁRIO/</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4666381</t>
+          <t>4663378</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3866,29 +2934,19 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>CORPO BOMBA  TAMANHO: 2NS-/16H8/EXECUÇÃO: FLANGE/MAT CORPO BOMBA: GJS500 7/   NORMA/CLASSE FL: B16.42/150FF/ESPECIAL: ESP/                                  NORMA MATERIAL: EN 1563 EN GJS 500 7/SENTIDO FLUXO: ESQUERDA P/ DIREITA/      TAMANHO FLANGE: DN 150/PRES PROJ (BAR): 16/CONEXÕES: R1/2" BSP/               CAR ES CO BOMBA: SEM USINAGEM PARA VÁLVULA,COM FURO DE DESAERAÇÃO PASSANTE,SEM UM DOS FUROS PARA RETORNO DE ÓLEO,ALOJAMENTO DOS FUSOS DESLOCADO P/ ALTA PRES. E GIRO HORÁRIO/</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>EIXO MOVIDO DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4666382</t>
+          <t>4666381</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3902,29 +2960,19 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>EIXO MOVIDO DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>EIXO MOTOR DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4667002</t>
+          <t>4666382</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -3938,29 +2986,19 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>EIXO MOTOR DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>GARGANTA COM CONEXÇÃO SANITÁRIA MATERIAL: AISI 304  CONEXÃO SANITÁRIA 2" TC  ESPECIAL:  - INCLINADA EM 45 GRAUS  - PARA TUBO Ø88,9mm</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4667486</t>
+          <t>4667002</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3974,29 +3012,19 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>GARGANTA COM CONEXÇÃO SANITÁRIA MATERIAL: AISI 304  CONEXÃO SANITÁRIA 2" TC  ESPECIAL:  - INCLINADA EM 45 GRAUS  - PARA TUBO Ø88,9mm</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>PORTA SELO MEC  TIPO DE BOMBA: NM105B/PLATAFORMA: (P)/TIPO: MG1-G60/          MAT CARCAÇA VED: AISI304L/EXEC VEDA EIXO: C/ DRENO,C/ FLUSHING,C/ QUENCH/     CONEX VEDA EIXO: G=1/4" NPT/CONEX. FLUSHING: G=1/4" NPT/DIÂM. DO EIXO: Ø100/  FIXAÇÃO SELAGEM: PADRÃO (PRENSADO)/                                           EXEC. ESPECIAL: COM BUCHA DE RESTRIÇÃO,PARA EXECUÇÃO SEM ANEL DE ENCOSTO,PARA PLANO API 32/</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4668764</t>
+          <t>4667486</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -4010,29 +3038,19 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>PORTA SELO MEC  TIPO DE BOMBA: NM105B/PLATAFORMA: (P)/TIPO: MG1-G60/          MAT CARCAÇA VED: AISI304L/EXEC VEDA EIXO: C/ DRENO,C/ FLUSHING,C/ QUENCH/     CONEX VEDA EIXO: G=1/4" NPT/CONEX. FLUSHING: G=1/4" NPT/DIÂM. DO EIXO: Ø100/  FIXAÇÃO SELAGEM: PADRÃO (PRENSADO)/                                           EXEC. ESPECIAL: COM BUCHA DE RESTRIÇÃO,PARA EXECUÇÃO SEM ANEL DE ENCOSTO,PARA PLANO API 32/</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>FLANGE INTERMEDIÁRIA 3NS-/16H4I MATERIAL: FERRO FUNDIDO NODULAR - GGG50 ESPECIAL: APTA SOMENTE PARA ACOPLAMENTO MAGNÉTICO KTR MINEX 60/8; FOLGA ESPECIAL NA VEDAÇÃO DO FUSO Ø41,5 +0,18/+0,16 VAZÃO NECESSÁRIA PARA REFRIGERAÇÃO DO ACOPLAMENTO 30L/H À 2 BAR.</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4672334</t>
+          <t>4668764</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -4046,29 +3064,19 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>FLANGE INTERMEDIÁRIA 3NS-/16H4I MATERIAL: FERRO FUNDIDO NODULAR - GGG50 ESPECIAL: APTA SOMENTE PARA ACOPLAMENTO MAGNÉTICO KTR MINEX 60/8; FOLGA ESPECIAL NA VEDAÇÃO DO FUSO Ø41,5 +0,18/+0,16 VAZÃO NECESSÁRIA PARA REFRIGERAÇÃO DO ACOPLAMENTO 30L/H À 2 BAR.</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>SUPORTE PARA JUNCTION BOX (CAIXA DE JUNÇÃO) MATERIAL: AÇO CARBONO E AISI 316 ONDE INDICADO NO DESENHO.  MEDIDA: A= 1165,0mm / B= 280,0mm</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4672450</t>
+          <t>4672334</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -4082,29 +3090,19 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>SUPORTE PARA JUNCTION BOX (CAIXA DE JUNÇÃO) MATERIAL: AÇO CARBONO E AISI 316 ONDE INDICADO NO DESENHO.  MEDIDA: A= 1165,0mm / B= 280,0mm</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>TAMPA DIANTEIRA 3NS-/--3I MATERIAL SAE 1045  CARACT. ESPECIAL: EXECUÇÃO PARA ACOPLAMENTO MAGNÉTICO</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4672513</t>
+          <t>4672450</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -4118,29 +3116,19 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>TAMPA DIANTEIRA 3NS-/--3I MATERIAL SAE 1045  CARACT. ESPECIAL: EXECUÇÃO PARA ACOPLAMENTO MAGNÉTICO</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>EIXO DE CONEXÃO ROTOR/LÂMINA NX549/NM053 ESPECIAL P/ MOLA MATERIAL: AISI 316</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4672683</t>
+          <t>4672513</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -4154,29 +3142,19 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>EIXO DE CONEXÃO ROTOR/LÂMINA NX549/NM053 ESPECIAL P/ MOLA MATERIAL: AISI 316</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>BASE DE BOMBA "E" - APTA PARA:  -BOMBA 3NS-/80H9E;  -MOTOR ELÉTRICO CARCAÇA 225SM; -ACOPLAMENTO VULKAN H128-200; -MATERIAL: A-36;  OBS.: FORNECER BASE COM USINAGEM E SOLDA COMPLETA, SUPERFÍCIES USINADAS SEM PINTURA E PROTEGIDAS SOMENTE COM INIBIDOR DE CORROSÃO.</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4672740</t>
+          <t>4672683</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -4190,29 +3168,19 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>BASE DE BOMBA "E" - APTA PARA:  -BOMBA 3NS-/80H9E;  -MOTOR ELÉTRICO CARCAÇA 225SM; -ACOPLAMENTO VULKAN H128-200; -MATERIAL: A-36;  OBS.: FORNECER BASE COM USINAGEM E SOLDA COMPLETA, SUPERFÍCIES USINADAS SEM PINTURA E PROTEGIDAS SOMENTE COM INIBIDOR DE CORROSÃO.</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>TUBO DE IMERSÃO (SUCÇÃO) SEM FILTRO  PARA BOMBA 3NS-/80S3E MATERIAL: AISI 316</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4673485</t>
+          <t>4672740</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -4226,29 +3194,19 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>TUBO DE IMERSÃO (SUCÇÃO) SEM FILTRO  PARA BOMBA 3NS-/80S3E MATERIAL: AISI 316</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>EIXO DE ACIONAMENTO PCP NDH020DH20-HB-SB ESPECIAL PARA ACL SUPERIOR DA VEDAÇÃO ESTÁTICA DO LIP SEAL P/HASTE 1.1/4" MATERIAL: SAE 4140</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4729161</t>
+          <t>4673485</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -4262,29 +3220,19 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>EIXO DE ACIONAMENTO PCP NDH020DH20-HB-SB ESPECIAL PARA ACL SUPERIOR DA VEDAÇÃO ESTÁTICA DO LIP SEAL P/HASTE 1.1/4" MATERIAL: SAE 4140</t>
+        </is>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>BOMBA NETZSCH "NEMO" MOD. NM021BY01L06B  ESPECIFICAÇÕES INTERFACE: BOCAIS DE SUCÇÃO E DESCARGA COM ROSCA INTERNA 1.1/4" NPT POSIÇÃO BOCAL SUCÇÃO: 1.a.1 (VERTICAL CENTRAL) POSIÇÃO BOCAL DESCARGA: 4.a.0 (CENTRAL) BY-PASS: VÁLVULA MOD. DN15, PRESSÃO DE ABERTURA: 2 BAR  MATERIAIS CARCAÇA: AÇO INOX 316 PARTES GIRATÓRIAS: AÇO INOX 316 ROTOR: AÇO INOX 316 UM20 MACIÇO ESTATOR: ELASTÔMERO SBE SELO MECÂNICO: UNS-SEAL 100 Ø25 Q1Q1VGG (8016162) ARTICULAÇÕES/VEDAÇÃO: B/SM ELASTÔMERO NBR ACIONAMENTO: MOTOREDUTOR NM021B NS17 0,75KW 60HZ N=565RPM (NDB4345946) BY-PASS: AÇO INOX 304 VÁLVULA: AÇO INOX 316/MEMBRANA SBE  OBS.  * REGULAR PRESSÃO DE ABERTURA DA VÁLVULA EM 2 BAR.  * APÓS FINALIZAR O TESTE DE PERFORMANCE INVERTER O SENTIDO DE MONTAGEM DA    VÁLVULA.</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4762526</t>
+          <t>4729161</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -4298,29 +3246,19 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>BOMBA NETZSCH "NEMO" MOD. NM021BY01L06B  ESPECIFICAÇÕES INTERFACE: BOCAIS DE SUCÇÃO E DESCARGA COM ROSCA INTERNA 1.1/4" NPT POSIÇÃO BOCAL SUCÇÃO: 1.a.1 (VERTICAL CENTRAL) POSIÇÃO BOCAL DESCARGA: 4.a.0 (CENTRAL) BY-PASS: VÁLVULA MOD. DN15, PRESSÃO DE ABERTURA: 2 BAR  MATERIAIS CARCAÇA: AÇO INOX 316 PARTES GIRATÓRIAS: AÇO INOX 316 ROTOR: AÇO INOX 316 UM20 MACIÇO ESTATOR: ELASTÔMERO SBE SELO MECÂNICO: UNS-SEAL 100 Ø25 Q1Q1VGG (8016162) ARTICULAÇÕES/VEDAÇÃO: B/SM ELASTÔMERO NBR ACIONAMENTO: MOTOREDUTOR NM021B NS17 0,75KW 60HZ N=565RPM (NDB4345946) BY-PASS: AÇO INOX 304 VÁLVULA: AÇO INOX 316/MEMBRANA SBE  OBS.  * REGULAR PRESSÃO DE ABERTURA DA VÁLVULA EM 2 BAR.  * APÓS FINALIZAR O TESTE DE PERFORMANCE INVERTER O SENTIDO DE MONTAGEM DA    VÁLVULA.</t>
+        </is>
+      </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>ACOPLAMENTO ELÁSTICO  MODELO: ROTEX/TAMANHO: 24/MEDIDA A: A=22,00mm/          MEDIDA B: B=24,50mm/MEDIDA C: C=6,00mm/CUBO FURO A: NORMAL/                   MEDIDA A1: A1=28,00mm/MEDIDA B1: B1=31,00mm/MEDIDA C1: C1=8,00mm/             CUBO FURO A1: GRANDE/FABRICANTE: KTR/                                         CARAC. ESPECIAL: CUBO 1A/1A (GRANDE/GRANDE),MEDIDA ATÉ O CENTRO DO FURO OBLONGO CONFORME DETALHE X IGUAL A 40,00/</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4763181</t>
+          <t>4762526</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -4334,29 +3272,19 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>ACOPLAMENTO ELÁSTICO  MODELO: ROTEX/TAMANHO: 24/MEDIDA A: A=22,00mm/          MEDIDA B: B=24,50mm/MEDIDA C: C=6,00mm/CUBO FURO A: NORMAL/                   MEDIDA A1: A1=28,00mm/MEDIDA B1: B1=31,00mm/MEDIDA C1: C1=8,00mm/             CUBO FURO A1: GRANDE/FABRICANTE: KTR/                                         CARAC. ESPECIAL: CUBO 1A/1A (GRANDE/GRANDE),MEDIDA ATÉ O CENTRO DO FURO OBLONGO CONFORME DETALHE X IGUAL A 40,00/</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST I459/    MATERIAL TUBO: AISI 304/</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4763295</t>
+          <t>4763181</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -4370,29 +3298,19 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST I459/    MATERIAL TUBO: AISI 304/</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM076/TIPO BOMBA: BH(P)/             MATERIAL: AISI 304/ACABAMENTO: POLIDO - NORMA WN0113/                         DIÂMETRO FURO: d1=50,00mm/</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4763742</t>
+          <t>4763295</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -4406,29 +3324,19 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM076/TIPO BOMBA: BH(P)/             MATERIAL: AISI 304/ACABAMENTO: POLIDO - NORMA WN0113/                         DIÂMETRO FURO: d1=50,00mm/</t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S05G/    MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4764144</t>
+          <t>4763742</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -4442,29 +3350,19 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S05G/    MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: NEMOLAST S63/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4765856</t>
+          <t>4764144</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -4478,29 +3376,19 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: NEMOLAST S63/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 120/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/  CARAC. ESPECIAL: BRUTO/</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4769540</t>
+          <t>4765856</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -4514,29 +3402,19 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 120/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/  CARAC. ESPECIAL: BRUTO/</t>
+        </is>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S43/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4804106</t>
+          <t>4769540</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -4550,29 +3428,19 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S43/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>BASE P/ BOMBA NM038BY-S/L/P(WP)       ESPECIAL ALTURA 69mm MATERIAL: SAE 1020</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4920158</t>
+          <t>4804106</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -4586,29 +3454,19 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>BASE P/ BOMBA NM038BY-S/L/P(WP)       ESPECIAL ALTURA 69mm MATERIAL: SAE 1020</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA LB07-40 NORMA ANSI B-16.1 DN 2" 250LBS TIPO FF  GG-25</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4953548</t>
+          <t>4920158</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -4622,29 +3480,19 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA LB07-40 NORMA ANSI B-16.1 DN 2" 250LBS TIPO FF  GG-25</t>
+        </is>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 20/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4959050</t>
+          <t>4953548</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -4658,29 +3506,19 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 20/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>FLANGE MANCAL NEL50A  304 POS 015</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4978060</t>
+          <t>4959050</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -4694,29 +3532,19 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>FLANGE MANCAL NEL50A  304 POS 015</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>ANEL PARA APERTO NESP 60 A MATERIAL: AISI 304</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>90005392</t>
+          <t>4978060</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -4730,29 +3558,19 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>ANEL PARA APERTO NESP 60 A MATERIAL: AISI 304</t>
+        </is>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>BIELA P/ BOMBA SERA R 411.1-1100E D=25; L=149,5; MATERIAL  1.4201/ST   CÓDIGO: 90005392</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NDB4021000</t>
+          <t>90005392</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -4766,29 +3584,19 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>BIELA P/ BOMBA SERA R 411.1-1100E D=25; L=149,5; MATERIAL  1.4201/ST   CÓDIGO: 90005392</t>
+        </is>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>ANEL DE VEDACAO  TC 1/2" CONFORME ISO2852 TIPO A MATERIAL PERBUNAN</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NDB4028803</t>
+          <t>NDB4021000</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -4802,29 +3610,19 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>ANEL DE VEDACAO  TC 1/2" CONFORME ISO2852 TIPO A MATERIAL PERBUNAN</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>COLAR TRASEIRO EXTERNO PTFE P/ MDM-1516 CÓD. MDM0613</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NDB4063786</t>
+          <t>NDB4028803</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -4838,29 +3636,19 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>COLAR TRASEIRO EXTERNO PTFE P/ MDM-1516 CÓD. MDM0613</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>PARAFUSO  TIPO: SEXT./BITOLA: M24 x  70,00mm/MATERIAL: A2-70 (304)/           NORMA: ISO 4014/</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NDB4323274</t>
+          <t>NDB4063786</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -4874,29 +3662,19 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>PARAFUSO  TIPO: SEXT./BITOLA: M24 x  70,00mm/MATERIAL: A2-70 (304)/           NORMA: ISO 4014/</t>
+        </is>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>FLANGE CFE. DIN EN 1092-1 TIPO 11 (WN); FACE B1; DN 25; PN 40; ESPESSURA DA PAREDE DO PESCOÇO S= 2,6 MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE. FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NDB4342303</t>
+          <t>NDB4323274</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -4910,29 +3688,19 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 11 (WN); FACE B1; DN 25; PN 40; ESPESSURA DA PAREDE DO PESCOÇO S= 2,6 MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE. FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 63; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NDB4344626</t>
+          <t>NDB4342303</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -4946,29 +3714,19 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 63; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 40; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NDB4650104</t>
+          <t>NDB4344626</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -4982,29 +3740,19 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 40; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
+        </is>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>ALÇA PARA DESLOCAMENTO P/ BOMBA TORNADO XB-4; MATERIAL SAE 1020 OBS.: FORNECER BASE COM USINAGEM, FURAÇÃO E SOLDA COMPLETA.</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NDB4650173</t>
+          <t>NDB4650104</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -5018,29 +3766,19 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>ALÇA PARA DESLOCAMENTO P/ BOMBA TORNADO XB-4; MATERIAL SAE 1020 OBS.: FORNECER BASE COM USINAGEM, FURAÇÃO E SOLDA COMPLETA.</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>ROTOR  TIPO DE CABEÇA: B/TAMANHO: NX549/NM076/ESTÁGIOS: 02/GEOMETRIA: S/      CLASSE PRESSÃO: 12/MATERIAL: AISI 316/TEMPERATURA: UM20/ESTRUTURA: MACIÇO/    CARAC. ESPECIAL: ESPECIAL PARA LÂMINA (EIXO SOLDADO)/</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NDB4650512</t>
+          <t>NDB4650173</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -5054,29 +3792,19 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>ROTOR  TIPO DE CABEÇA: B/TAMANHO: NX549/NM076/ESTÁGIOS: 02/GEOMETRIA: S/      CLASSE PRESSÃO: 12/MATERIAL: AISI 316/TEMPERATURA: UM20/ESTRUTURA: MACIÇO/    CARAC. ESPECIAL: ESPECIAL PARA LÂMINA (EIXO SOLDADO)/</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>MATERIAL: SAE 1020 PINTURA EXTERNA: COR VERDE EMBLEMA 2,5 G 3/4 PINTURA INTERNA: COR BRANCA</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NDB4650543</t>
+          <t>NDB4650512</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -5090,29 +3818,19 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>MATERIAL: SAE 1020 PINTURA EXTERNA: COR VERDE EMBLEMA 2,5 G 3/4 PINTURA INTERNA: COR BRANCA</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS ESPECIAL MODELO: 3NS-/80-7- MATERIAL: FERRO FUNDIDO DIN EN 1563 EN GJS 500 7 (GGG-50)  **ESPECIAL = POS.15 DO ANEL-O DESLOCADO**  **MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.**</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NDB4760669</t>
+          <t>NDB4650543</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -5126,29 +3844,19 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS ESPECIAL MODELO: 3NS-/80-7- MATERIAL: FERRO FUNDIDO DIN EN 1563 EN GJS 500 7 (GGG-50)  **ESPECIAL = POS.15 DO ANEL-O DESLOCADO**  **MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.**</t>
+        </is>
+      </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NDB4761259</t>
+          <t>NDB4760669</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -5162,29 +3870,19 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 03/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NDB4761365</t>
+          <t>NDB4761259</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -5198,29 +3896,19 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 03/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 01/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NDB4907943</t>
+          <t>NDB4761365</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -5234,29 +3922,19 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 01/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: J/SÉRIE: NES/TAMANHO: 60A/MATERIAL: AISI 304/          TIPO DA ROSCA: ROSCA S/ FIM/</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NDB4909488</t>
+          <t>NDB4907943</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -5270,29 +3948,19 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: J/SÉRIE: NES/TAMANHO: 60A/MATERIAL: AISI 304/          TIPO DA ROSCA: ROSCA S/ FIM/</t>
+        </is>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B-SM/SÉRIE: NBS/TAMANHO: 40A/MATERIAL: AISI 316/       VEDAÇÃO SM: VED SM/TIPO DA ROSCA: ROSCA S/ FIM/</t>
-        </is>
-      </c>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NDB4909809</t>
+          <t>NDB4909488</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -5306,29 +3974,19 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B-SM/SÉRIE: NBS/TAMANHO: 40A/MATERIAL: AISI 316/       VEDAÇÃO SM: VED SM/TIPO DA ROSCA: ROSCA S/ FIM/</t>
+        </is>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM105/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 04/ MATERIAL: AISI 304/</t>
-        </is>
-      </c>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NDB4912285</t>
+          <t>NDB4909809</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -5342,29 +4000,19 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM105/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 04/ MATERIAL: AISI 304/</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA NES40A  MATERIAL AISI 304. COM CAMISA DE AQUECIMENTO. POLIDO INTERNAMENTE.</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NDB4912668</t>
+          <t>NDB4912285</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -5378,29 +4026,19 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA NES40A  MATERIAL AISI 304. COM CAMISA DE AQUECIMENTO. POLIDO INTERNAMENTE.</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>GARGANTA  NE 100      MATERIAL  AISI 316</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NDB4913019</t>
+          <t>NDB4912668</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -5414,29 +4052,19 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>GARGANTA  NE 100      MATERIAL  AISI 316</t>
+        </is>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA NEC 60A    ESPECIAL BOCAL DE SUCÇÃO 4"SMS TANGENCIAL C/ BOCAL ADICIONAL P/ LIMPEZA CIP 2"SMS TANGENCIAL MATERIAL AISI 304 POLIDO INT/EXT.</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>NDB4913022</t>
+          <t>NDB4913019</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -5450,29 +4078,19 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA NEC 60A    ESPECIAL BOCAL DE SUCÇÃO 4"SMS TANGENCIAL C/ BOCAL ADICIONAL P/ LIMPEZA CIP 2"SMS TANGENCIAL MATERIAL AISI 304 POLIDO INT/EXT.</t>
+        </is>
+      </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>GARGANTA NEC 60A ESPECIAL P/CONEXÃO SANITÁRIA 4" TANGENCIAL MATERIAL: AISI 304.</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NDB4915156</t>
+          <t>NDB4913022</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -5486,29 +4104,19 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>GARGANTA NEC 60A ESPECIAL P/CONEXÃO SANITÁRIA 4" TANGENCIAL MATERIAL: AISI 304.</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM053/EXECUÇÃO BOMBA: O/ESTÁGIOS: 04/       GEOMETRIA: S/CLASSE PRESSÃO: 24/MATERIAL: AISI 304/                           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: ESP./DIST. ARTICUL.: GA=1100mm/       CARAC. ESPECIAL: COM ROSCA EM TODA EXTENSÃO DO FUNIL,PARA CORPO DA BOMBA COM FUNIL 602 X 224/</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NDB4915826</t>
+          <t>NDB4915156</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -5522,29 +4130,19 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM053/EXECUÇÃO BOMBA: O/ESTÁGIOS: 04/       GEOMETRIA: S/CLASSE PRESSÃO: 24/MATERIAL: AISI 304/                           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: ESP./DIST. ARTICUL.: GA=1100mm/       CARAC. ESPECIAL: COM ROSCA EM TODA EXTENSÃO DO FUNIL,PARA CORPO DA BOMBA COM FUNIL 602 X 224/</t>
+        </is>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM031-H-12- MATERIAL  AISI 304 CONEXÃO SANITÁRIA 2.1/2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>NDB4916501</t>
+          <t>NDB4915826</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -5558,29 +4156,19 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM031-H-12- MATERIAL  AISI 304 CONEXÃO SANITÁRIA 2.1/2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
+        </is>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM038-12   C/ CONEXÃO SANITÁRIA 3"SMS   MATERIAL:  AISI 316 POLIDO INTERNAMENTE. C/ CAMISA DE AQUECIMENTO.</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>NDB4916711</t>
+          <t>NDB4916501</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -5594,29 +4182,19 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM038-12   C/ CONEXÃO SANITÁRIA 3"SMS   MATERIAL:  AISI 316 POLIDO INTERNAMENTE. C/ CAMISA DE AQUECIMENTO.</t>
+        </is>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM045-F-12 MATERIAL  AISI 316 BOCA RETANGULAR 750 X 220 ACABAMENTO: POLIDO INTERNO</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>NDB4916906</t>
+          <t>NDB4916711</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -5630,29 +4208,19 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM045-F-12 MATERIAL  AISI 316 BOCA RETANGULAR 750 X 220 ACABAMENTO: POLIDO INTERNO</t>
+        </is>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 14/ PLATAFORMA P: (P)/MATERIAL: AISI 316L/ACABAMENTO: ESP/                        CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
-      <c r="Z140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>NDB4918768</t>
+          <t>NDB4916906</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -5666,29 +4234,19 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 14/ PLATAFORMA P: (P)/MATERIAL: AISI 316L/ACABAMENTO: ESP/                        CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
+        </is>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM031/EXECUÇÃO BOMBA: H/ESTÁGIOS: 02/       GEOMETRIA: S/CLASSE PRESSÃO: 12/PLATAFORMA: (P)/MATERIAL: AISI 304/           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: POL./                                 TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
-      <c r="Z141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NDB4919675</t>
+          <t>NDB4918768</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -5702,29 +4260,19 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM031/EXECUÇÃO BOMBA: H/ESTÁGIOS: 02/       GEOMETRIA: S/CLASSE PRESSÃO: 12/PLATAFORMA: (P)/MATERIAL: AISI 304/           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: POL./                                 TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM076-14             01 DRENO COM CAMISA DE AQUECIMENTO MATERIAL  AISI 304 FLANGE CFE ANSI B16.5 150PSI 6" FF</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>NDB4920476</t>
+          <t>NDB4919675</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -5738,29 +4286,19 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM076-14             01 DRENO COM CAMISA DE AQUECIMENTO MATERIAL  AISI 304 FLANGE CFE ANSI B16.5 150PSI 6" FF</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM021-12 MATERIAL  AISI 316 CONEXAO  ROSCA NPT 1.1/4" (+01 DRENO) BOCAL DE SUCÇÃO TANGENCIAL À DIREITA (VISTA DO ACIONAMENTO)</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NDB4920600</t>
+          <t>NDB4920476</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -5774,29 +4312,19 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM021-12 MATERIAL  AISI 316 CONEXAO  ROSCA NPT 1.1/4" (+01 DRENO) BOCAL DE SUCÇÃO TANGENCIAL À DIREITA (VISTA DO ACIONAMENTO)</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM031/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 48/ MATERIAL: AISI 316L/</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>NDB4921649</t>
+          <t>NDB4920600</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -5810,29 +4338,19 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM031/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 48/ MATERIAL: AISI 316L/</t>
+        </is>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM038/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 420/ACABAMENTO: POLIDO/                      TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
-      <c r="Z145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NDB4923986</t>
+          <t>NDB4921649</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -5846,29 +4364,19 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM038/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 420/ACABAMENTO: POLIDO/                      TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
+        </is>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM021-O-12 MATERIAL  AISI 316 BOCA RETANGULAR 104 X 204 STANDARD: COM 01 DRENO  (EXECUÇÃO C/ ROSCA SEM FIM EM TODA EXTENSÃO DO FUNIL).</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NDB4929016</t>
+          <t>NDB4923986</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -5882,29 +4390,19 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM021-O-12 MATERIAL  AISI 316 BOCA RETANGULAR 104 X 204 STANDARD: COM 01 DRENO  (EXECUÇÃO C/ ROSCA SEM FIM EM TODA EXTENSÃO DO FUNIL).</t>
+        </is>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>ESTATOR  NM093--02S  C/02CHANFROS(ESPECIAL) MATERIAL  NEMOLAST G91 (VI-65/Alu)</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
-      <c r="Z147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NDB4929515</t>
+          <t>NDB4929016</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -5918,29 +4416,19 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>ESTATOR  NM093--02S  C/02CHANFROS(ESPECIAL) MATERIAL  NEMOLAST G91 (VI-65/Alu)</t>
+        </is>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM105-T---12        MATERIAL  SAE 1020. FLANGE 8"ANSI B16.5 / 150PSI / FF. C/ PLACA DE SUSTENTAÇÃO RETANGULAR (1200X800). PROFUNDIDADE DE IMERSÃO: 2800mm. DIMENSÕES: A=3368mm; B=3168mm; L=2084mm;</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr"/>
-      <c r="U148" t="inlineStr"/>
-      <c r="V148" t="inlineStr"/>
-      <c r="W148" t="inlineStr"/>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
-      <c r="Z148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NDB4934567</t>
+          <t>NDB4929515</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -5954,29 +4442,19 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM105-T---12        MATERIAL  SAE 1020. FLANGE 8"ANSI B16.5 / 150PSI / FF. C/ PLACA DE SUSTENTAÇÃO RETANGULAR (1200X800). PROFUNDIDADE DE IMERSÃO: 2800mm. DIMENSÕES: A=3368mm; B=3168mm; L=2084mm;</t>
+        </is>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>CORPO DE DESGASTE PARA BOMBA DE FUSOS MODELO PARA CORPO FUNDIDO: 3NS-/40H5- MATERIAL: FERRO FUNDIDO GG-30 - BRUNIMENTO NO ALOJAMENTO DOS FUSOS MOVIDOS; - MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr"/>
-      <c r="U149" t="inlineStr"/>
-      <c r="V149" t="inlineStr"/>
-      <c r="W149" t="inlineStr"/>
-      <c r="X149" t="inlineStr"/>
-      <c r="Y149" t="inlineStr"/>
-      <c r="Z149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NDB4941261</t>
+          <t>NDB4934567</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -5990,29 +4468,19 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>CORPO DE DESGASTE PARA BOMBA DE FUSOS MODELO PARA CORPO FUNDIDO: 3NS-/40H5- MATERIAL: FERRO FUNDIDO GG-30 - BRUNIMENTO NO ALOJAMENTO DOS FUSOS MOVIDOS; - MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.</t>
+        </is>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>BU MANCAL 2NS -/16-4-  MATERIAL: VESCONITE HILUBE</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr"/>
-      <c r="U150" t="inlineStr"/>
-      <c r="V150" t="inlineStr"/>
-      <c r="W150" t="inlineStr"/>
-      <c r="X150" t="inlineStr"/>
-      <c r="Y150" t="inlineStr"/>
-      <c r="Z150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NDB4941502</t>
+          <t>NDB4941261</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -6026,29 +4494,19 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>BU MANCAL 2NS -/16-4-  MATERIAL: VESCONITE HILUBE</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr"/>
-      <c r="U151" t="inlineStr"/>
-      <c r="V151" t="inlineStr"/>
-      <c r="W151" t="inlineStr"/>
-      <c r="X151" t="inlineStr"/>
-      <c r="Y151" t="inlineStr"/>
-      <c r="Z151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NDB4942821</t>
+          <t>NDB4941502</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -6062,29 +4520,19 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>PLACA DE ARRASTE PCP HASTE 1.1/2" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr"/>
-      <c r="U152" t="inlineStr"/>
-      <c r="V152" t="inlineStr"/>
-      <c r="W152" t="inlineStr"/>
-      <c r="X152" t="inlineStr"/>
-      <c r="Y152" t="inlineStr"/>
-      <c r="Z152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NDB4942823</t>
+          <t>NDB4942821</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -6098,29 +4546,19 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>PLACA DE ARRASTE PCP HASTE 1.1/2" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
+        </is>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>PLACA DE ARRASTE PCP HASTE 1.1/4" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr"/>
-      <c r="U153" t="inlineStr"/>
-      <c r="V153" t="inlineStr"/>
-      <c r="W153" t="inlineStr"/>
-      <c r="X153" t="inlineStr"/>
-      <c r="Y153" t="inlineStr"/>
-      <c r="Z153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>NDB4946783</t>
+          <t>NDB4942823</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -6134,29 +4572,19 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>PLACA DE ARRASTE PCP HASTE 1.1/4" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM105/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 02/ MATERIAL: UNS S31803/</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr"/>
-      <c r="U154" t="inlineStr"/>
-      <c r="V154" t="inlineStr"/>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
-      <c r="Z154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>NDB4949110</t>
+          <t>NDB4946783</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -6170,29 +4598,19 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM105/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 02/ MATERIAL: UNS S31803/</t>
+        </is>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>PÉ DA BOMBA DE FUSOS 3NS-/40H5- E 3NS-/40H6- MATERIAL FERRO FUNDIDO NODULAR DIN EN 1563 EN GJS 500 7 CONEXÕES PARA O AQUECIMENTO: 3/8"BSP PRESSÃO MÁXIMA NA CÂMARA DE AQUECIMENTO: 16,0 BAR (T_MÁX: 200°C) PRESSÃO TH MÁXIMO NA CÂMARA DE AQUECIMENTO: 24,0 BAR  MODELO NR NB4949103 (IDENT NDB4949103)</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr"/>
-      <c r="U155" t="inlineStr"/>
-      <c r="V155" t="inlineStr"/>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
-      <c r="Y155" t="inlineStr"/>
-      <c r="Z155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>NDB4949924</t>
+          <t>NDB4949110</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -6206,29 +4624,19 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>PÉ DA BOMBA DE FUSOS 3NS-/40H5- E 3NS-/40H6- MATERIAL FERRO FUNDIDO NODULAR DIN EN 1563 EN GJS 500 7 CONEXÕES PARA O AQUECIMENTO: 3/8"BSP PRESSÃO MÁXIMA NA CÂMARA DE AQUECIMENTO: 16,0 BAR (T_MÁX: 200°C) PRESSÃO TH MÁXIMO NA CÂMARA DE AQUECIMENTO: 24,0 BAR  MODELO NR NB4949103 (IDENT NDB4949103)</t>
+        </is>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>BOCAL DE SUCÇÃO  TAMANHO: 3NS-/-L5-/NORMA: DIN EN 1563 EN GJS 500 7/          EXECUÇÃO: BOCAL ORIENTÁVEL EM TODOS OS QUADRANTES/                            MATERIAL: FERRO FUNDIDO NODULAR/MODELO: NB 4949924/                           CERTIFICADO: COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS ESPECÍFICAS PARA O ITEM ADQUIRIDO, NORMA DE FABRICAÇÃO, NÚMERO DA CORRIDA E LOTE/PESO/PÇ (KG): 5,10/</t>
-        </is>
-      </c>
-      <c r="T156" t="inlineStr"/>
-      <c r="U156" t="inlineStr"/>
-      <c r="V156" t="inlineStr"/>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
-      <c r="Y156" t="inlineStr"/>
-      <c r="Z156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NDB4955080</t>
+          <t>NDB4949924</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -6242,29 +4650,19 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>BOCAL DE SUCÇÃO  TAMANHO: 3NS-/-L5-/NORMA: DIN EN 1563 EN GJS 500 7/          EXECUÇÃO: BOCAL ORIENTÁVEL EM TODOS OS QUADRANTES/                            MATERIAL: FERRO FUNDIDO NODULAR/MODELO: NB 4949924/                           CERTIFICADO: COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS ESPECÍFICAS PARA O ITEM ADQUIRIDO, NORMA DE FABRICAÇÃO, NÚMERO DA CORRIDA E LOTE/PESO/PÇ (KG): 5,10/</t>
+        </is>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>ESTATOR 2N 60 SBE (NBR COM 465 ACN) COM FERRAMENTA BB DIAM MENOR 59,6-0,70MM TUBO EVEN WALL</t>
-        </is>
-      </c>
-      <c r="T157" t="inlineStr"/>
-      <c r="U157" t="inlineStr"/>
-      <c r="V157" t="inlineStr"/>
-      <c r="W157" t="inlineStr"/>
-      <c r="X157" t="inlineStr"/>
-      <c r="Y157" t="inlineStr"/>
-      <c r="Z157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NDB4960343</t>
+          <t>NDB4955080</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -6278,29 +4676,19 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>ESTATOR 2N 60 SBE (NBR COM 465 ACN) COM FERRAMENTA BB DIAM MENOR 59,6-0,70MM TUBO EVEN WALL</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM038-O-12        ESPECIAL MATERIAL  AISI 316 BOCA RETANGULAR 154 X 254mm ACABAMENTO: POLIDO INTERNO</t>
-        </is>
-      </c>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
-      <c r="Z158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NDB4963984</t>
+          <t>NDB4960343</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -6314,29 +4702,19 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM038-O-12        ESPECIAL MATERIAL  AISI 316 BOCA RETANGULAR 154 X 254mm ACABAMENTO: POLIDO INTERNO</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM090-P-18  G=1"NPT MATERIAL  SAE 1020 BOCA RETANGULAR 750 X 720MM</t>
-        </is>
-      </c>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
-      <c r="Z159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NDB4963990</t>
+          <t>NDB4963984</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -6350,29 +4728,19 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM090-P-18  G=1"NPT MATERIAL  SAE 1020 BOCA RETANGULAR 750 X 720MM</t>
+        </is>
+      </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
       <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM038-H-12-              (CORPO C/ REPUXE) MATERIAL AISI 304 CONEXÃO SANITÁRIA 2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
-        </is>
-      </c>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="inlineStr"/>
-      <c r="V160" t="inlineStr"/>
-      <c r="W160" t="inlineStr"/>
-      <c r="X160" t="inlineStr"/>
-      <c r="Y160" t="inlineStr"/>
-      <c r="Z160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NDB4969644</t>
+          <t>NDB4963990</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -6386,29 +4754,19 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM038-H-12-              (CORPO C/ REPUXE) MATERIAL AISI 304 CONEXÃO SANITÁRIA 2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM045/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 304/ALTURA IMERSÃO: 2200mm/                 MEDIDA GA: GA=1692mm/MEDIDA B: B=1724mm/</t>
-        </is>
-      </c>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
-      <c r="Z161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NDB4970419</t>
+          <t>NDB4969644</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -6422,29 +4780,19 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM045/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 304/ALTURA IMERSÃO: 2200mm/                 MEDIDA GA: GA=1692mm/MEDIDA B: B=1724mm/</t>
+        </is>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM031/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ MATERIAL: AISI 304/ACABAMENTO: ESP/                                           CARAC. ESPECIAL: APENAS PARA BOMBAS EM CORTE (EXPOSIÇÕES)/</t>
-        </is>
-      </c>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="inlineStr"/>
-      <c r="V162" t="inlineStr"/>
-      <c r="W162" t="inlineStr"/>
-      <c r="X162" t="inlineStr"/>
-      <c r="Y162" t="inlineStr"/>
-      <c r="Z162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NDB4972116</t>
+          <t>NDB4970419</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -6458,29 +4806,19 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM031/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ MATERIAL: AISI 304/ACABAMENTO: ESP/                                           CARAC. ESPECIAL: APENAS PARA BOMBAS EM CORTE (EXPOSIÇÕES)/</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP/                         CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
-        </is>
-      </c>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
-      <c r="Z163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NDB4972950</t>
+          <t>NDB4972116</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -6494,29 +4832,19 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP/                         CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
+        </is>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: K/TAMANHO: NM105/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 420/ALTURA IMERSÃO: 2891mm/                 MEDIDA GA: GA=1841mm/MEDIDA B: B=1985mm/</t>
-        </is>
-      </c>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
-      <c r="Z164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NDB4976156</t>
+          <t>NDB4972950</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -6530,29 +4858,19 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: K/TAMANHO: NM105/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 420/ALTURA IMERSÃO: 2891mm/                 MEDIDA GA: GA=1841mm/MEDIDA B: B=1985mm/</t>
+        </is>
+      </c>
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>CORPO DA BOMBA  NM063-14 MATERIAL AISI 316 CONEXÃO SANITÁRIA 3"TC POLIDO INTERNO</t>
-        </is>
-      </c>
-      <c r="T165" t="inlineStr"/>
-      <c r="U165" t="inlineStr"/>
-      <c r="V165" t="inlineStr"/>
-      <c r="W165" t="inlineStr"/>
-      <c r="X165" t="inlineStr"/>
-      <c r="Y165" t="inlineStr"/>
-      <c r="Z165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NDB4976756</t>
+          <t>NDB4976156</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -6566,29 +4884,19 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>CORPO DA BOMBA  NM063-14 MATERIAL AISI 316 CONEXÃO SANITÁRIA 3"TC POLIDO INTERNO</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: J/TAMANHO: NM076/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 07/ PLATAFORMA P: (P)/MATERIAL: SAE 1020/ACABAMENTO: ESP/                         CARAC. ESPECIAL: MEDIDA A = 405mm/</t>
-        </is>
-      </c>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
-      <c r="Z166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NDB4987821</t>
+          <t>NDB4976756</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -6602,29 +4910,19 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: J/TAMANHO: NM076/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 07/ PLATAFORMA P: (P)/MATERIAL: SAE 1020/ACABAMENTO: ESP/                         CARAC. ESPECIAL: MEDIDA A = 405mm/</t>
+        </is>
+      </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>FLANGE DO CORPO  MODELO: 4NS-/-H1E/MATERIAL: ASTM A-36/MEDIDA B: B=280,00/    MEDIDA C: C=330,00/MEDIDA A: A=35,00/MEDIDA D: D=190,00/MEDIDA E: E=230,00/   MEDIDA F: F=10,00/MEDIDA G: G=41,28/MEDIDA H: H=140,00/MEDIDA J: J=40,00/     MEDIDA K: K=270,50/MEDIDA L: L=181,00/MEDIDA M: M=202,00/MEDIDA N: N=140,00/  MEDIDA R: R=350,00mm/MEDIDA R1: R1=180,00/</t>
-        </is>
-      </c>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
-      <c r="Z167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NDB4987996</t>
+          <t>NDB4987821</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -6638,29 +4936,19 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>FLANGE DO CORPO  MODELO: 4NS-/-H1E/MATERIAL: ASTM A-36/MEDIDA B: B=280,00/    MEDIDA C: C=330,00/MEDIDA A: A=35,00/MEDIDA D: D=190,00/MEDIDA E: E=230,00/   MEDIDA F: F=10,00/MEDIDA G: G=41,28/MEDIDA H: H=140,00/MEDIDA J: J=40,00/     MEDIDA K: K=270,50/MEDIDA L: L=181,00/MEDIDA M: M=202,00/MEDIDA N: N=140,00/  MEDIDA R: R=350,00mm/MEDIDA R1: R1=180,00/</t>
+        </is>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>FLANGE DO CORPO  MODELO: 4NS-/-H4E/MATERIAL: ASTM A-36/MEDIDA B: B=430,00/    MEDIDA C: C=520,00/MEDIDA A: A=65,00/MEDIDA D: D=260,00/MEDIDA E: E=380,00/   MEDIDA F: F=25,00/MEDIDA G: G=50,80/MEDIDA H: H=230,00/MEDIDA J: J=50,00/     MEDIDA K: K=269,00/MEDIDA L: L=313,00/MEDIDA M: M=344,00/MEDIDA N: N=230,00/  MEDIDA R: R=590,00mm/MEDIDA R1: R1=430,00/</t>
-        </is>
-      </c>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="inlineStr"/>
-      <c r="V168" t="inlineStr"/>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" t="inlineStr"/>
-      <c r="Y168" t="inlineStr"/>
-      <c r="Z168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NDB4991623</t>
+          <t>NDB4987996</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -6674,29 +4962,19 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>FLANGE DO CORPO  MODELO: 4NS-/-H4E/MATERIAL: ASTM A-36/MEDIDA B: B=430,00/    MEDIDA C: C=520,00/MEDIDA A: A=65,00/MEDIDA D: D=260,00/MEDIDA E: E=380,00/   MEDIDA F: F=25,00/MEDIDA G: G=50,80/MEDIDA H: H=230,00/MEDIDA J: J=50,00/     MEDIDA K: K=269,00/MEDIDA L: L=313,00/MEDIDA M: M=344,00/MEDIDA N: N=230,00/  MEDIDA R: R=590,00mm/MEDIDA R1: R1=430,00/</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>BOMBA DE FUSOS NETZSCH MOD. 3NS 07/25M2E  DIÂMETRO EXTERNO/PASSO: Ø26/38 3 = 3 FUSOS NS = NETZSCH SCREW 07 = VAZÃO (0,7m³/h @ 1000 RPM @ 0 BAR) /25 = PRESSÃO DE DESCARGA MÁX. (bar) M = EXECUÇÃO MINI 2 = MANCAL NR. 2 E = ROLAMENTO EXTERNO BLINDADO COM VÁLVULA DE ALÍVIO INTEGRADA - 10 A 25 BAR ABERTURA VÁLVULA REGULADA 20 BAR FLANGES DE CONEXÃO 1.1/2" SAE J518C 3000 PSI</t>
-        </is>
-      </c>
-      <c r="T169" t="inlineStr"/>
-      <c r="U169" t="inlineStr"/>
-      <c r="V169" t="inlineStr"/>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" t="inlineStr"/>
-      <c r="Y169" t="inlineStr"/>
-      <c r="Z169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NDB4992299</t>
+          <t>NDB4991623</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -6710,29 +4988,19 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>BOMBA DE FUSOS NETZSCH MOD. 3NS 07/25M2E  DIÂMETRO EXTERNO/PASSO: Ø26/38 3 = 3 FUSOS NS = NETZSCH SCREW 07 = VAZÃO (0,7m³/h @ 1000 RPM @ 0 BAR) /25 = PRESSÃO DE DESCARGA MÁX. (bar) M = EXECUÇÃO MINI 2 = MANCAL NR. 2 E = ROLAMENTO EXTERNO BLINDADO COM VÁLVULA DE ALÍVIO INTEGRADA - 10 A 25 BAR ABERTURA VÁLVULA REGULADA 20 BAR FLANGES DE CONEXÃO 1.1/2" SAE J518C 3000 PSI</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM038/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP,POLIDO/                  TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/                                CARAC. ESPECIAL: SEM FUROS ADICIONAIS/</t>
-        </is>
-      </c>
-      <c r="T170" t="inlineStr"/>
-      <c r="U170" t="inlineStr"/>
-      <c r="V170" t="inlineStr"/>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" t="inlineStr"/>
-      <c r="Y170" t="inlineStr"/>
-      <c r="Z170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NDB4992323</t>
+          <t>NDB4992299</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -6746,29 +5014,19 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM038/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP,POLIDO/                  TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/                                CARAC. ESPECIAL: SEM FUROS ADICIONAIS/</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/80-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7 SEM FURO PARA RETORNO DE ÓLEO.</t>
-        </is>
-      </c>
-      <c r="T171" t="inlineStr"/>
-      <c r="U171" t="inlineStr"/>
-      <c r="V171" t="inlineStr"/>
-      <c r="W171" t="inlineStr"/>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
-      <c r="Z171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>NDB4994183</t>
+          <t>NDB4992323</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -6782,29 +5040,19 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/80-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7 SEM FURO PARA RETORNO DE ÓLEO.</t>
+        </is>
+      </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="inlineStr">
-        <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-8- (MODELO ANTIGO - COMPRIMENTO MENOR) EXECUÇÃO: HOUSING; MATERIAL: FERRO FUNDIDO GGG-50;  **MEDIR RUGOSIDADE (RMAX=4) DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.*</t>
-        </is>
-      </c>
-      <c r="T172" t="inlineStr"/>
-      <c r="U172" t="inlineStr"/>
-      <c r="V172" t="inlineStr"/>
-      <c r="W172" t="inlineStr"/>
-      <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
-      <c r="Z172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5063255</t>
+          <t>NDB4994183</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -6818,25 +5066,19 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-8- (MODELO ANTIGO - COMPRIMENTO MENOR) EXECUÇÃO: HOUSING; MATERIAL: FERRO FUNDIDO GGG-50;  **MEDIR RUGOSIDADE (RMAX=4) DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.*</t>
+        </is>
+      </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
-      <c r="Z173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5063309</t>
+          <t>5063255</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -6854,21 +5096,11 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
-      <c r="U174" t="inlineStr"/>
-      <c r="V174" t="inlineStr"/>
-      <c r="W174" t="inlineStr"/>
-      <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
-      <c r="Z174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>5161252</t>
+          <t>5063309</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -6886,16 +5118,28 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
-      <c r="U175" t="inlineStr"/>
-      <c r="V175" t="inlineStr"/>
-      <c r="W175" t="inlineStr"/>
-      <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
-      <c r="Z175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>5161252</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P176"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,166 +499,105 @@
           <t>SAP123</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MAKTX(EN)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MAKTX(ES)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MAKTX(DE)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>item(table) + it-codigo(field)</t>
+          <t xml:space="preserve">Material </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAP10</t>
+          <t>MSTAE (X-Plant Mat.Status)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAP5</t>
+          <t>MEINS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SAP14</t>
+          <t>LABOR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SAP1</t>
+          <t>MAKTX (PT)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SAP2</t>
+          <t>MAKTX (EN)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SAP3</t>
+          <t>MAKTX (ES)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Coluna32</t>
+          <t>MAKTX (DE)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SAP6</t>
+          <t>Product group</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SAP15</t>
+          <t>GROES (Size/Dimension)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Coluna4</t>
+          <t>WRKST (material)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SAP17</t>
+          <t>NORMT (Normbezeichnung)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SAP123</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+          <t>Internal comment (narrative)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Material </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MSTAE (X-Plant Mat.Status)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MEINS</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LABOR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MAKTX (PT)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MAKTX (EN)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MAKTX (ES)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>MAKTX (DE)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Product group</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>GROES (Size/Dimension)</t>
-        </is>
-      </c>
+          <t>4076411</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>WRKST (material)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NORMT (Normbezeichnung)</t>
-        </is>
-      </c>
+          <t>SPECIAL</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Internal comment (narrative)</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=4,22/ROTAÇÃO: N=416RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 2,20KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: FAF37-DRN90LP4/V/TF/                                CARAC. ESPECIAL: COM TERMISTOR TIPO PTC - TF,VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4076411</t>
+          <t>4076541</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -670,21 +609,22 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=4,22/ROTAÇÃO: N=416RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 2,20KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: FAF37-DRN90LP4/V/TF/                                CARAC. ESPECIAL: COM TERMISTOR TIPO PTC - TF,VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS 87-AMS160/          REDUÇÃO: I=5,30/FORMA CONSTRUT: M1/CÓDIGO SEW: RF87 AMS160/                   PARA MOTOR: CARCAÇA 160/DESENHO SEW: NÃO INFORMADO/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4076541</t>
+          <t>4076994</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -696,21 +636,22 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS 87-AMS160/          REDUÇÃO: I=5,30/FORMA CONSTRUT: M1/CÓDIGO SEW: RF87 AMS160/                   PARA MOTOR: CARCAÇA 160/DESENHO SEW: NÃO INFORMADO/</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+          <t>MOTOR SEW MODELO: DRN80MP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/      CARCAÇA: 80M/NRº DE FASES: 3/POTÊNCIA: 1,10KW/FREQUENCIA: 60HZ/               EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF165/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4076994</t>
+          <t>4076998</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -722,21 +663,22 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MOTOR SEW MODELO: DRN80MP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/      CARCAÇA: 80M/NRº DE FASES: 3/POTÊNCIA: 1,10KW/FREQUENCIA: 60HZ/               EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF165/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+          <t>MOTOR SEW MODELO: DRN132SP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/     CARCAÇA: 132S/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF265/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4076998</t>
+          <t>4077213</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -748,21 +690,22 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Grau D</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MOTOR SEW MODELO: DRN132SP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/     CARCAÇA: 132S/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF265/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 04_0.01/MODELO: WAF10 DR2S56MP4/        REDUÇÃO: I=39,00/ROTAÇÃO: N=41RPM/                                            FORMA CONSTRUT.: M4A-L (CAIXA DE LIGAÇÃO 180°/X)/POTÊNCIA: 0,15KW/            FREQUÊNCIA: 60HZ/EFICIENCIA: STANDARD (IR1)/TENSÃO: 220/380V/                 GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA ABNT/   FLANGE: EF W003/06/PONTA DE EIXO: Ø16mm/                                      CARAC. ESPECIAL: COM COBERTURA DE PROTEÇÃO DO EIXO,EIXO VEIO OCO/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4077213</t>
+          <t>4077235</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -774,21 +717,22 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 04_0.01/MODELO: WAF10 DR2S56MP4/        REDUÇÃO: I=39,00/ROTAÇÃO: N=41RPM/                                            FORMA CONSTRUT.: M4A-L (CAIXA DE LIGAÇÃO 180°/X)/POTÊNCIA: 0,15KW/            FREQUÊNCIA: 60HZ/EFICIENCIA: STANDARD (IR1)/TENSÃO: 220/380V/                 GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA ABNT/   FLANGE: EF W003/06/PONTA DE EIXO: Ø16mm/                                      CARAC. ESPECIAL: COM COBERTURA DE PROTEÇÃO DO EIXO,EIXO VEIO OCO/</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM045B/CÓDIGO NETZSCH: NS57/              REDUÇÃO: I=17,57/ROTAÇÃO: N=100RPM/FORMA CONSTR: M2A/POTÊNCIA MOTOR: 3,70KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF57 DRN90LP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4077235</t>
+          <t>4077526</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -800,21 +744,22 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM045B/CÓDIGO NETZSCH: NS57/              REDUÇÃO: I=17,57/ROTAÇÃO: N=100RPM/FORMA CONSTR: M2A/POTÊNCIA MOTOR: 3,70KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF57 DRN90LP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=7,28/ROTAÇÃO: N=242RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 5,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN112MP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4077526</t>
+          <t>4077987</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -826,21 +771,22 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Grau D</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=7,28/ROTAÇÃO: N=242RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 5,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN112MP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_5.1/MODELO: RF77 DRN100L4/           REDUÇÃO: I=36,83/ROTAÇÃO: N=40RPM/POTÊNCIA: 3,00KW/FREQUÊNCIA: 50HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380V/                   GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA IEC/    FLANGE: Ø250mm/PONTA DE EIXO: 35X70MM/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4077987</t>
+          <t>4078021</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -852,21 +798,22 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PRINCIPAL</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_5.1/MODELO: RF77 DRN100L4/           REDUÇÃO: I=36,83/ROTAÇÃO: N=40RPM/POTÊNCIA: 3,00KW/FREQUÊNCIA: 50HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380V/                   GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA IEC/    FLANGE: Ø250mm/PONTA DE EIXO: 35X70MM/</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+          <t>MOTOR ELÉTRICO TRIFÁSICO PMM (IMÃS PERMANENTES)W22,IE4; FORMA CONSTRUTIVA V1T; TORQUE CONSTANTE 1196NM (882 ft.lb); 16 POLOS; ROTAÇÃO NOMINAL 375RPM; POTÊNCIA 47KW (63,5HP); TEFC; IP-55; FREQUÊNCIA 4 ATÉ 50 HZ; TENSÃO 380V C/ 6 TERMINAIS; CORRENTE 82A; ISOLAMENTO CLASSE F; FATOR DE SERVIÇO: 1,00; CARCAÇA 315S/M; PLANO DE PINTURA 202P; COR 091A.3145; COM PLACA DE BORNES; FLANGE FF-600; COM FURO PASSANTE NO EIXO Ø60MM; COM PONTA DE EIXO NA PARTE SUPERIOR; SAÍDA DE CABOS DA CAIXA DE LIGAÇÃO PRINCIPAL VOLTADA PARA EIXO; COM CERTIFICAÇÃO ATEX/IECEX, ZONA 2, GRUPO IIC, T3; ESPECIAL PARA APLICAÇÃO EM CABEÇOTES DE ACIONAMENTOS PCP. PLAQUETA DO MOTOR COM VALOR DE TORQUE EXPRESSA EM FT.LB E POTÊNCIA EM HP. CONFORME FOLHA DE DADOS NR...., ITEM FORNECEDOR: 17464798.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4078021</t>
+          <t>4323918</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -878,21 +825,22 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MOTOR ELÉTRICO TRIFÁSICO PMM (IMÃS PERMANENTES)W22,IE4; FORMA CONSTRUTIVA V1T; TORQUE CONSTANTE 1196NM (882 ft.lb); 16 POLOS; ROTAÇÃO NOMINAL 375RPM; POTÊNCIA 47KW (63,5HP); TEFC; IP-55; FREQUÊNCIA 4 ATÉ 50 HZ; TENSÃO 380V C/ 6 TERMINAIS; CORRENTE 82A; ISOLAMENTO CLASSE F; FATOR DE SERVIÇO: 1,00; CARCAÇA 315S/M; PLANO DE PINTURA 202P; COR 091A.3145; COM PLACA DE BORNES; FLANGE FF-600; COM FURO PASSANTE NO EIXO Ø60MM; COM PONTA DE EIXO NA PARTE SUPERIOR; SAÍDA DE CABOS DA CAIXA DE LIGAÇÃO PRINCIPAL VOLTADA PARA EIXO; COM CERTIFICAÇÃO ATEX/IECEX, ZONA 2, GRUPO IIC, T3; ESPECIAL PARA APLICAÇÃO EM CABEÇOTES DE ACIONAMENTOS PCP. PLAQUETA DO MOTOR COM VALOR DE TORQUE EXPRESSA EM FT.LB E POTÊNCIA EM HP. CONFORME FOLHA DE DADOS NR...., ITEM FORNECEDOR: 17464798.</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4323918</t>
+          <t>4324050</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -904,21 +852,22 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4324050</t>
+          <t>4324228</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -930,21 +879,22 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 12"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4324228</t>
+          <t>4324229</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -956,21 +906,22 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 12"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4324229</t>
+          <t>4324266</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -982,21 +933,22 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4324266</t>
+          <t>4324273</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1008,21 +960,22 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4324273</t>
+          <t>4324275</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1034,21 +987,22 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4324275</t>
+          <t>4324292</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1060,21 +1014,22 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ASTM A182 GR F316L</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4324292</t>
+          <t>4324299</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1086,21 +1041,22 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4324299</t>
+          <t>4324300</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1112,21 +1068,22 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4324300</t>
+          <t>4324322</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1138,21 +1095,22 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4324322</t>
+          <t>4324462</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -1164,21 +1122,22 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4324462</t>
+          <t>4324463</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1190,21 +1149,22 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM:,ESPANHA, PORTUGAL, TAIWAN, CHINA, LESTE EUROPEU, ÁFRICA, AMÉRICA CENTRAL E DO SUL, LAOS, C/</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4324463</t>
+          <t>4324476</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1216,21 +1176,22 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM:,ESPANHA, PORTUGAL, TAIWAN, CHINA, LESTE EUROPEU, ÁFRICA, AMÉRICA CENTRAL E DO SUL, LAOS, C/</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 300#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4324476</t>
+          <t>4324478</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1242,21 +1203,22 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 300#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO NACE MR0175/ISO 15156/</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4324478</t>
+          <t>4324483</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1268,21 +1230,22 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO NACE MR0175/ISO 15156/</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 12"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4324483</t>
+          <t>4324742</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1294,21 +1257,22 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DUPLEX UNS S31803</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 12"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: DUPLEX UNS S31803/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4324742</t>
+          <t>4324744</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1320,21 +1284,22 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DUPLEX UNS S31803</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: DUPLEX UNS S31803/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: DUPLEX UNS S31803/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4324744</t>
+          <t>4324774</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1346,21 +1311,22 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: DUPLEX UNS S31803/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4324774</t>
+          <t>4324896</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1372,21 +1338,22 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4324896</t>
+          <t>4324897</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1398,21 +1365,22 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3/4"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4324897</t>
+          <t>4324921</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1424,21 +1392,22 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3/4"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4324921</t>
+          <t>4325017</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1450,21 +1419,22 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM: CHINA E ESTADOS UNIDOS./</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4325017</t>
+          <t>4325105</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1476,21 +1446,22 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM: CHINA E ESTADOS UNIDOS./</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4325105</t>
+          <t>4325164</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1502,21 +1473,22 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4325164</t>
+          <t>4325308</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1528,21 +1500,22 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 5"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4325308</t>
+          <t>4325782</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1554,21 +1527,22 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 5"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+          <t>MOTOR SEW MODELO: DRN132M4/FE/FORMA CONSTR: B35/POS. CAIXA LIG: T (270°/X)/   CARCAÇA: 132M/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IP55/NORMA: ABNT/FLANGE: FF265/             TENSÃO: 220/380V COM 06 TERMINAIS/ISOLAMENTO: F/REGIME SERVIÇO: S1/           CARAC. ESPECIAL: ENSAIO DE TIPO SEM INSPETOR - TODO LOTE,MOTOR C/ 2 FITAS DE AQUECIMENTO AC 230V, LADO A+B/</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4325782</t>
+          <t>4325797</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1580,21 +1554,22 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>MOTOR SEW MODELO: DRN132M4/FE/FORMA CONSTR: B35/POS. CAIXA LIG: T (270°/X)/   CARCAÇA: 132M/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IP55/NORMA: ABNT/FLANGE: FF265/             TENSÃO: 220/380V COM 06 TERMINAIS/ISOLAMENTO: F/REGIME SERVIÇO: S1/           CARAC. ESPECIAL: ENSAIO DE TIPO SEM INSPETOR - TODO LOTE,MOTOR C/ 2 FITAS DE AQUECIMENTO AC 230V, LADO A+B/</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1/2"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4325797</t>
+          <t>4348119</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1606,21 +1581,22 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1/2"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4348119</t>
+          <t>4348127</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1632,21 +1608,22 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 4"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4348127</t>
+          <t>4348151</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1658,21 +1635,22 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 4"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4348151</t>
+          <t>4348218</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1684,21 +1662,22 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 14"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4348218</t>
+          <t>4348281</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1710,21 +1689,22 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ASTM A182 GR F316L</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 14"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/                       CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4348281</t>
+          <t>4348288</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1736,21 +1716,22 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ASTM A182 GR F316L</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/                       CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4348288</t>
+          <t>4348682</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1762,21 +1743,22 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/ACABAM. FACE: LISO/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4348682</t>
+          <t>4348970</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1788,21 +1770,22 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/ACABAM. FACE: LISO/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 14"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4348970</t>
+          <t>4349150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1814,21 +1797,22 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ASTM A182</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 14"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4349150</t>
+          <t>4349612</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1840,21 +1824,22 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4349612</t>
+          <t>4360533</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1866,21 +1851,22 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
+          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS 27-AD2/             REDUÇÃO: I=9,41/FORMA CONSTRUT: M1/CÓDIGO SEW: RF27 AD2/</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4360533</t>
+          <t>4361881</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1892,21 +1878,22 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS 27-AD2/             REDUÇÃO: I=9,41/FORMA CONSTRUT: M1/CÓDIGO SEW: RF27 AD2/</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=10,49/ROTAÇÃO: N=167RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 2,20KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KAF37 DRN90LP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4361881</t>
+          <t>4361882</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1918,21 +1905,22 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=10,49/ROTAÇÃO: N=167RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 2,20KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KAF37 DRN90LP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=8,91/ROTAÇÃO: N=197RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 1,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF37 DRN90SP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4361882</t>
+          <t>4362878</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1944,21 +1932,22 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ASTM A105</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=8,91/ROTAÇÃO: N=197RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 1,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF37 DRN90SP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: FF/MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/  CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4362878</t>
+          <t>4364731</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1970,21 +1959,22 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BRONZE</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: FF/MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/  CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+          <t>ACOPLADOR CAM-LOK CI BRONZE HPF ROSCA FEMEA NPT 64 4"" - B0008- 11810017 0064</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4364731</t>
+          <t>4368590</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1996,21 +1986,22 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>ACOPLADOR CAM-LOK CI BRONZE HPF ROSCA FEMEA NPT 64 4"" - B0008- 11810017 0064</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM011B/CÓDIGO NETZSCH: NSF17/             REDUÇÃO: I=6,15/ROTAÇÃO: N=281RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 0,37KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: R17F DRN71M4/DESENHO SEW: 415994608-800/</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4368590</t>
+          <t>4369391</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2022,21 +2013,22 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Grau D</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM011B/CÓDIGO NETZSCH: NSF17/             REDUÇÃO: I=6,15/ROTAÇÃO: N=281RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 0,37KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: R17F DRN71M4/DESENHO SEW: 415994608-800/</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_0.1/MODELO: R27F DRN71MS4/V/         REDUÇÃO: I=74,11/ROTAÇÃO: N=23RPM/POTÊNCIA: 0,25KW/FREQUÊNCIA: 60HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380/440/760V/           GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVF/ISOLAMENTO: F/NORMA ABNT/   FLANGE: Ø120mm/PONTA DE EIXO: 18X50MM/                                        CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4369391</t>
+          <t>4369568</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2048,21 +2040,22 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_0.1/MODELO: R27F DRN71MS4/V/         REDUÇÃO: I=74,11/ROTAÇÃO: N=23RPM/POTÊNCIA: 0,25KW/FREQUÊNCIA: 60HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380/440/760V/           GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVF/ISOLAMENTO: F/NORMA ABNT/   FLANGE: Ø120mm/PONTA DE EIXO: 18X50MM/                                        CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM076B/CÓDIGO NETZSCH: NS77/              REDUÇÃO: I=10,84/ROTAÇÃO: N=325RPM/FORMA CONSTR: M1A/POTÊNCIA MOTOR: 11,00KW/ FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 2/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF77 DRN132MEP2/</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4369568</t>
+          <t>4369676</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2074,21 +2067,22 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM076B/CÓDIGO NETZSCH: NS77/              REDUÇÃO: I=10,84/ROTAÇÃO: N=325RPM/FORMA CONSTR: M1A/POTÊNCIA MOTOR: 11,00KW/ FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 2/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF77 DRN132MEP2/</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=5,20/ROTAÇÃO: N=341RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 9,20KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN132MP4/                                     CARAC. ESPECIAL: ÓLEO SINTÉTICO,DUPLA VEDAÇÃO NO EIXO DE SAÍDA,EIXO DE SAÍDA: 40X80mm,TANQUE DE EXPANSÃO,RESPIRO ESPECIAL/</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4369676</t>
+          <t>4407432</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2100,21 +2094,22 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>AISI 304L FLANGE CFE</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=5,20/ROTAÇÃO: N=341RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 9,20KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN132MP4/                                     CARAC. ESPECIAL: ÓLEO SINTÉTICO,DUPLA VEDAÇÃO NO EIXO DE SAÍDA,EIXO DE SAÍDA: 40X80mm,TANQUE DE EXPANSÃO,RESPIRO ESPECIAL/</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+          <t>BOCA DE RECALQUE  NM105-14 MATERIAL AISI 304L FLANGE CFE ANSI B16.5 150PSI 6" FF.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4407432</t>
+          <t>4407813</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2126,21 +2121,22 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>BOCA DE RECALQUE  NM105-14 MATERIAL AISI 304L FLANGE CFE ANSI B16.5 150PSI 6" FF.</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+          <t>BASE MÓVEL PARA BOMBA NM031BH01L06-/02S12- MATERIAL: AISI 304; ACABAMENTO JATEADO; APTA PARA:  -MOTOREDUTOR NS 27; ESPECIAL: BASE COM 3 RODIZIOS; OBS.: FORNECER BASE SEM USINAGEM, COM FURAÇÃO E SOLDA COMPLETA.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4407813</t>
+          <t>4630361</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2152,21 +2148,22 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>NEMOLAST S459</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>BASE MÓVEL PARA BOMBA NM031BH01L06-/02S12- MATERIAL: AISI 304; ACABAMENTO JATEADO; APTA PARA:  -MOTOREDUTOR NS 27; ESPECIAL: BASE COM 3 RODIZIOS; OBS.: FORNECER BASE SEM USINAGEM, COM FURAÇÃO E SOLDA COMPLETA.</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 06/GEOMETRIA: S/BORRACHA: NEMOLAST S459/    MATERIAL TUBO: 1020/TERMOSTATO: STP3/MEDIDA Lst: 101,50mm/MEDIDA A: M8/       MEDIDA B: 10,30mm/MEDIDA t: 40,00mm/                                          CARAC. ESPECIAL: SOLDADO,NH - NÃO HIGIÊNICO (NÃO INDICADO PARA APLICAÇÕES HIGIÊNICAS)/</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4630361</t>
+          <t>4631271</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2178,21 +2175,22 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>TELA: TELA 1008</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 06/GEOMETRIA: S/BORRACHA: NEMOLAST S459/    MATERIAL TUBO: 1020/TERMOSTATO: STP3/MEDIDA Lst: 101,50mm/MEDIDA A: M8/       MEDIDA B: 10,30mm/MEDIDA t: 40,00mm/                                          CARAC. ESPECIAL: SOLDADO,NH - NÃO HIGIÊNICO (NÃO INDICADO PARA APLICAÇÕES HIGIÊNICAS)/</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: EP/               MATERIAL: 1020/MATERIAL TELA: TELA 1008/10/</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4631271</t>
+          <t>4632414</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2204,21 +2202,22 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>AISI 316    P</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: EP/               MATERIAL: 1020/MATERIAL TELA: TELA 1008/10/</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+          <t>APERTA SELO MECANICO  NM053B-(P) MATERIAL  AISI 316    P/SELO M74-D C/ QUENCH G=1/4"NPT</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4632414</t>
+          <t>4634181</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2230,21 +2229,22 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>NEMOLAST S61M</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>APERTA SELO MECANICO  NM053B-(P) MATERIAL  AISI 316    P/SELO M74-D C/ QUENCH G=1/4"NPT</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 12/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4634181</t>
+          <t>4634590</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2256,21 +2256,22 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>NEMOLAST S41</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 12/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 01/GEOMETRIA: P/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4634590</t>
+          <t>4636617</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2282,21 +2283,22 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ASTM A-36</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 01/GEOMETRIA: P/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+          <t>FLANGE DIANTEIRA PRÉ-USINADO  MODELO: 3NS-/80H13-/MATERIAL: ASTM A-36/        MEDIDA A: 418,00mm/MEDIDA B: 310,00mm/MEDIDA C: 80,00mm/MEDIDA D: 371,00mm/   MEDIDA D1: D1=493,00/MEDIDA E: 367,00mm/MEDIDA F: 10,00mm/MEDIDA G: 50,00mm/  MEDIDA H: 520,00mm/                                                           MEDIDA X°: USINAR CFE DETALHE X, PARA ESPESSURA DO TUBO &gt;22mm/                MEDIDA Y°: Y°=30°/MEDIDA R: R=5,00/MEDIDA R1: R1=5,00/</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4636617</t>
+          <t>4637143</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -2308,21 +2310,22 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ASTM A-36</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>FLANGE DIANTEIRA PRÉ-USINADO  MODELO: 3NS-/80H13-/MATERIAL: ASTM A-36/        MEDIDA A: 418,00mm/MEDIDA B: 310,00mm/MEDIDA C: 80,00mm/MEDIDA D: 371,00mm/   MEDIDA D1: D1=493,00/MEDIDA E: 367,00mm/MEDIDA F: 10,00mm/MEDIDA G: 50,00mm/  MEDIDA H: 520,00mm/                                                           MEDIDA X°: USINAR CFE DETALHE X, PARA ESPESSURA DO TUBO &gt;22mm/                MEDIDA Y°: Y°=30°/MEDIDA R: R=5,00/MEDIDA R1: R1=5,00/</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+          <t>ANEL INTERMEDIÁRIO MODELO: 3NS-/80H2-/MATERIAL: ASTM A-36/                    MEDIDA A: A=120,00mm/MEDIDA B: B=85,00/MEDIDA C: C=15,00/MEDIDA D: D=5,00/    MEDIDA X°: X°=45°/MEDIDA E: E=5,00/MEDIDA Y°: Y°=45°/</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4637143</t>
+          <t>4651382</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -2334,21 +2337,22 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>A-36</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>ANEL INTERMEDIÁRIO MODELO: 3NS-/80H2-/MATERIAL: ASTM A-36/                    MEDIDA A: A=120,00mm/MEDIDA B: B=85,00/MEDIDA C: C=15,00/MEDIDA D: D=5,00/    MEDIDA X°: X°=45°/MEDIDA E: E=5,00/MEDIDA Y°: Y°=45°/</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+          <t>CORPO PCP SOLDADO PARA CABEÇOTE GH20-H  MATERIAL: A-36  *TESTES/CERTIFICADOS EXIGIDOS: *TESTE DE PARTÍCULA MAGNÉTICA E CERTIFICADOS 100% NOS OLHAIS DE IÇAMENTO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4651382</t>
+          <t>4651383</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -2360,21 +2364,22 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>A-36</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>CORPO PCP SOLDADO PARA CABEÇOTE GH20-H  MATERIAL: A-36  *TESTES/CERTIFICADOS EXIGIDOS: *TESTE DE PARTÍCULA MAGNÉTICA E CERTIFICADOS 100% NOS OLHAIS DE IÇAMENTO</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+          <t>CORPO PCP USINADO PARA CABEÇOTE GH20-H  MATERIAL: A-36</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4651383</t>
+          <t>4652153</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -2386,21 +2391,22 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>NEMOLAST S61M</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>CORPO PCP USINADO PARA CABEÇOTE GH20-H  MATERIAL: A-36</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM125/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL: 1020/                                                               CARAC. ESPECIAL: COM CHANFRO S NAS DUAS EXTREMIDADES DO ESTATOR/</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4652153</t>
+          <t>4652645</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -2412,21 +2418,22 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ASTM A106.</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM125/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL: 1020/                                                               CARAC. ESPECIAL: COM CHANFRO S NAS DUAS EXTREMIDADES DO ESTATOR/</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4652645</t>
+          <t>4652646</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -2438,21 +2445,22 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ASTM A106.</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+          <t>GARGANTA DN10" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4652646</t>
+          <t>4652784</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2464,21 +2472,22 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ASTM A106.</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>GARGANTA DN10" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+          <t>GARGANTA DN4" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>4652784</t>
+          <t>4652838</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -2490,21 +2499,22 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ASTM A106.</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>GARGANTA DN4" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+          <t>GARGANTA DN8" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4652838</t>
+          <t>4653149</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -2516,21 +2526,22 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>AISI 316.</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>GARGANTA DN8" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM031-12. MATERIAL  AISI 316. FLANGE CFE ANSI B16.5 150PSI 2" RF. G= 3/4" NPT. ESPECIAL: ALTURA DA FACE DA FLANGE ATÉ A LINHA DE CENTRO DE 93MM.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4653149</t>
+          <t>4653315</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -2542,21 +2553,22 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ASTM A106.</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM031-12. MATERIAL  AISI 316. FLANGE CFE ANSI B16.5 150PSI 2" RF. G= 3/4" NPT. ESPECIAL: ALTURA DA FACE DA FLANGE ATÉ A LINHA DE CENTRO DE 93MM.</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+          <t>GARGANTA DN12" - SCH40 MATERIAL: ASTM A106.</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>4653315</t>
+          <t>4653447</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2568,21 +2580,22 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ASTM A106.</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>GARGANTA DN12" - SCH40 MATERIAL: ASTM A106.</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4653447</t>
+          <t>4653453</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -2594,21 +2607,22 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>ASTM A106.</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+          <t>GARGANTA DN10" - SCH80 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4653453</t>
+          <t>4653575</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -2620,21 +2634,22 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SAE 1045</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>GARGANTA DN10" - SCH80 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+          <t>ADAPTADOR HN5 MATERIAL SAE 1045</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4653575</t>
+          <t>4653856</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2646,21 +2661,22 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>ROTOR</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>ADAPTADOR HN5 MATERIAL SAE 1045</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+          <t>DISPLAY/STAND COM ROTOR, PARA TRITURADOR N.MAC 50C (STAND PARA BOMBAS DE SHOW-ROOM E FEIRAS) COM PEDESTAL NO CHÃO + ROTOR + PLATAFORMA DE MADEIRA PARA O TRITURADOR  ACABAMENTO SUPERFICIAL: *BUCHA DO ROTOR/ROTOR/FLANGE DE SUSTENTAÇÃO DA PLATAFORMA - POLIDOS *DEMAIS COMPONENTES - PINTADOS: TINTA DE FUNDO - TINTA EPOXI TINTA DE ACABAMENTO - TINTA POLIÉSTER NA COR PRATA ANDINO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4653856</t>
+          <t>4654187</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2672,21 +2688,22 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>AISI 304 P</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>DISPLAY/STAND COM ROTOR, PARA TRITURADOR N.MAC 50C (STAND PARA BOMBAS DE SHOW-ROOM E FEIRAS) COM PEDESTAL NO CHÃO + ROTOR + PLATAFORMA DE MADEIRA PARA O TRITURADOR  ACABAMENTO SUPERFICIAL: *BUCHA DO ROTOR/ROTOR/FLANGE DE SUSTENTAÇÃO DA PLATAFORMA - POLIDOS *DEMAIS COMPONENTES - PINTADOS: TINTA DE FUNDO - TINTA EPOXI TINTA DE ACABAMENTO - TINTA POLIÉSTER NA COR PRATA ANDINO</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+          <t>GARGANTA DN 32 DIN 11851 MATERIAL: AISI 304 POLIDO INT / EXT.</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4654187</t>
+          <t>4655561</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -2698,21 +2715,22 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>SAE 1020 C</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>GARGANTA DN 32 DIN 11851 MATERIAL: AISI 304 POLIDO INT / EXT.</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+          <t>MODELO: 2NS-/16H3- EXECUÇÃO: PÉ P MAX PROJ SUC: 3 BAR P MAX PROJ DESC: 10 BAR ESPECIAL: ESP SENTIDO FLUXO: ESQUERDA/DIREITA FLANGE SUCÇÃO: DN 2" - ASME B16.5 - #300 - RF FLANGE DESCARGA: DN 2" - ASME B16.5 - #300 - RF CON. MAN/VACUOM: 1/2" NPT DRENO SUCÇÃO: DN 1/2" - ASME B16.5 - #300 - RF DRENO DESCARGA: DN 1/2" - ASME B16.5 - #300 - RF C/ VÁLV. ALÍVIO: EXTERNA MAT CO BOMBA: SAE 1020 CAR ES CO BOMBA: CERTIFICADO DE CONFORMIDADE|CONFORME NORMA DIN EN 10204-3.1 (CERTIFICADOS DE MATÉRIA-PRIMA CONTENDO COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS)|COM MANUAL DE JUNTAS SOLDADAS|FORNECER DOCUMENTAÇÃO NO IDIOMA INGLÊS|INSPEÇÃO E RELATÓRIO DE LÍQUIDO PENETRANTE|INSPEÇÃO DE SOLDAGEM (IEIS/EPS/RQPS/RQS/RIS)|TODOS OS RELATÓRIOS E PROCEDIMENTOS DEVEM SER ASSINADOS POR INSPETORES QUALIFICADOS SNQC NIVEL II|ITEM RASTREÁVEL|SUPORTE PLAQUETA NÃO RASTREÁVEL|RELATÓRIO DE PARTÍCULA MAGNÉTICA ONDE APLICÁVEL|RELATÓRIO DE TESTE HIDROSTÁTICO|RELATÓRIO DE EVS (ENSAIO VISUAL DE SOLDA)|MATERIAL DO SUPORTE DA PLAQUETA: AISI 316L</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4655561</t>
+          <t>4655828</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -2724,21 +2742,22 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>MODELO: 2NS-/16H3- EXECUÇÃO: PÉ P MAX PROJ SUC: 3 BAR P MAX PROJ DESC: 10 BAR ESPECIAL: ESP SENTIDO FLUXO: ESQUERDA/DIREITA FLANGE SUCÇÃO: DN 2" - ASME B16.5 - #300 - RF FLANGE DESCARGA: DN 2" - ASME B16.5 - #300 - RF CON. MAN/VACUOM: 1/2" NPT DRENO SUCÇÃO: DN 1/2" - ASME B16.5 - #300 - RF DRENO DESCARGA: DN 1/2" - ASME B16.5 - #300 - RF C/ VÁLV. ALÍVIO: EXTERNA MAT CO BOMBA: SAE 1020 CAR ES CO BOMBA: CERTIFICADO DE CONFORMIDADE|CONFORME NORMA DIN EN 10204-3.1 (CERTIFICADOS DE MATÉRIA-PRIMA CONTENDO COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS)|COM MANUAL DE JUNTAS SOLDADAS|FORNECER DOCUMENTAÇÃO NO IDIOMA INGLÊS|INSPEÇÃO E RELATÓRIO DE LÍQUIDO PENETRANTE|INSPEÇÃO DE SOLDAGEM (IEIS/EPS/RQPS/RQS/RIS)|TODOS OS RELATÓRIOS E PROCEDIMENTOS DEVEM SER ASSINADOS POR INSPETORES QUALIFICADOS SNQC NIVEL II|ITEM RASTREÁVEL|SUPORTE PLAQUETA NÃO RASTREÁVEL|RELATÓRIO DE PARTÍCULA MAGNÉTICA ONDE APLICÁVEL|RELATÓRIO DE TESTE HIDROSTÁTICO|RELATÓRIO DE EVS (ENSAIO VISUAL DE SOLDA)|MATERIAL DO SUPORTE DA PLAQUETA: AISI 316L</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM090/TIPO BOMBA: BH(P)/             MATERIAL: AISI 316/ACABAMENTO: POLIDO - NORMA WN0113/                         CARAC. ESPECIAL: ESPECIAL P/SELO HJ977GN,COM RESSALTO NO ENCAIXE DO SELO/</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4655828</t>
+          <t>4656108</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2750,21 +2769,22 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SAE 1020  P</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM090/TIPO BOMBA: BH(P)/             MATERIAL: AISI 316/ACABAMENTO: POLIDO - NORMA WN0113/                         CARAC. ESPECIAL: ESPECIAL P/SELO HJ977GN,COM RESSALTO NO ENCAIXE DO SELO/</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+          <t>BATENTE DO EIXO DO EXTRATOR DE LÓBULOS DE BOMBAS TORNADO MODELO DE BOMBA: TORNADO T1 XB MATERIAL: SAE 1020  PARA NOVA EXECUÇÃO FACELIFT</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4656108</t>
+          <t>4656604</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -2776,21 +2796,22 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DUPLEX UNS S31803</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>BATENTE DO EIXO DO EXTRATOR DE LÓBULOS DE BOMBAS TORNADO MODELO DE BOMBA: TORNADO T1 XB MATERIAL: SAE 1020  PARA NOVA EXECUÇÃO FACELIFT</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+          <t>GARGANTA DN 1.1/2" - SCH80; MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>4656604</t>
+          <t>4656605</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -2802,21 +2823,22 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DUPLEX UNS S31803</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>GARGANTA DN 1.1/2" - SCH80; MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+          <t>GARGANTA DN 1.1/2" - SCH80 MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4656605</t>
+          <t>4658517</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -2828,21 +2850,22 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>SAE 1020;</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>GARGANTA DN 1.1/2" - SCH80 MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
+          <t>BOCA DE RECALQUE NM063-18; FLANGE DIN EN 1092 DN 100 PN40 FF; MATERIAL: SAE 1020; COM 1 CONEXÃO P/ MANÔMETRO 3/4" NPT.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4658517</t>
+          <t>4659830</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -2854,21 +2877,22 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>20MNCR5</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>BOCA DE RECALQUE NM063-18; FLANGE DIN EN 1092 DN 100 PN40 FF; MATERIAL: SAE 1020; COM 1 CONEXÃO P/ MANÔMETRO 3/4" NPT.</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 18/SÉRIE DA BOMBA: 16/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 3/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO NITRETADO 20MNCR5/                                        SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        TÊMPERA: 850°C-860°C/REVENIMENTO: 540°C-560°C, DUREZA 25+4 HRC/               NITRETAÇÃO: 500°C, DUREZA &gt;= 650HV, CAMADA 300+100µm/SENTIDO HÉLICE: DIREITA/ CARAC ESP PROJ: FURO DE RETORNO PARA ACL MAGNÉTICO/</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4659830</t>
+          <t>4661506</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -2880,21 +2904,22 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>TOOLOX 44</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 18/SÉRIE DA BOMBA: 16/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 3/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO NITRETADO 20MNCR5/                                        SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        TÊMPERA: 850°C-860°C/REVENIMENTO: 540°C-560°C, DUREZA 25+4 HRC/               NITRETAÇÃO: 500°C, DUREZA &gt;= 650HV, CAMADA 300+100µm/SENTIDO HÉLICE: DIREITA/ CARAC ESP PROJ: FURO DE RETORNO PARA ACL MAGNÉTICO/</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 10/SÉRIE DA BOMBA: 80/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 2/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO TOOLOX 44/                                                SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        SENTIDO HÉLICE: DIREITA/</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4661506</t>
+          <t>4663378</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -2906,21 +2931,22 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>EN 1563 EN GJS 500 7</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 10/SÉRIE DA BOMBA: 80/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 2/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO TOOLOX 44/                                                SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        SENTIDO HÉLICE: DIREITA/</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+          <t>CORPO BOMBA  TAMANHO: 2NS-/16H8/EXECUÇÃO: FLANGE/MAT CORPO BOMBA: GJS500 7/   NORMA/CLASSE FL: B16.42/150FF/ESPECIAL: ESP/                                  NORMA MATERIAL: EN 1563 EN GJS 500 7/SENTIDO FLUXO: ESQUERDA P/ DIREITA/      TAMANHO FLANGE: DN 150/PRES PROJ (BAR): 16/CONEXÕES: R1/2" BSP/               CAR ES CO BOMBA: SEM USINAGEM PARA VÁLVULA,COM FURO DE DESAERAÇÃO PASSANTE,SEM UM DOS FUROS PARA RETORNO DE ÓLEO,ALOJAMENTO DOS FUSOS DESLOCADO P/ ALTA PRES. E GIRO HORÁRIO/</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4663378</t>
+          <t>4666381</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -2932,21 +2958,22 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>SAE 4140</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>CORPO BOMBA  TAMANHO: 2NS-/16H8/EXECUÇÃO: FLANGE/MAT CORPO BOMBA: GJS500 7/   NORMA/CLASSE FL: B16.42/150FF/ESPECIAL: ESP/                                  NORMA MATERIAL: EN 1563 EN GJS 500 7/SENTIDO FLUXO: ESQUERDA P/ DIREITA/      TAMANHO FLANGE: DN 150/PRES PROJ (BAR): 16/CONEXÕES: R1/2" BSP/               CAR ES CO BOMBA: SEM USINAGEM PARA VÁLVULA,COM FURO DE DESAERAÇÃO PASSANTE,SEM UM DOS FUROS PARA RETORNO DE ÓLEO,ALOJAMENTO DOS FUSOS DESLOCADO P/ ALTA PRES. E GIRO HORÁRIO/</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+          <t>EIXO MOVIDO DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4666381</t>
+          <t>4666382</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -2958,21 +2985,22 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>SAE 4140</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>EIXO MOVIDO DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+          <t>EIXO MOTOR DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4666382</t>
+          <t>4667002</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -2984,21 +3012,22 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>AISI 304  C</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>EIXO MOTOR DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+          <t>GARGANTA COM CONEXÇÃO SANITÁRIA MATERIAL: AISI 304  CONEXÃO SANITÁRIA 2" TC  ESPECIAL:  - INCLINADA EM 45 GRAUS  - PARA TUBO Ø88,9mm</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>4667002</t>
+          <t>4667486</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3010,21 +3039,22 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>AISI304L</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>GARGANTA COM CONEXÇÃO SANITÁRIA MATERIAL: AISI 304  CONEXÃO SANITÁRIA 2" TC  ESPECIAL:  - INCLINADA EM 45 GRAUS  - PARA TUBO Ø88,9mm</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+          <t>PORTA SELO MEC  TIPO DE BOMBA: NM105B/PLATAFORMA: (P)/TIPO: MG1-G60/          MAT CARCAÇA VED: AISI304L/EXEC VEDA EIXO: C/ DRENO,C/ FLUSHING,C/ QUENCH/     CONEX VEDA EIXO: G=1/4" NPT/CONEX. FLUSHING: G=1/4" NPT/DIÂM. DO EIXO: Ø100/  FIXAÇÃO SELAGEM: PADRÃO (PRENSADO)/                                           EXEC. ESPECIAL: COM BUCHA DE RESTRIÇÃO,PARA EXECUÇÃO SEM ANEL DE ENCOSTO,PARA PLANO API 32/</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4667486</t>
+          <t>4668764</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3036,21 +3066,22 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>FERRO FUNDIDO</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>PORTA SELO MEC  TIPO DE BOMBA: NM105B/PLATAFORMA: (P)/TIPO: MG1-G60/          MAT CARCAÇA VED: AISI304L/EXEC VEDA EIXO: C/ DRENO,C/ FLUSHING,C/ QUENCH/     CONEX VEDA EIXO: G=1/4" NPT/CONEX. FLUSHING: G=1/4" NPT/DIÂM. DO EIXO: Ø100/  FIXAÇÃO SELAGEM: PADRÃO (PRENSADO)/                                           EXEC. ESPECIAL: COM BUCHA DE RESTRIÇÃO,PARA EXECUÇÃO SEM ANEL DE ENCOSTO,PARA PLANO API 32/</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+          <t>FLANGE INTERMEDIÁRIA 3NS-/16H4I MATERIAL: FERRO FUNDIDO NODULAR - GGG50 ESPECIAL: APTA SOMENTE PARA ACOPLAMENTO MAGNÉTICO KTR MINEX 60/8; FOLGA ESPECIAL NA VEDAÇÃO DO FUSO Ø41,5 +0,18/+0,16 VAZÃO NECESSÁRIA PARA REFRIGERAÇÃO DO ACOPLAMENTO 30L/H À 2 BAR.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4668764</t>
+          <t>4672334</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3062,21 +3093,22 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Aço Carbono</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>FLANGE INTERMEDIÁRIA 3NS-/16H4I MATERIAL: FERRO FUNDIDO NODULAR - GGG50 ESPECIAL: APTA SOMENTE PARA ACOPLAMENTO MAGNÉTICO KTR MINEX 60/8; FOLGA ESPECIAL NA VEDAÇÃO DO FUSO Ø41,5 +0,18/+0,16 VAZÃO NECESSÁRIA PARA REFRIGERAÇÃO DO ACOPLAMENTO 30L/H À 2 BAR.</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+          <t>SUPORTE PARA JUNCTION BOX (CAIXA DE JUNÇÃO) MATERIAL: AÇO CARBONO E AISI 316 ONDE INDICADO NO DESENHO.  MEDIDA: A= 1165,0mm / B= 280,0mm</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4672334</t>
+          <t>4672450</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -3088,21 +3120,22 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>SAE 1045</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>SUPORTE PARA JUNCTION BOX (CAIXA DE JUNÇÃO) MATERIAL: AÇO CARBONO E AISI 316 ONDE INDICADO NO DESENHO.  MEDIDA: A= 1165,0mm / B= 280,0mm</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+          <t>TAMPA DIANTEIRA 3NS-/--3I MATERIAL SAE 1045  CARACT. ESPECIAL: EXECUÇÃO PARA ACOPLAMENTO MAGNÉTICO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>4672450</t>
+          <t>4672513</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -3114,21 +3147,22 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>TAMPA DIANTEIRA 3NS-/--3I MATERIAL SAE 1045  CARACT. ESPECIAL: EXECUÇÃO PARA ACOPLAMENTO MAGNÉTICO</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+          <t>EIXO DE CONEXÃO ROTOR/LÂMINA NX549/NM053 ESPECIAL P/ MOLA MATERIAL: AISI 316</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4672513</t>
+          <t>4672683</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -3140,21 +3174,22 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>A-36;</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>EIXO DE CONEXÃO ROTOR/LÂMINA NX549/NM053 ESPECIAL P/ MOLA MATERIAL: AISI 316</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+          <t>BASE DE BOMBA "E" - APTA PARA:  -BOMBA 3NS-/80H9E;  -MOTOR ELÉTRICO CARCAÇA 225SM; -ACOPLAMENTO VULKAN H128-200; -MATERIAL: A-36;  OBS.: FORNECER BASE COM USINAGEM E SOLDA COMPLETA, SUPERFÍCIES USINADAS SEM PINTURA E PROTEGIDAS SOMENTE COM INIBIDOR DE CORROSÃO.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>4672683</t>
+          <t>4672740</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3166,21 +3201,22 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>BASE DE BOMBA "E" - APTA PARA:  -BOMBA 3NS-/80H9E;  -MOTOR ELÉTRICO CARCAÇA 225SM; -ACOPLAMENTO VULKAN H128-200; -MATERIAL: A-36;  OBS.: FORNECER BASE COM USINAGEM E SOLDA COMPLETA, SUPERFÍCIES USINADAS SEM PINTURA E PROTEGIDAS SOMENTE COM INIBIDOR DE CORROSÃO.</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
+          <t>TUBO DE IMERSÃO (SUCÇÃO) SEM FILTRO  PARA BOMBA 3NS-/80S3E MATERIAL: AISI 316</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>4672740</t>
+          <t>4673485</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -3192,21 +3228,22 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>SAE 4140</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>TUBO DE IMERSÃO (SUCÇÃO) SEM FILTRO  PARA BOMBA 3NS-/80S3E MATERIAL: AISI 316</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+          <t>EIXO DE ACIONAMENTO PCP NDH020DH20-HB-SB ESPECIAL PARA ACL SUPERIOR DA VEDAÇÃO ESTÁTICA DO LIP SEAL P/HASTE 1.1/4" MATERIAL: SAE 4140</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>4673485</t>
+          <t>4729161</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -3218,21 +3255,22 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>INOX 316 P</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>EIXO DE ACIONAMENTO PCP NDH020DH20-HB-SB ESPECIAL PARA ACL SUPERIOR DA VEDAÇÃO ESTÁTICA DO LIP SEAL P/HASTE 1.1/4" MATERIAL: SAE 4140</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
+          <t>BOMBA NETZSCH "NEMO" MOD. NM021BY01L06B  ESPECIFICAÇÕES INTERFACE: BOCAIS DE SUCÇÃO E DESCARGA COM ROSCA INTERNA 1.1/4" NPT POSIÇÃO BOCAL SUCÇÃO: 1.a.1 (VERTICAL CENTRAL) POSIÇÃO BOCAL DESCARGA: 4.a.0 (CENTRAL) BY-PASS: VÁLVULA MOD. DN15, PRESSÃO DE ABERTURA: 2 BAR  MATERIAIS CARCAÇA: AÇO INOX 316 PARTES GIRATÓRIAS: AÇO INOX 316 ROTOR: AÇO INOX 316 UM20 MACIÇO ESTATOR: ELASTÔMERO SBE SELO MECÂNICO: UNS-SEAL 100 Ø25 Q1Q1VGG (8016162) ARTICULAÇÕES/VEDAÇÃO: B/SM ELASTÔMERO NBR ACIONAMENTO: MOTOREDUTOR NM021B NS17 0,75KW 60HZ N=565RPM (NDB4345946) BY-PASS: AÇO INOX 304 VÁLVULA: AÇO INOX 316/MEMBRANA SBE  OBS.  * REGULAR PRESSÃO DE ABERTURA DA VÁLVULA EM 2 BAR.  * APÓS FINALIZAR O TESTE DE PERFORMANCE INVERTER O SENTIDO DE MONTAGEM DA    VÁLVULA.</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>4729161</t>
+          <t>4762526</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -3244,21 +3282,22 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>BOMBA NETZSCH "NEMO" MOD. NM021BY01L06B  ESPECIFICAÇÕES INTERFACE: BOCAIS DE SUCÇÃO E DESCARGA COM ROSCA INTERNA 1.1/4" NPT POSIÇÃO BOCAL SUCÇÃO: 1.a.1 (VERTICAL CENTRAL) POSIÇÃO BOCAL DESCARGA: 4.a.0 (CENTRAL) BY-PASS: VÁLVULA MOD. DN15, PRESSÃO DE ABERTURA: 2 BAR  MATERIAIS CARCAÇA: AÇO INOX 316 PARTES GIRATÓRIAS: AÇO INOX 316 ROTOR: AÇO INOX 316 UM20 MACIÇO ESTATOR: ELASTÔMERO SBE SELO MECÂNICO: UNS-SEAL 100 Ø25 Q1Q1VGG (8016162) ARTICULAÇÕES/VEDAÇÃO: B/SM ELASTÔMERO NBR ACIONAMENTO: MOTOREDUTOR NM021B NS17 0,75KW 60HZ N=565RPM (NDB4345946) BY-PASS: AÇO INOX 304 VÁLVULA: AÇO INOX 316/MEMBRANA SBE  OBS.  * REGULAR PRESSÃO DE ABERTURA DA VÁLVULA EM 2 BAR.  * APÓS FINALIZAR O TESTE DE PERFORMANCE INVERTER O SENTIDO DE MONTAGEM DA    VÁLVULA.</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
+          <t>ACOPLAMENTO ELÁSTICO  MODELO: ROTEX/TAMANHO: 24/MEDIDA A: A=22,00mm/          MEDIDA B: B=24,50mm/MEDIDA C: C=6,00mm/CUBO FURO A: NORMAL/                   MEDIDA A1: A1=28,00mm/MEDIDA B1: B1=31,00mm/MEDIDA C1: C1=8,00mm/             CUBO FURO A1: GRANDE/FABRICANTE: KTR/                                         CARAC. ESPECIAL: CUBO 1A/1A (GRANDE/GRANDE),MEDIDA ATÉ O CENTRO DO FURO OBLONGO CONFORME DETALHE X IGUAL A 40,00/</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>4762526</t>
+          <t>4763181</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -3270,21 +3309,22 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>ACOPLAMENTO ELÁSTICO  MODELO: ROTEX/TAMANHO: 24/MEDIDA A: A=22,00mm/          MEDIDA B: B=24,50mm/MEDIDA C: C=6,00mm/CUBO FURO A: NORMAL/                   MEDIDA A1: A1=28,00mm/MEDIDA B1: B1=31,00mm/MEDIDA C1: C1=8,00mm/             CUBO FURO A1: GRANDE/FABRICANTE: KTR/                                         CARAC. ESPECIAL: CUBO 1A/1A (GRANDE/GRANDE),MEDIDA ATÉ O CENTRO DO FURO OBLONGO CONFORME DETALHE X IGUAL A 40,00/</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST I459/    MATERIAL TUBO: AISI 304/</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4763181</t>
+          <t>4763295</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -3296,21 +3336,22 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST I459/    MATERIAL TUBO: AISI 304/</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
+          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM076/TIPO BOMBA: BH(P)/             MATERIAL: AISI 304/ACABAMENTO: POLIDO - NORMA WN0113/                         DIÂMETRO FURO: d1=50,00mm/</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4763295</t>
+          <t>4763742</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -3322,21 +3363,22 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>NEMOLAST S05G</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM076/TIPO BOMBA: BH(P)/             MATERIAL: AISI 304/ACABAMENTO: POLIDO - NORMA WN0113/                         DIÂMETRO FURO: d1=50,00mm/</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S05G/    MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4763742</t>
+          <t>4764144</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -3348,21 +3390,22 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>NEMOLAST S63</t>
+        </is>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S05G/    MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: NEMOLAST S63/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4764144</t>
+          <t>4765856</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -3374,21 +3417,22 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>NEMOLAST S61H</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: NEMOLAST S63/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 120/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/  CARAC. ESPECIAL: BRUTO/</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>4765856</t>
+          <t>4769540</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -3400,21 +3444,22 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 120/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/  CARAC. ESPECIAL: BRUTO/</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S43/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4769540</t>
+          <t>4804106</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -3426,21 +3471,22 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>SAE 1020</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S43/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
+          <t>BASE P/ BOMBA NM038BY-S/L/P(WP)       ESPECIAL ALTURA 69mm MATERIAL: SAE 1020</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>4804106</t>
+          <t>4920158</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -3452,21 +3498,22 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>GG-25</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>BASE P/ BOMBA NM038BY-S/L/P(WP)       ESPECIAL ALTURA 69mm MATERIAL: SAE 1020</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
+          <t>CORPO DA BOMBA LB07-40 NORMA ANSI B-16.1 DN 2" 250LBS TIPO FF  GG-25</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>4920158</t>
+          <t>4953548</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -3478,21 +3525,22 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>NEMOLAST S61H</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA LB07-40 NORMA ANSI B-16.1 DN 2" 250LBS TIPO FF  GG-25</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
+          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 20/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>4953548</t>
+          <t>4959050</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -3504,21 +3552,22 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>ESTATOR  SÉRIE: 2N/TAMANHO: 20/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
+          <t>FLANGE MANCAL NEL50A  304 POS 015</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4959050</t>
+          <t>4978060</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -3530,21 +3579,22 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>FLANGE MANCAL NEL50A  304 POS 015</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
+          <t>ANEL PARA APERTO NESP 60 A MATERIAL: AISI 304</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4978060</t>
+          <t>90005392</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -3556,21 +3606,22 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>1.4201</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>ANEL PARA APERTO NESP 60 A MATERIAL: AISI 304</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
+          <t>BIELA P/ BOMBA SERA R 411.1-1100E D=25; L=149,5; MATERIAL  1.4201/ST   CÓDIGO: 90005392</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>90005392</t>
+          <t>NDB4021000</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -3582,21 +3633,22 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>PERBUNAN</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>BIELA P/ BOMBA SERA R 411.1-1100E D=25; L=149,5; MATERIAL  1.4201/ST   CÓDIGO: 90005392</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+          <t>ANEL DE VEDACAO  TC 1/2" CONFORME ISO2852 TIPO A MATERIAL PERBUNAN</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NDB4021000</t>
+          <t>NDB4028803</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -3608,21 +3660,22 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>PTFE</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>ANEL DE VEDACAO  TC 1/2" CONFORME ISO2852 TIPO A MATERIAL PERBUNAN</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
+          <t>COLAR TRASEIRO EXTERNO PTFE P/ MDM-1516 CÓD. MDM0613</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NDB4028803</t>
+          <t>NDB4063786</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -3634,21 +3687,22 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>A2-70 (304)</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>COLAR TRASEIRO EXTERNO PTFE P/ MDM-1516 CÓD. MDM0613</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
+          <t>PARAFUSO  TIPO: SEXT./BITOLA: M24 x  70,00mm/MATERIAL: A2-70 (304)/           NORMA: ISO 4014/</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NDB4063786</t>
+          <t>NDB4323274</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -3660,21 +3714,22 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>CFE. ASTM A 105.</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>PARAFUSO  TIPO: SEXT./BITOLA: M24 x  70,00mm/MATERIAL: A2-70 (304)/           NORMA: ISO 4014/</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 11 (WN); FACE B1; DN 25; PN 40; ESPESSURA DA PAREDE DO PESCOÇO S= 2,6 MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE. FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NDB4323274</t>
+          <t>NDB4342303</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -3686,21 +3741,22 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>CFE. ASTM A 105.</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>FLANGE CFE. DIN EN 1092-1 TIPO 11 (WN); FACE B1; DN 25; PN 40; ESPESSURA DA PAREDE DO PESCOÇO S= 2,6 MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE. FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 63; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NDB4342303</t>
+          <t>NDB4344626</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -3712,21 +3768,22 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>CFE. ASTM A 105.</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 63; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
+          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 40; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NDB4344626</t>
+          <t>NDB4650104</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -3738,21 +3795,22 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>SAE 1020</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 40; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
+          <t>ALÇA PARA DESLOCAMENTO P/ BOMBA TORNADO XB-4; MATERIAL SAE 1020 OBS.: FORNECER BASE COM USINAGEM, FURAÇÃO E SOLDA COMPLETA.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>NDB4650104</t>
+          <t>NDB4650173</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -3764,21 +3822,22 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>ALÇA PARA DESLOCAMENTO P/ BOMBA TORNADO XB-4; MATERIAL SAE 1020 OBS.: FORNECER BASE COM USINAGEM, FURAÇÃO E SOLDA COMPLETA.</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
+          <t>ROTOR  TIPO DE CABEÇA: B/TAMANHO: NX549/NM076/ESTÁGIOS: 02/GEOMETRIA: S/      CLASSE PRESSÃO: 12/MATERIAL: AISI 316/TEMPERATURA: UM20/ESTRUTURA: MACIÇO/    CARAC. ESPECIAL: ESPECIAL PARA LÂMINA (EIXO SOLDADO)/</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NDB4650173</t>
+          <t>NDB4650512</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -3790,21 +3849,22 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>SAE 1020 P</t>
+        </is>
+      </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>ROTOR  TIPO DE CABEÇA: B/TAMANHO: NX549/NM076/ESTÁGIOS: 02/GEOMETRIA: S/      CLASSE PRESSÃO: 12/MATERIAL: AISI 316/TEMPERATURA: UM20/ESTRUTURA: MACIÇO/    CARAC. ESPECIAL: ESPECIAL PARA LÂMINA (EIXO SOLDADO)/</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
+          <t>MATERIAL: SAE 1020 PINTURA EXTERNA: COR VERDE EMBLEMA 2,5 G 3/4 PINTURA INTERNA: COR BRANCA</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NDB4650512</t>
+          <t>NDB4650543</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -3816,21 +3876,22 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>DIN EN 1563 EN GJS 500 7</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>MATERIAL: SAE 1020 PINTURA EXTERNA: COR VERDE EMBLEMA 2,5 G 3/4 PINTURA INTERNA: COR BRANCA</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
+          <t>CARTUCHO PARA BOMBA DE FUSOS ESPECIAL MODELO: 3NS-/80-7- MATERIAL: FERRO FUNDIDO DIN EN 1563 EN GJS 500 7 (GGG-50)  **ESPECIAL = POS.15 DO ANEL-O DESLOCADO**  **MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.**</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NDB4650543</t>
+          <t>NDB4760669</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -3842,21 +3903,22 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>NEMOLAST S41</t>
+        </is>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS ESPECIAL MODELO: 3NS-/80-7- MATERIAL: FERRO FUNDIDO DIN EN 1563 EN GJS 500 7 (GGG-50)  **ESPECIAL = POS.15 DO ANEL-O DESLOCADO**  **MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.**</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>NDB4760669</t>
+          <t>NDB4761259</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -3868,21 +3930,22 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>NEMOLAST S45</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 03/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>NDB4761259</t>
+          <t>NDB4761365</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -3894,21 +3957,22 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>NEMOLAST S45</t>
+        </is>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 03/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 01/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NDB4761365</t>
+          <t>NDB4907943</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -3920,21 +3984,22 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 01/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: J/SÉRIE: NES/TAMANHO: 60A/MATERIAL: AISI 304/          TIPO DA ROSCA: ROSCA S/ FIM/</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NDB4907943</t>
+          <t>NDB4909488</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -3946,21 +4011,22 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: J/SÉRIE: NES/TAMANHO: 60A/MATERIAL: AISI 304/          TIPO DA ROSCA: ROSCA S/ FIM/</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: B-SM/SÉRIE: NBS/TAMANHO: 40A/MATERIAL: AISI 316/       VEDAÇÃO SM: VED SM/TIPO DA ROSCA: ROSCA S/ FIM/</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NDB4909488</t>
+          <t>NDB4909809</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -3972,21 +4038,22 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B-SM/SÉRIE: NBS/TAMANHO: 40A/MATERIAL: AISI 316/       VEDAÇÃO SM: VED SM/TIPO DA ROSCA: ROSCA S/ FIM/</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM105/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 04/ MATERIAL: AISI 304/</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NDB4909809</t>
+          <t>NDB4912285</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -3998,21 +4065,22 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>AISI 304.</t>
+        </is>
+      </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM105/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 04/ MATERIAL: AISI 304/</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
+          <t>CORPO DA BOMBA NES40A  MATERIAL AISI 304. COM CAMISA DE AQUECIMENTO. POLIDO INTERNAMENTE.</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>NDB4912285</t>
+          <t>NDB4912668</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -4024,21 +4092,22 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA NES40A  MATERIAL AISI 304. COM CAMISA DE AQUECIMENTO. POLIDO INTERNAMENTE.</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
+          <t>GARGANTA  NE 100      MATERIAL  AISI 316</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>NDB4912668</t>
+          <t>NDB4913019</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -4050,21 +4119,22 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>AISI 304 P</t>
+        </is>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>GARGANTA  NE 100      MATERIAL  AISI 316</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
+          <t>CORPO DA BOMBA NEC 60A    ESPECIAL BOCAL DE SUCÇÃO 4"SMS TANGENCIAL C/ BOCAL ADICIONAL P/ LIMPEZA CIP 2"SMS TANGENCIAL MATERIAL AISI 304 POLIDO INT/EXT.</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>NDB4913019</t>
+          <t>NDB4913022</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -4076,21 +4146,22 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>AISI 304.</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA NEC 60A    ESPECIAL BOCAL DE SUCÇÃO 4"SMS TANGENCIAL C/ BOCAL ADICIONAL P/ LIMPEZA CIP 2"SMS TANGENCIAL MATERIAL AISI 304 POLIDO INT/EXT.</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
+          <t>GARGANTA NEC 60A ESPECIAL P/CONEXÃO SANITÁRIA 4" TANGENCIAL MATERIAL: AISI 304.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NDB4913022</t>
+          <t>NDB4915156</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -4102,21 +4173,22 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>GARGANTA NEC 60A ESPECIAL P/CONEXÃO SANITÁRIA 4" TANGENCIAL MATERIAL: AISI 304.</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM053/EXECUÇÃO BOMBA: O/ESTÁGIOS: 04/       GEOMETRIA: S/CLASSE PRESSÃO: 24/MATERIAL: AISI 304/                           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: ESP./DIST. ARTICUL.: GA=1100mm/       CARAC. ESPECIAL: COM ROSCA EM TODA EXTENSÃO DO FUNIL,PARA CORPO DA BOMBA COM FUNIL 602 X 224/</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NDB4915156</t>
+          <t>NDB4915826</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4128,21 +4200,22 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>AISI 304 C</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM053/EXECUÇÃO BOMBA: O/ESTÁGIOS: 04/       GEOMETRIA: S/CLASSE PRESSÃO: 24/MATERIAL: AISI 304/                           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: ESP./DIST. ARTICUL.: GA=1100mm/       CARAC. ESPECIAL: COM ROSCA EM TODA EXTENSÃO DO FUNIL,PARA CORPO DA BOMBA COM FUNIL 602 X 224/</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM031-H-12- MATERIAL  AISI 304 CONEXÃO SANITÁRIA 2.1/2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>NDB4915826</t>
+          <t>NDB4916501</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4154,21 +4227,22 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>AISI 316 P</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM031-H-12- MATERIAL  AISI 304 CONEXÃO SANITÁRIA 2.1/2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM038-12   C/ CONEXÃO SANITÁRIA 3"SMS   MATERIAL:  AISI 316 POLIDO INTERNAMENTE. C/ CAMISA DE AQUECIMENTO.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>NDB4916501</t>
+          <t>NDB4916711</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -4180,21 +4254,22 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM038-12   C/ CONEXÃO SANITÁRIA 3"SMS   MATERIAL:  AISI 316 POLIDO INTERNAMENTE. C/ CAMISA DE AQUECIMENTO.</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM045-F-12 MATERIAL  AISI 316 BOCA RETANGULAR 750 X 220 ACABAMENTO: POLIDO INTERNO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>NDB4916711</t>
+          <t>NDB4916906</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -4206,21 +4281,22 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>AISI 316L</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM045-F-12 MATERIAL  AISI 316 BOCA RETANGULAR 750 X 220 ACABAMENTO: POLIDO INTERNO</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 14/ PLATAFORMA P: (P)/MATERIAL: AISI 316L/ACABAMENTO: ESP/                        CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>NDB4916906</t>
+          <t>NDB4918768</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -4232,21 +4308,22 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 14/ PLATAFORMA P: (P)/MATERIAL: AISI 316L/ACABAMENTO: ESP/                        CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM031/EXECUÇÃO BOMBA: H/ESTÁGIOS: 02/       GEOMETRIA: S/CLASSE PRESSÃO: 12/PLATAFORMA: (P)/MATERIAL: AISI 304/           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: POL./                                 TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NDB4918768</t>
+          <t>NDB4919675</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -4258,21 +4335,22 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM031/EXECUÇÃO BOMBA: H/ESTÁGIOS: 02/       GEOMETRIA: S/CLASSE PRESSÃO: 12/PLATAFORMA: (P)/MATERIAL: AISI 304/           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: POL./                                 TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM076-14             01 DRENO COM CAMISA DE AQUECIMENTO MATERIAL  AISI 304 FLANGE CFE ANSI B16.5 150PSI 6" FF</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>NDB4919675</t>
+          <t>NDB4920476</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -4284,21 +4362,22 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>AISI 316 C</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM076-14             01 DRENO COM CAMISA DE AQUECIMENTO MATERIAL  AISI 304 FLANGE CFE ANSI B16.5 150PSI 6" FF</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM021-12 MATERIAL  AISI 316 CONEXAO  ROSCA NPT 1.1/4" (+01 DRENO) BOCAL DE SUCÇÃO TANGENCIAL À DIREITA (VISTA DO ACIONAMENTO)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NDB4920476</t>
+          <t>NDB4920600</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4310,21 +4389,22 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>AISI 316L</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM021-12 MATERIAL  AISI 316 CONEXAO  ROSCA NPT 1.1/4" (+01 DRENO) BOCAL DE SUCÇÃO TANGENCIAL À DIREITA (VISTA DO ACIONAMENTO)</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM031/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 48/ MATERIAL: AISI 316L/</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>NDB4920600</t>
+          <t>NDB4921649</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -4336,21 +4416,22 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>AISI 420</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM031/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 48/ MATERIAL: AISI 316L/</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM038/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 420/ACABAMENTO: POLIDO/                      TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NDB4921649</t>
+          <t>NDB4923986</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -4362,21 +4443,22 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM038/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 420/ACABAMENTO: POLIDO/                      TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM021-O-12 MATERIAL  AISI 316 BOCA RETANGULAR 104 X 204 STANDARD: COM 01 DRENO  (EXECUÇÃO C/ ROSCA SEM FIM EM TODA EXTENSÃO DO FUNIL).</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NDB4923986</t>
+          <t>NDB4929016</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -4388,21 +4470,22 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>VI-65/Alu</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM021-O-12 MATERIAL  AISI 316 BOCA RETANGULAR 104 X 204 STANDARD: COM 01 DRENO  (EXECUÇÃO C/ ROSCA SEM FIM EM TODA EXTENSÃO DO FUNIL).</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
+          <t>ESTATOR  NM093--02S  C/02CHANFROS(ESPECIAL) MATERIAL  NEMOLAST G91 (VI-65/Alu)</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NDB4929016</t>
+          <t>NDB4929515</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -4414,21 +4497,22 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>SAE 1020.</t>
+        </is>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>ESTATOR  NM093--02S  C/02CHANFROS(ESPECIAL) MATERIAL  NEMOLAST G91 (VI-65/Alu)</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM105-T---12        MATERIAL  SAE 1020. FLANGE 8"ANSI B16.5 / 150PSI / FF. C/ PLACA DE SUSTENTAÇÃO RETANGULAR (1200X800). PROFUNDIDADE DE IMERSÃO: 2800mm. DIMENSÕES: A=3368mm; B=3168mm; L=2084mm;</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NDB4929515</t>
+          <t>NDB4934567</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -4440,21 +4524,22 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>FERRO FUNDIDO GG-30</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM105-T---12        MATERIAL  SAE 1020. FLANGE 8"ANSI B16.5 / 150PSI / FF. C/ PLACA DE SUSTENTAÇÃO RETANGULAR (1200X800). PROFUNDIDADE DE IMERSÃO: 2800mm. DIMENSÕES: A=3368mm; B=3168mm; L=2084mm;</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
+          <t>CORPO DE DESGASTE PARA BOMBA DE FUSOS MODELO PARA CORPO FUNDIDO: 3NS-/40H5- MATERIAL: FERRO FUNDIDO GG-30 - BRUNIMENTO NO ALOJAMENTO DOS FUSOS MOVIDOS; - MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>NDB4934567</t>
+          <t>NDB4941261</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -4466,21 +4551,22 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>vesconite hilube</t>
+        </is>
+      </c>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
-          <t>CORPO DE DESGASTE PARA BOMBA DE FUSOS MODELO PARA CORPO FUNDIDO: 3NS-/40H5- MATERIAL: FERRO FUNDIDO GG-30 - BRUNIMENTO NO ALOJAMENTO DOS FUSOS MOVIDOS; - MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
+          <t>BU MANCAL 2NS -/16-4-  MATERIAL: VESCONITE HILUBE</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>NDB4941261</t>
+          <t>NDB4941502</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -4492,21 +4578,22 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>FERRO FUNDIDO</t>
+        </is>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
-          <t>BU MANCAL 2NS -/16-4-  MATERIAL: VESCONITE HILUBE</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NDB4941502</t>
+          <t>NDB4942821</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -4518,21 +4605,22 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>AÇO MOLA HRC-46</t>
+        </is>
+      </c>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
+          <t>PLACA DE ARRASTE PCP HASTE 1.1/2" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NDB4942821</t>
+          <t>NDB4942823</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -4544,21 +4632,22 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>AÇO MOLA HRC-46</t>
+        </is>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>PLACA DE ARRASTE PCP HASTE 1.1/2" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
+          <t>PLACA DE ARRASTE PCP HASTE 1.1/4" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>NDB4942823</t>
+          <t>NDB4946783</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -4570,21 +4659,22 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>UNS S31803</t>
+        </is>
+      </c>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
-          <t>PLACA DE ARRASTE PCP HASTE 1.1/4" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM105/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 02/ MATERIAL: UNS S31803/</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>NDB4946783</t>
+          <t>NDB4949110</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -4596,21 +4686,22 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>DIN EN 1563 EN GJS 500 7</t>
+        </is>
+      </c>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM105/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 02/ MATERIAL: UNS S31803/</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+          <t>PÉ DA BOMBA DE FUSOS 3NS-/40H5- E 3NS-/40H6- MATERIAL FERRO FUNDIDO NODULAR DIN EN 1563 EN GJS 500 7 CONEXÕES PARA O AQUECIMENTO: 3/8"BSP PRESSÃO MÁXIMA NA CÂMARA DE AQUECIMENTO: 16,0 BAR (T_MÁX: 200°C) PRESSÃO TH MÁXIMO NA CÂMARA DE AQUECIMENTO: 24,0 BAR  MODELO NR NB4949103 (IDENT NDB4949103)</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>NDB4949110</t>
+          <t>NDB4949924</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -4622,21 +4713,22 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>DIN EN 1563 EN GJS 500 7</t>
+        </is>
+      </c>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
-          <t>PÉ DA BOMBA DE FUSOS 3NS-/40H5- E 3NS-/40H6- MATERIAL FERRO FUNDIDO NODULAR DIN EN 1563 EN GJS 500 7 CONEXÕES PARA O AQUECIMENTO: 3/8"BSP PRESSÃO MÁXIMA NA CÂMARA DE AQUECIMENTO: 16,0 BAR (T_MÁX: 200°C) PRESSÃO TH MÁXIMO NA CÂMARA DE AQUECIMENTO: 24,0 BAR  MODELO NR NB4949103 (IDENT NDB4949103)</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+          <t>BOCAL DE SUCÇÃO  TAMANHO: 3NS-/-L5-/NORMA: DIN EN 1563 EN GJS 500 7/          EXECUÇÃO: BOCAL ORIENTÁVEL EM TODOS OS QUADRANTES/                            MATERIAL: FERRO FUNDIDO NODULAR/MODELO: NB 4949924/                           CERTIFICADO: COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS ESPECÍFICAS PARA O ITEM ADQUIRIDO, NORMA DE FABRICAÇÃO, NÚMERO DA CORRIDA E LOTE/PESO/PÇ (KG): 5,10/</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NDB4949924</t>
+          <t>NDB4955080</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -4648,21 +4740,22 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>NBR C</t>
+        </is>
+      </c>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
-          <t>BOCAL DE SUCÇÃO  TAMANHO: 3NS-/-L5-/NORMA: DIN EN 1563 EN GJS 500 7/          EXECUÇÃO: BOCAL ORIENTÁVEL EM TODOS OS QUADRANTES/                            MATERIAL: FERRO FUNDIDO NODULAR/MODELO: NB 4949924/                           CERTIFICADO: COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS ESPECÍFICAS PARA O ITEM ADQUIRIDO, NORMA DE FABRICAÇÃO, NÚMERO DA CORRIDA E LOTE/PESO/PÇ (KG): 5,10/</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+          <t>ESTATOR 2N 60 SBE (NBR COM 465 ACN) COM FERRAMENTA BB DIAM MENOR 59,6-0,70MM TUBO EVEN WALL</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NDB4955080</t>
+          <t>NDB4960343</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -4674,21 +4767,22 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>AISI 316</t>
+        </is>
+      </c>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>ESTATOR 2N 60 SBE (NBR COM 465 ACN) COM FERRAMENTA BB DIAM MENOR 59,6-0,70MM TUBO EVEN WALL</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM038-O-12        ESPECIAL MATERIAL  AISI 316 BOCA RETANGULAR 154 X 254mm ACABAMENTO: POLIDO INTERNO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NDB4960343</t>
+          <t>NDB4963984</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -4700,21 +4794,22 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>SAE 1020</t>
+        </is>
+      </c>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM038-O-12        ESPECIAL MATERIAL  AISI 316 BOCA RETANGULAR 154 X 254mm ACABAMENTO: POLIDO INTERNO</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM090-P-18  G=1"NPT MATERIAL  SAE 1020 BOCA RETANGULAR 750 X 720MM</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NDB4963984</t>
+          <t>NDB4963990</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -4726,21 +4821,22 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>AISI 304 C</t>
+        </is>
+      </c>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM090-P-18  G=1"NPT MATERIAL  SAE 1020 BOCA RETANGULAR 750 X 720MM</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM038-H-12-              (CORPO C/ REPUXE) MATERIAL AISI 304 CONEXÃO SANITÁRIA 2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NDB4963990</t>
+          <t>NDB4969644</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -4752,21 +4848,22 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM038-H-12-              (CORPO C/ REPUXE) MATERIAL AISI 304 CONEXÃO SANITÁRIA 2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM045/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 304/ALTURA IMERSÃO: 2200mm/                 MEDIDA GA: GA=1692mm/MEDIDA B: B=1724mm/</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NDB4969644</t>
+          <t>NDB4970419</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -4778,21 +4875,22 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM045/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 304/ALTURA IMERSÃO: 2200mm/                 MEDIDA GA: GA=1692mm/MEDIDA B: B=1724mm/</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM031/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ MATERIAL: AISI 304/ACABAMENTO: ESP/                                           CARAC. ESPECIAL: APENAS PARA BOMBAS EM CORTE (EXPOSIÇÕES)/</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NDB4970419</t>
+          <t>NDB4972116</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -4804,21 +4902,22 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM031/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ MATERIAL: AISI 304/ACABAMENTO: ESP/                                           CARAC. ESPECIAL: APENAS PARA BOMBAS EM CORTE (EXPOSIÇÕES)/</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr"/>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP/                         CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>NDB4972116</t>
+          <t>NDB4972950</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -4830,21 +4929,22 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>AISI 420</t>
+        </is>
+      </c>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP/                         CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: K/TAMANHO: NM105/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 420/ALTURA IMERSÃO: 2891mm/                 MEDIDA GA: GA=1841mm/MEDIDA B: B=1985mm/</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NDB4972950</t>
+          <t>NDB4976156</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -4856,21 +4956,22 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>AISI 316 C</t>
+        </is>
+      </c>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: K/TAMANHO: NM105/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 420/ALTURA IMERSÃO: 2891mm/                 MEDIDA GA: GA=1841mm/MEDIDA B: B=1985mm/</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr"/>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
+          <t>CORPO DA BOMBA  NM063-14 MATERIAL AISI 316 CONEXÃO SANITÁRIA 3"TC POLIDO INTERNO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NDB4976156</t>
+          <t>NDB4976756</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -4882,21 +4983,22 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>SAE 1020</t>
+        </is>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
-          <t>CORPO DA BOMBA  NM063-14 MATERIAL AISI 316 CONEXÃO SANITÁRIA 3"TC POLIDO INTERNO</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr"/>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: J/TAMANHO: NM076/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 07/ PLATAFORMA P: (P)/MATERIAL: SAE 1020/ACABAMENTO: ESP/                         CARAC. ESPECIAL: MEDIDA A = 405mm/</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>NDB4976756</t>
+          <t>NDB4987821</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -4908,21 +5010,22 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>ASTM A-36</t>
+        </is>
+      </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: J/TAMANHO: NM076/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 07/ PLATAFORMA P: (P)/MATERIAL: SAE 1020/ACABAMENTO: ESP/                         CARAC. ESPECIAL: MEDIDA A = 405mm/</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr"/>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
+          <t>FLANGE DO CORPO  MODELO: 4NS-/-H1E/MATERIAL: ASTM A-36/MEDIDA B: B=280,00/    MEDIDA C: C=330,00/MEDIDA A: A=35,00/MEDIDA D: D=190,00/MEDIDA E: E=230,00/   MEDIDA F: F=10,00/MEDIDA G: G=41,28/MEDIDA H: H=140,00/MEDIDA J: J=40,00/     MEDIDA K: K=270,50/MEDIDA L: L=181,00/MEDIDA M: M=202,00/MEDIDA N: N=140,00/  MEDIDA R: R=350,00mm/MEDIDA R1: R1=180,00/</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NDB4987821</t>
+          <t>NDB4987996</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -4934,21 +5037,22 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>ASTM A-36</t>
+        </is>
+      </c>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
-          <t>FLANGE DO CORPO  MODELO: 4NS-/-H1E/MATERIAL: ASTM A-36/MEDIDA B: B=280,00/    MEDIDA C: C=330,00/MEDIDA A: A=35,00/MEDIDA D: D=190,00/MEDIDA E: E=230,00/   MEDIDA F: F=10,00/MEDIDA G: G=41,28/MEDIDA H: H=140,00/MEDIDA J: J=40,00/     MEDIDA K: K=270,50/MEDIDA L: L=181,00/MEDIDA M: M=202,00/MEDIDA N: N=140,00/  MEDIDA R: R=350,00mm/MEDIDA R1: R1=180,00/</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
+          <t>FLANGE DO CORPO  MODELO: 4NS-/-H4E/MATERIAL: ASTM A-36/MEDIDA B: B=430,00/    MEDIDA C: C=520,00/MEDIDA A: A=65,00/MEDIDA D: D=260,00/MEDIDA E: E=380,00/   MEDIDA F: F=25,00/MEDIDA G: G=50,80/MEDIDA H: H=230,00/MEDIDA J: J=50,00/     MEDIDA K: K=269,00/MEDIDA L: L=313,00/MEDIDA M: M=344,00/MEDIDA N: N=230,00/  MEDIDA R: R=590,00mm/MEDIDA R1: R1=430,00/</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NDB4987996</t>
+          <t>NDB4991623</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -4960,21 +5064,22 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>SCREW</t>
+        </is>
+      </c>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>FLANGE DO CORPO  MODELO: 4NS-/-H4E/MATERIAL: ASTM A-36/MEDIDA B: B=430,00/    MEDIDA C: C=520,00/MEDIDA A: A=65,00/MEDIDA D: D=260,00/MEDIDA E: E=380,00/   MEDIDA F: F=25,00/MEDIDA G: G=50,80/MEDIDA H: H=230,00/MEDIDA J: J=50,00/     MEDIDA K: K=269,00/MEDIDA L: L=313,00/MEDIDA M: M=344,00/MEDIDA N: N=230,00/  MEDIDA R: R=590,00mm/MEDIDA R1: R1=430,00/</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr"/>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
+          <t>BOMBA DE FUSOS NETZSCH MOD. 3NS 07/25M2E  DIÂMETRO EXTERNO/PASSO: Ø26/38 3 = 3 FUSOS NS = NETZSCH SCREW 07 = VAZÃO (0,7m³/h @ 1000 RPM @ 0 BAR) /25 = PRESSÃO DE DESCARGA MÁX. (bar) M = EXECUÇÃO MINI 2 = MANCAL NR. 2 E = ROLAMENTO EXTERNO BLINDADO COM VÁLVULA DE ALÍVIO INTEGRADA - 10 A 25 BAR ABERTURA VÁLVULA REGULADA 20 BAR FLANGES DE CONEXÃO 1.1/2" SAE J518C 3000 PSI</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>NDB4991623</t>
+          <t>NDB4992299</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -4986,21 +5091,22 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>AISI 304</t>
+        </is>
+      </c>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
-          <t>BOMBA DE FUSOS NETZSCH MOD. 3NS 07/25M2E  DIÂMETRO EXTERNO/PASSO: Ø26/38 3 = 3 FUSOS NS = NETZSCH SCREW 07 = VAZÃO (0,7m³/h @ 1000 RPM @ 0 BAR) /25 = PRESSÃO DE DESCARGA MÁX. (bar) M = EXECUÇÃO MINI 2 = MANCAL NR. 2 E = ROLAMENTO EXTERNO BLINDADO COM VÁLVULA DE ALÍVIO INTEGRADA - 10 A 25 BAR ABERTURA VÁLVULA REGULADA 20 BAR FLANGES DE CONEXÃO 1.1/2" SAE J518C 3000 PSI</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
+          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM038/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP,POLIDO/                  TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/                                CARAC. ESPECIAL: SEM FUROS ADICIONAIS/</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NDB4992299</t>
+          <t>NDB4992323</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -5012,21 +5118,22 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>FERRO FUNDIDO</t>
+        </is>
+      </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM038/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP,POLIDO/                  TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/                                CARAC. ESPECIAL: SEM FUROS ADICIONAIS/</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr"/>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/80-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7 SEM FURO PARA RETORNO DE ÓLEO.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>NDB4992323</t>
+          <t>NDB4994183</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -5038,21 +5145,22 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>FERRO FUNDIDO GGG-50</t>
+        </is>
+      </c>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/80-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7 SEM FURO PARA RETORNO DE ÓLEO.</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr"/>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
+          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-8- (MODELO ANTIGO - COMPRIMENTO MENOR) EXECUÇÃO: HOUSING; MATERIAL: FERRO FUNDIDO GGG-50;  **MEDIR RUGOSIDADE (RMAX=4) DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.*</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NDB4994183</t>
+          <t>5063255</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -5066,19 +5174,12 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-8- (MODELO ANTIGO - COMPRIMENTO MENOR) EXECUÇÃO: HOUSING; MATERIAL: FERRO FUNDIDO GGG-50;  **MEDIR RUGOSIDADE (RMAX=4) DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.*</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5063255</t>
+          <t>5063309</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -5093,14 +5194,11 @@
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>5063309</t>
+          <t>5161252</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -5115,31 +5213,6 @@
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>5161252</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MSTAE (X-Plant Mat.Status)</t>
+          <t>MSTAE (X-Plant Mat.Status)_x000d_</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MAKTX (PT)</t>
+          <t>MAKTX (PT)_x000d_</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -573,21 +573,26 @@
           <t>4076411</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>SPECIAL</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=4,22/ROTAÇÃO: N=416RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 2,20KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: FAF37-DRN90LP4/V/TF/                                CARAC. ESPECIAL: COM TERMISTOR TIPO PTC - TF,VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
@@ -600,21 +605,26 @@
           <t>4076541</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS 87-AMS160/          REDUÇÃO: I=5,30/FORMA CONSTRUT: M1/CÓDIGO SEW: RF87 AMS160/                   PARA MOTOR: CARCAÇA 160/DESENHO SEW: NÃO INFORMADO/</t>
@@ -627,21 +637,26 @@
           <t>4076994</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>MOTOR SEW MODELO: DRN80MP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/      CARCAÇA: 80M/NRº DE FASES: 3/POTÊNCIA: 1,10KW/FREQUENCIA: 60HZ/               EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF165/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
@@ -654,21 +669,26 @@
           <t>4076998</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>MOTOR SEW MODELO: DRN132SP4/FF/FORMA CONSTR: V1/POS. CAIXA LIG: R (0°/X)/     CARCAÇA: 132S/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IPW-55/NORMA: IEC/FLANGE: FF265/            TENSÃO: 230/460V/ISOLAMENTO: F/REGIME SERVIÇO: S1/                            CARAC. ESPECIAL: FATOR DE SERVIÇO 1,25,ENSAIO DE ROTINA SEM INSPETOR - TODO LOTE,RESISTÊNCIA DE AQUECIMENTO MONFÁSICO 200 A 240V,PLACA DE BORNES,TERMINAL DE ATERRAMENTO NA CARCAÇA/</t>
@@ -681,21 +701,26 @@
           <t>4077213</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Grau D</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 04_0.01/MODELO: WAF10 DR2S56MP4/        REDUÇÃO: I=39,00/ROTAÇÃO: N=41RPM/                                            FORMA CONSTRUT.: M4A-L (CAIXA DE LIGAÇÃO 180°/X)/POTÊNCIA: 0,15KW/            FREQUÊNCIA: 60HZ/EFICIENCIA: STANDARD (IR1)/TENSÃO: 220/380V/                 GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA ABNT/   FLANGE: EF W003/06/PONTA DE EIXO: Ø16mm/                                      CARAC. ESPECIAL: COM COBERTURA DE PROTEÇÃO DO EIXO,EIXO VEIO OCO/</t>
@@ -708,21 +733,26 @@
           <t>4077235</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM045B/CÓDIGO NETZSCH: NS57/              REDUÇÃO: I=17,57/ROTAÇÃO: N=100RPM/FORMA CONSTR: M2A/POTÊNCIA MOTOR: 3,70KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF57 DRN90LP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
@@ -735,21 +765,26 @@
           <t>4077526</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=7,28/ROTAÇÃO: N=242RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 5,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN112MP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
@@ -762,21 +797,26 @@
           <t>4077987</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Grau D</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_5.1/MODELO: RF77 DRN100L4/           REDUÇÃO: I=36,83/ROTAÇÃO: N=40RPM/POTÊNCIA: 3,00KW/FREQUÊNCIA: 50HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380V/                   GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVE/ISOLAMENTO: F/NORMA IEC/    FLANGE: Ø250mm/PONTA DE EIXO: 35X70MM/</t>
@@ -789,21 +829,26 @@
           <t>4078021</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>PRINCIPAL</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>MOTOR ELÉTRICO TRIFÁSICO PMM (IMÃS PERMANENTES)W22,IE4; FORMA CONSTRUTIVA V1T; TORQUE CONSTANTE 1196NM (882 ft.lb); 16 POLOS; ROTAÇÃO NOMINAL 375RPM; POTÊNCIA 47KW (63,5HP); TEFC; IP-55; FREQUÊNCIA 4 ATÉ 50 HZ; TENSÃO 380V C/ 6 TERMINAIS; CORRENTE 82A; ISOLAMENTO CLASSE F; FATOR DE SERVIÇO: 1,00; CARCAÇA 315S/M; PLANO DE PINTURA 202P; COR 091A.3145; COM PLACA DE BORNES; FLANGE FF-600; COM FURO PASSANTE NO EIXO Ø60MM; COM PONTA DE EIXO NA PARTE SUPERIOR; SAÍDA DE CABOS DA CAIXA DE LIGAÇÃO PRINCIPAL VOLTADA PARA EIXO; COM CERTIFICAÇÃO ATEX/IECEX, ZONA 2, GRUPO IIC, T3; ESPECIAL PARA APLICAÇÃO EM CABEÇOTES DE ACIONAMENTOS PCP. PLAQUETA DO MOTOR COM VALOR DE TORQUE EXPRESSA EM FT.LB E POTÊNCIA EM HP. CONFORME FOLHA DE DADOS NR...., ITEM FORNECEDOR: 17464798.</t>
@@ -816,21 +861,26 @@
           <t>4323918</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -843,21 +893,26 @@
           <t>4324050</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
@@ -870,21 +925,26 @@
           <t>4324228</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 12"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -897,21 +957,26 @@
           <t>4324229</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -924,21 +989,26 @@
           <t>4324266</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -951,21 +1021,26 @@
           <t>4324273</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -978,21 +1053,26 @@
           <t>4324275</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 600#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1005,21 +1085,26 @@
           <t>4324292</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1032,21 +1117,26 @@
           <t>4324299</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1059,21 +1149,26 @@
           <t>4324300</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F304L/              FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1086,21 +1181,26 @@
           <t>4324322</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
@@ -1113,21 +1213,26 @@
           <t>4324462</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL/                                             CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
@@ -1140,21 +1245,26 @@
           <t>4324463</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM:,ESPANHA, PORTUGAL, TAIWAN, CHINA, LESTE EUROPEU, ÁFRICA, AMÉRICA CENTRAL E DO SUL, LAOS, C/</t>
@@ -1167,21 +1277,26 @@
           <t>4324476</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 300#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
@@ -1194,21 +1309,26 @@
           <t>4324478</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1"/NORMA: ASME B16.5/                 CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO NACE MR0175/ISO 15156/</t>
@@ -1221,21 +1341,26 @@
           <t>4324483</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 12"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,MATERIAL CONFORME NORMA NACE MR-0175 (REFERENCIADA NO CERTIFICADO),MATERIAIS COM CERTIFICADO DE ORIGEM DA EUROPA E/OU ESTADOS UNIDOS/</t>
@@ -1248,21 +1373,26 @@
           <t>4324742</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: DUPLEX UNS S31803/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
@@ -1275,21 +1405,26 @@
           <t>4324744</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: DUPLEX UNS S31803/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
@@ -1302,21 +1437,26 @@
           <t>4324774</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1329,21 +1469,26 @@
           <t>4324896</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
@@ -1356,21 +1501,26 @@
           <t>4324897</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3/4"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1383,21 +1533,26 @@
           <t>4324921</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1410,21 +1565,26 @@
           <t>4325017</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1.1/2"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A182 GR F316/               FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS,PROIBIDO OS SEGUINTES PAÍSES DE ORIGEM: CHINA E ESTADOS UNIDOS./</t>
@@ -1437,21 +1597,26 @@
           <t>4325105</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1464,21 +1629,26 @@
           <t>4325164</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1491,21 +1661,26 @@
           <t>4325308</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 5"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.,CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1518,21 +1693,26 @@
           <t>4325782</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>MOTOR SEW MODELO: DRN132M4/FE/FORMA CONSTR: B35/POS. CAIXA LIG: T (270°/X)/   CARCAÇA: 132M/NRº DE FASES: 3/POTÊNCIA: 7,50KW/FREQUENCIA: 60HZ/              EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/REFRIGERAÇÃO: TFVE/                 NÚMERO DE POLOS: 4/GRAU PROTEÇÃO: IP55/NORMA: ABNT/FLANGE: FF265/             TENSÃO: 220/380V COM 06 TERMINAIS/ISOLAMENTO: F/REGIME SERVIÇO: S1/           CARAC. ESPECIAL: ENSAIO DE TIPO SEM INSPETOR - TODO LOTE,MOTOR C/ 2 FITAS DE AQUECIMENTO AC 230V, LADO A+B/</t>
@@ -1545,21 +1725,26 @@
           <t>4325797</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1/2"/NORMA: ASME B16.5/           CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: ITEM RASTREÁVEL,COM CLASSE DE PRESSÃO SINETADO NO FLANGE/    CERTIFICADOS: CERTIFICADO DE MATERIAIS CONFORME EN 10204-3./</t>
@@ -1572,21 +1757,26 @@
           <t>4348119</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 8"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/</t>
@@ -1599,21 +1789,26 @@
           <t>4348127</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 4"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
@@ -1626,21 +1821,26 @@
           <t>4348151</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 3"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 150#/FACE: FF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F304/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
@@ -1653,21 +1853,26 @@
           <t>4348218</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 14"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/</t>
@@ -1680,21 +1885,26 @@
           <t>4348281</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 6"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/                       CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
@@ -1707,21 +1917,26 @@
           <t>4348288</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1.1/2"/NORMA: ASME B16.5/         CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316L/FABRI. OU COMP.: COMPRADO/</t>
@@ -1734,21 +1949,26 @@
           <t>4348682</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/ACABAM. FACE: LISO/             MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/                                CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
@@ -1761,21 +1981,26 @@
           <t>4348970</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 14"/NORMA: ASME B16.5/                CLASSE PRESSÃO: 150#/SCHEDULE: SCH40/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/                    CERTIFICADOS: CERTIFICADO COM ANÁLISE QUÍMICA E PROPRIEDADES MECÂNICAS/</t>
@@ -1788,21 +2013,26 @@
           <t>4349150</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>ASTM A182</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 1"/NORMA: ASME B16.5/             CLASSE PRESSÃO: 300#/FACE: RF/ACABAM. FACE: MSS SP-6 STD-ESPIRAL/             MATERIAL: ASTM A182 GR F316/FABRI. OU COMP.: COMPRADO/                        CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
@@ -1815,21 +2045,26 @@
           <t>4349612</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
           <t>FLANGE TIPO: WN - WELDING NECK/TAMANHO: 1/2"/NORMA: ASME B16.5/               CLASSE PRESSÃO: 600#/SCHEDULE: SCH80/FACE: RF/                                ACABAM. FACE: MSS SP-6 STD-ESPIRAL/MATERIAL: ASTM A105/                       FABRI. OU COMP.: COMPRADO/                                                    CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
@@ -1842,21 +2077,21 @@
           <t>4360533</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>REDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS 27-AD2/             REDUÇÃO: I=9,41/FORMA CONSTRUT: M1/CÓDIGO SEW: RF27 AD2/</t>
@@ -1869,21 +2104,26 @@
           <t>4361881</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=10,49/ROTAÇÃO: N=167RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 2,20KW/  FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KAF37 DRN90LP4/V/                                   CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
@@ -1896,21 +2136,26 @@
           <t>4361882</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM031B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=8,91/ROTAÇÃO: N=197RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 1,50KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF37 DRN90SP4/V/                                    CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
@@ -1923,21 +2168,26 @@
           <t>4362878</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>ASTM A105</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>FLANGE TIPO: SOW - SLIP ON WELDING/TAMANHO: 10"/NORMA: ASME B16.5/            CLASSE PRESSÃO: 150#/FACE: FF/MATERIAL: ASTM A105/FABRI. OU COMP.: COMPRADO/  CARAC. ESPECIAL: COM CLASSE DE PRESSÃO SINETADO NO FLANGE/</t>
@@ -1950,21 +2200,21 @@
           <t>4364731</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>BRONZE</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>ACOPLADOR CAM-LOK CI BRONZE HPF ROSCA FEMEA NPT 64 4"" - B0008- 11810017 0064</t>
@@ -1977,21 +2227,26 @@
           <t>4368590</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM011B/CÓDIGO NETZSCH: NSF17/             REDUÇÃO: I=6,15/ROTAÇÃO: N=281RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 0,37KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: R17F DRN71M4/DESENHO SEW: 415994608-800/</t>
@@ -2004,21 +2259,26 @@
           <t>4369391</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>Grau D</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>MOTOREDUTOR SEW PERIPRO MODELO BOMBA: 10_0.1/MODELO: R27F DRN71MS4/V/         REDUÇÃO: I=74,11/ROTAÇÃO: N=23RPM/POTÊNCIA: 0,25KW/FREQUÊNCIA: 60HZ/          EFICIENCIA: ALTO RENDIMENTO PREMIUM (IR3)/TENSÃO: 220/380/440/760V/           GRAU DE PROTEÇÃO IP55/POLOS: 4/REFRIGERAÇÃO: TFVF/ISOLAMENTO: F/NORMA ABNT/   FLANGE: Ø120mm/PONTA DE EIXO: 18X50MM/                                        CARAC. ESPECIAL: VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
@@ -2031,21 +2291,26 @@
           <t>4369568</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>CI</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>EP</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM076B/CÓDIGO NETZSCH: NS77/              REDUÇÃO: I=10,84/ROTAÇÃO: N=325RPM/FORMA CONSTR: M1A/POTÊNCIA MOTOR: 11,00KW/ FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 2/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF77 DRN132MEP2/</t>
@@ -2058,21 +2323,26 @@
           <t>4369676</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM063B/CÓDIGO NETZSCH: NS67/              REDUÇÃO: I=5,20/ROTAÇÃO: N=341RPM/FORMA CONSTR: M4A/POTÊNCIA MOTOR: 9,20KW/   FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVE/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: KF67 DRN132MP4/                                     CARAC. ESPECIAL: ÓLEO SINTÉTICO,DUPLA VEDAÇÃO NO EIXO DE SAÍDA,EIXO DE SAÍDA: 40X80mm,TANQUE DE EXPANSÃO,RESPIRO ESPECIAL/</t>
@@ -2085,21 +2355,21 @@
           <t>4407432</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>AISI 304L FLANGE CFE</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>BOCA DE RECALQUE  NM105-14 MATERIAL AISI 304L FLANGE CFE ANSI B16.5 150PSI 6" FF.</t>
@@ -2112,21 +2382,26 @@
           <t>4407813</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>BASE MÓVEL PARA BOMBA NM031BH01L06-/02S12- MATERIAL: AISI 304; ACABAMENTO JATEADO; APTA PARA:  -MOTOREDUTOR NS 27; ESPECIAL: BASE COM 3 RODIZIOS; OBS.: FORNECER BASE SEM USINAGEM, COM FURAÇÃO E SOLDA COMPLETA.</t>
@@ -2139,21 +2414,26 @@
           <t>4630361</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>NEMOLAST S459</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 06/GEOMETRIA: S/BORRACHA: NEMOLAST S459/    MATERIAL TUBO: 1020/TERMOSTATO: STP3/MEDIDA Lst: 101,50mm/MEDIDA A: M8/       MEDIDA B: 10,30mm/MEDIDA t: 40,00mm/                                          CARAC. ESPECIAL: SOLDADO,NH - NÃO HIGIÊNICO (NÃO INDICADO PARA APLICAÇÕES HIGIÊNICAS)/</t>
@@ -2166,21 +2446,21 @@
           <t>4631271</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>TELA: TELA 1008</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: EP/               MATERIAL: 1020/MATERIAL TELA: TELA 1008/10/</t>
@@ -2193,21 +2473,21 @@
           <t>4632414</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>AISI 316    P</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>APERTA SELO MECANICO  NM053B-(P) MATERIAL  AISI 316    P/SELO M74-D C/ QUENCH G=1/4"NPT</t>
@@ -2220,21 +2500,21 @@
           <t>4634181</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>NEMOLAST S61M</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 12/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL TUBO: 1020/</t>
@@ -2247,21 +2527,21 @@
           <t>4634590</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>NEMOLAST S41</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 01/GEOMETRIA: P/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
@@ -2274,21 +2554,26 @@
           <t>4636617</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>FLANGE DIANTEIRA PRÉ-USINADO  MODELO: 3NS-/80H13-/MATERIAL: ASTM A-36/        MEDIDA A: 418,00mm/MEDIDA B: 310,00mm/MEDIDA C: 80,00mm/MEDIDA D: 371,00mm/   MEDIDA D1: D1=493,00/MEDIDA E: 367,00mm/MEDIDA F: 10,00mm/MEDIDA G: 50,00mm/  MEDIDA H: 520,00mm/                                                           MEDIDA X°: USINAR CFE DETALHE X, PARA ESPESSURA DO TUBO &gt;22mm/                MEDIDA Y°: Y°=30°/MEDIDA R: R=5,00/MEDIDA R1: R1=5,00/</t>
@@ -2301,21 +2586,26 @@
           <t>4637143</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>ANEL INTERMEDIÁRIO MODELO: 3NS-/80H2-/MATERIAL: ASTM A-36/                    MEDIDA A: A=120,00mm/MEDIDA B: B=85,00/MEDIDA C: C=15,00/MEDIDA D: D=5,00/    MEDIDA X°: X°=45°/MEDIDA E: E=5,00/MEDIDA Y°: Y°=45°/</t>
@@ -2328,21 +2618,26 @@
           <t>4651382</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>A-36</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>CORPO PCP SOLDADO PARA CABEÇOTE GH20-H  MATERIAL: A-36  *TESTES/CERTIFICADOS EXIGIDOS: *TESTE DE PARTÍCULA MAGNÉTICA E CERTIFICADOS 100% NOS OLHAIS DE IÇAMENTO</t>
@@ -2355,21 +2650,21 @@
           <t>4651383</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>A-36</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>CORPO PCP USINADO PARA CABEÇOTE GH20-H  MATERIAL: A-36</t>
@@ -2382,21 +2677,26 @@
           <t>4652153</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>NEMOLAST S61M</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM125/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S61M/    MATERIAL: 1020/                                                               CARAC. ESPECIAL: COM CHANFRO S NAS DUAS EXTREMIDADES DO ESTATOR/</t>
@@ -2409,21 +2709,21 @@
           <t>4652645</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106.</t>
@@ -2436,21 +2736,21 @@
           <t>4652646</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>GARGANTA DN10" - SCH40 MATERIAL: ASTM A106.</t>
@@ -2463,21 +2763,21 @@
           <t>4652784</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>GARGANTA DN4" - SCH40 MATERIAL: ASTM A106.</t>
@@ -2490,21 +2790,21 @@
           <t>4652838</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
           <t>GARGANTA DN8" - SCH40 MATERIAL: ASTM A106.</t>
@@ -2517,21 +2817,26 @@
           <t>4653149</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>AISI 316.</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM031-12. MATERIAL  AISI 316. FLANGE CFE ANSI B16.5 150PSI 2" RF. G= 3/4" NPT. ESPECIAL: ALTURA DA FACE DA FLANGE ATÉ A LINHA DE CENTRO DE 93MM.</t>
@@ -2544,21 +2849,21 @@
           <t>4653315</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
           <t>GARGANTA DN12" - SCH40 MATERIAL: ASTM A106.</t>
@@ -2571,21 +2876,26 @@
           <t>4653447</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>GARGANTA DN16" - SCH40 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
@@ -2598,21 +2908,26 @@
           <t>4653453</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
           <t>GARGANTA DN10" - SCH80 MATERIAL: ASTM A106. CARAC. ESPECIAL: ITEM RASTREÁVEL,FORNECER CERTIFICADO DE COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS CONFORME EN 10204-3.1.</t>
@@ -2625,21 +2940,21 @@
           <t>4653575</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>SAE 1045</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>ADAPTADOR HN5 MATERIAL SAE 1045</t>
@@ -2652,21 +2967,26 @@
           <t>4653856</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>ROTOR</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
           <t>DISPLAY/STAND COM ROTOR, PARA TRITURADOR N.MAC 50C (STAND PARA BOMBAS DE SHOW-ROOM E FEIRAS) COM PEDESTAL NO CHÃO + ROTOR + PLATAFORMA DE MADEIRA PARA O TRITURADOR  ACABAMENTO SUPERFICIAL: *BUCHA DO ROTOR/ROTOR/FLANGE DE SUSTENTAÇÃO DA PLATAFORMA - POLIDOS *DEMAIS COMPONENTES - PINTADOS: TINTA DE FUNDO - TINTA EPOXI TINTA DE ACABAMENTO - TINTA POLIÉSTER NA COR PRATA ANDINO</t>
@@ -2679,21 +2999,21 @@
           <t>4654187</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>AISI 304 P</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
           <t>GARGANTA DN 32 DIN 11851 MATERIAL: AISI 304 POLIDO INT / EXT.</t>
@@ -2706,21 +3026,26 @@
           <t>4655561</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>SAE 1020 C</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>MODELO: 2NS-/16H3- EXECUÇÃO: PÉ P MAX PROJ SUC: 3 BAR P MAX PROJ DESC: 10 BAR ESPECIAL: ESP SENTIDO FLUXO: ESQUERDA/DIREITA FLANGE SUCÇÃO: DN 2" - ASME B16.5 - #300 - RF FLANGE DESCARGA: DN 2" - ASME B16.5 - #300 - RF CON. MAN/VACUOM: 1/2" NPT DRENO SUCÇÃO: DN 1/2" - ASME B16.5 - #300 - RF DRENO DESCARGA: DN 1/2" - ASME B16.5 - #300 - RF C/ VÁLV. ALÍVIO: EXTERNA MAT CO BOMBA: SAE 1020 CAR ES CO BOMBA: CERTIFICADO DE CONFORMIDADE|CONFORME NORMA DIN EN 10204-3.1 (CERTIFICADOS DE MATÉRIA-PRIMA CONTENDO COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS)|COM MANUAL DE JUNTAS SOLDADAS|FORNECER DOCUMENTAÇÃO NO IDIOMA INGLÊS|INSPEÇÃO E RELATÓRIO DE LÍQUIDO PENETRANTE|INSPEÇÃO DE SOLDAGEM (IEIS/EPS/RQPS/RQS/RIS)|TODOS OS RELATÓRIOS E PROCEDIMENTOS DEVEM SER ASSINADOS POR INSPETORES QUALIFICADOS SNQC NIVEL II|ITEM RASTREÁVEL|SUPORTE PLAQUETA NÃO RASTREÁVEL|RELATÓRIO DE PARTÍCULA MAGNÉTICA ONDE APLICÁVEL|RELATÓRIO DE TESTE HIDROSTÁTICO|RELATÓRIO DE EVS (ENSAIO VISUAL DE SOLDA)|MATERIAL DO SUPORTE DA PLAQUETA: AISI 316L</t>
@@ -2733,21 +3058,26 @@
           <t>4655828</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM090/TIPO BOMBA: BH(P)/             MATERIAL: AISI 316/ACABAMENTO: POLIDO - NORMA WN0113/                         CARAC. ESPECIAL: ESPECIAL P/SELO HJ977GN,COM RESSALTO NO ENCAIXE DO SELO/</t>
@@ -2760,21 +3090,21 @@
           <t>4656108</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>SAE 1020  P</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
           <t>BATENTE DO EIXO DO EXTRATOR DE LÓBULOS DE BOMBAS TORNADO MODELO DE BOMBA: TORNADO T1 XB MATERIAL: SAE 1020  PARA NOVA EXECUÇÃO FACELIFT</t>
@@ -2787,21 +3117,21 @@
           <t>4656604</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>GARGANTA DN 1.1/2" - SCH80; MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
@@ -2814,21 +3144,21 @@
           <t>4656605</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>GARGANTA DN 1.1/2" - SCH80 MATERIAL: DUPLEX UNS S31803; FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
@@ -2841,21 +3171,21 @@
           <t>4658517</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>SAE 1020;</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
           <t>BOCA DE RECALQUE NM063-18; FLANGE DIN EN 1092 DN 100 PN40 FF; MATERIAL: SAE 1020; COM 1 CONEXÃO P/ MANÔMETRO 3/4" NPT.</t>
@@ -2868,21 +3198,26 @@
           <t>4659830</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>20MNCR5</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
           <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 18/SÉRIE DA BOMBA: 16/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 3/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO NITRETADO 20MNCR5/                                        SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        TÊMPERA: 850°C-860°C/REVENIMENTO: 540°C-560°C, DUREZA 25+4 HRC/               NITRETAÇÃO: 500°C, DUREZA &gt;= 650HV, CAMADA 300+100µm/SENTIDO HÉLICE: DIREITA/ CARAC ESP PROJ: FURO DE RETORNO PARA ACL MAGNÉTICO/</t>
@@ -2895,21 +3230,26 @@
           <t>4661506</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>TOOLOX 44</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
           <t>FUSO MOTOR TIPO: 3NS/MODELO DA BOMBA: 10/SÉRIE DA BOMBA: 80/                  FORMA CONSTR: C,H,L,S/TAMANHO MANCAL: 2/ROLAMENTOS I/                         MAT. JOGO FUSO: AÇO TOOLOX 44/                                                SENT. ROTAÇÃO: HORÁRIO (VISTO DA PONTA DE EIXO)/FUSOS UM: 20°C PADRÃO/        SENTIDO HÉLICE: DIREITA/</t>
@@ -2922,21 +3262,26 @@
           <t>4663378</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>EN 1563 EN GJS 500 7</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
           <t>CORPO BOMBA  TAMANHO: 2NS-/16H8/EXECUÇÃO: FLANGE/MAT CORPO BOMBA: GJS500 7/   NORMA/CLASSE FL: B16.42/150FF/ESPECIAL: ESP/                                  NORMA MATERIAL: EN 1563 EN GJS 500 7/SENTIDO FLUXO: ESQUERDA P/ DIREITA/      TAMANHO FLANGE: DN 150/PRES PROJ (BAR): 16/CONEXÕES: R1/2" BSP/               CAR ES CO BOMBA: SEM USINAGEM PARA VÁLVULA,COM FURO DE DESAERAÇÃO PASSANTE,SEM UM DOS FUROS PARA RETORNO DE ÓLEO,ALOJAMENTO DOS FUSOS DESLOCADO P/ ALTA PRES. E GIRO HORÁRIO/</t>
@@ -2949,21 +3294,26 @@
           <t>4666381</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>SAE 4140</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
           <t>EIXO MOVIDO DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
@@ -2976,21 +3326,26 @@
           <t>4666382</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>SAE 4140</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
           <t>EIXO MOTOR DE BOMBA TORNADO T1  MODELO DE BOMBA: XLB-8/2R MATERIAL: SAE 4140 (1.7225)  ESPECIAL - MANCAL TRASEIRO REFORÇADO APENAS PARA O PROJETO AVARÉ - NAO USAR EM OUTRAS CPS POIS NÃO É COMPATÍVEL COM NOVOS PROJETOS</t>
@@ -3003,21 +3358,21 @@
           <t>4667002</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>AISI 304  C</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
           <t>GARGANTA COM CONEXÇÃO SANITÁRIA MATERIAL: AISI 304  CONEXÃO SANITÁRIA 2" TC  ESPECIAL:  - INCLINADA EM 45 GRAUS  - PARA TUBO Ø88,9mm</t>
@@ -3030,21 +3385,26 @@
           <t>4667486</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>AISI304L</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
           <t>PORTA SELO MEC  TIPO DE BOMBA: NM105B/PLATAFORMA: (P)/TIPO: MG1-G60/          MAT CARCAÇA VED: AISI304L/EXEC VEDA EIXO: C/ DRENO,C/ FLUSHING,C/ QUENCH/     CONEX VEDA EIXO: G=1/4" NPT/CONEX. FLUSHING: G=1/4" NPT/DIÂM. DO EIXO: Ø100/  FIXAÇÃO SELAGEM: PADRÃO (PRENSADO)/                                           EXEC. ESPECIAL: COM BUCHA DE RESTRIÇÃO,PARA EXECUÇÃO SEM ANEL DE ENCOSTO,PARA PLANO API 32/</t>
@@ -3057,21 +3417,26 @@
           <t>4668764</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
           <t>FLANGE INTERMEDIÁRIA 3NS-/16H4I MATERIAL: FERRO FUNDIDO NODULAR - GGG50 ESPECIAL: APTA SOMENTE PARA ACOPLAMENTO MAGNÉTICO KTR MINEX 60/8; FOLGA ESPECIAL NA VEDAÇÃO DO FUSO Ø41,5 +0,18/+0,16 VAZÃO NECESSÁRIA PARA REFRIGERAÇÃO DO ACOPLAMENTO 30L/H À 2 BAR.</t>
@@ -3084,21 +3449,21 @@
           <t>4672334</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>Aço Carbono</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>SUPORTE PARA JUNCTION BOX (CAIXA DE JUNÇÃO) MATERIAL: AÇO CARBONO E AISI 316 ONDE INDICADO NO DESENHO.  MEDIDA: A= 1165,0mm / B= 280,0mm</t>
@@ -3111,21 +3476,21 @@
           <t>4672450</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>SAE 1045</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
           <t>TAMPA DIANTEIRA 3NS-/--3I MATERIAL SAE 1045  CARACT. ESPECIAL: EXECUÇÃO PARA ACOPLAMENTO MAGNÉTICO</t>
@@ -3138,21 +3503,21 @@
           <t>4672513</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
           <t>EIXO DE CONEXÃO ROTOR/LÂMINA NX549/NM053 ESPECIAL P/ MOLA MATERIAL: AISI 316</t>
@@ -3165,21 +3530,26 @@
           <t>4672683</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>A-36;</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
           <t>BASE DE BOMBA "E" - APTA PARA:  -BOMBA 3NS-/80H9E;  -MOTOR ELÉTRICO CARCAÇA 225SM; -ACOPLAMENTO VULKAN H128-200; -MATERIAL: A-36;  OBS.: FORNECER BASE COM USINAGEM E SOLDA COMPLETA, SUPERFÍCIES USINADAS SEM PINTURA E PROTEGIDAS SOMENTE COM INIBIDOR DE CORROSÃO.</t>
@@ -3192,21 +3562,21 @@
           <t>4672740</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
           <t>TUBO DE IMERSÃO (SUCÇÃO) SEM FILTRO  PARA BOMBA 3NS-/80S3E MATERIAL: AISI 316</t>
@@ -3219,21 +3589,21 @@
           <t>4673485</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>SAE 4140</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
           <t>EIXO DE ACIONAMENTO PCP NDH020DH20-HB-SB ESPECIAL PARA ACL SUPERIOR DA VEDAÇÃO ESTÁTICA DO LIP SEAL P/HASTE 1.1/4" MATERIAL: SAE 4140</t>
@@ -3246,21 +3616,26 @@
           <t>4729161</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>INOX 316 P</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
           <t>BOMBA NETZSCH "NEMO" MOD. NM021BY01L06B  ESPECIFICAÇÕES INTERFACE: BOCAIS DE SUCÇÃO E DESCARGA COM ROSCA INTERNA 1.1/4" NPT POSIÇÃO BOCAL SUCÇÃO: 1.a.1 (VERTICAL CENTRAL) POSIÇÃO BOCAL DESCARGA: 4.a.0 (CENTRAL) BY-PASS: VÁLVULA MOD. DN15, PRESSÃO DE ABERTURA: 2 BAR  MATERIAIS CARCAÇA: AÇO INOX 316 PARTES GIRATÓRIAS: AÇO INOX 316 ROTOR: AÇO INOX 316 UM20 MACIÇO ESTATOR: ELASTÔMERO SBE SELO MECÂNICO: UNS-SEAL 100 Ø25 Q1Q1VGG (8016162) ARTICULAÇÕES/VEDAÇÃO: B/SM ELASTÔMERO NBR ACIONAMENTO: MOTOREDUTOR NM021B NS17 0,75KW 60HZ N=565RPM (NDB4345946) BY-PASS: AÇO INOX 304 VÁLVULA: AÇO INOX 316/MEMBRANA SBE  OBS.  * REGULAR PRESSÃO DE ABERTURA DA VÁLVULA EM 2 BAR.  * APÓS FINALIZAR O TESTE DE PERFORMANCE INVERTER O SENTIDO DE MONTAGEM DA    VÁLVULA.</t>
@@ -3273,21 +3648,26 @@
           <t>4762526</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
           <t>ACOPLAMENTO ELÁSTICO  MODELO: ROTEX/TAMANHO: 24/MEDIDA A: A=22,00mm/          MEDIDA B: B=24,50mm/MEDIDA C: C=6,00mm/CUBO FURO A: NORMAL/                   MEDIDA A1: A1=28,00mm/MEDIDA B1: B1=31,00mm/MEDIDA C1: C1=8,00mm/             CUBO FURO A1: GRANDE/FABRICANTE: KTR/                                         CARAC. ESPECIAL: CUBO 1A/1A (GRANDE/GRANDE),MEDIDA ATÉ O CENTRO DO FURO OBLONGO CONFORME DETALHE X IGUAL A 40,00/</t>
@@ -3300,21 +3680,21 @@
           <t>4763181</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM038/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST I459/    MATERIAL TUBO: AISI 304/</t>
@@ -3327,21 +3707,26 @@
           <t>4763295</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
           <t>EIXO LIGAÇÃO  TIPO DE CABEÇA: F/TAMANHO: NM076/TIPO BOMBA: BH(P)/             MATERIAL: AISI 304/ACABAMENTO: POLIDO - NORMA WN0113/                         DIÂMETRO FURO: d1=50,00mm/</t>
@@ -3354,21 +3739,21 @@
           <t>4763742</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>NEMOLAST S05G</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S05G/    MATERIAL TUBO: 1020/</t>
@@ -3381,21 +3766,21 @@
           <t>4764144</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>NEMOLAST S63</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM063/ESTÁGIOS: 04/GEOMETRIA: S/BORRACHA: NEMOLAST S63/     MATERIAL TUBO: 1020/</t>
@@ -3408,21 +3793,21 @@
           <t>4765856</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>NEMOLAST S61H</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
           <t>ESTATOR  SÉRIE: 2N/TAMANHO: 120/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/  CARAC. ESPECIAL: BRUTO/</t>
@@ -3435,21 +3820,21 @@
           <t>4769540</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>1020</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM090/ESTÁGIOS: 01/GEOMETRIA: L/BORRACHA: NEMOLAST S43/     MATERIAL TUBO: 1020/</t>
@@ -3462,21 +3847,21 @@
           <t>4804106</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>SAE 1020</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
           <t>BASE P/ BOMBA NM038BY-S/L/P(WP)       ESPECIAL ALTURA 69mm MATERIAL: SAE 1020</t>
@@ -3489,21 +3874,21 @@
           <t>4920158</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>GG-25</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA LB07-40 NORMA ANSI B-16.1 DN 2" 250LBS TIPO FF  GG-25</t>
@@ -3516,21 +3901,21 @@
           <t>4953548</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>NEMOLAST S61H</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
           <t>ESTATOR  SÉRIE: 2N/TAMANHO: 20/BORRACHA: NEMOLAST S61H/MATERIAL TUBO: 1020/</t>
@@ -3543,21 +3928,21 @@
           <t>4959050</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>304</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
           <t>FLANGE MANCAL NEL50A  304 POS 015</t>
@@ -3570,21 +3955,21 @@
           <t>4978060</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
           <t>ANEL PARA APERTO NESP 60 A MATERIAL: AISI 304</t>
@@ -3597,21 +3982,21 @@
           <t>90005392</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>1.4201</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
           <t>BIELA P/ BOMBA SERA R 411.1-1100E D=25; L=149,5; MATERIAL  1.4201/ST   CÓDIGO: 90005392</t>
@@ -3624,21 +4009,21 @@
           <t>NDB4021000</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>PERBUNAN</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
           <t>ANEL DE VEDACAO  TC 1/2" CONFORME ISO2852 TIPO A MATERIAL PERBUNAN</t>
@@ -3651,21 +4036,21 @@
           <t>NDB4028803</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>PTFE</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
           <t>COLAR TRASEIRO EXTERNO PTFE P/ MDM-1516 CÓD. MDM0613</t>
@@ -3678,21 +4063,21 @@
           <t>NDB4063786</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>A2-70 (304)</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
           <t>PARAFUSO  TIPO: SEXT./BITOLA: M24 x  70,00mm/MATERIAL: A2-70 (304)/           NORMA: ISO 4014/</t>
@@ -3705,21 +4090,26 @@
           <t>NDB4323274</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
           <t>FLANGE CFE. DIN EN 1092-1 TIPO 11 (WN); FACE B1; DN 25; PN 40; ESPESSURA DA PAREDE DO PESCOÇO S= 2,6 MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE. FORNECER CERTIFICADO DE MATERIAIS CONFORME EN 10204-3.1 ESPECIAL ITEM RASTREÁVEL.</t>
@@ -3732,21 +4122,21 @@
           <t>NDB4342303</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
           <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 63; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
@@ -3759,21 +4149,21 @@
           <t>NDB4344626</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
           <t>FLANGE CFE. DIN EN 1092-1 TIPO 12 (SOW); FACE B1; DN 100; PN 40; MATERIAL CFE. ASTM A 105. COM CLASSE DE PRESSÃO SINETADO NO FLANGE.</t>
@@ -3786,21 +4176,21 @@
           <t>NDB4650104</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>SAE 1020</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
           <t>ALÇA PARA DESLOCAMENTO P/ BOMBA TORNADO XB-4; MATERIAL SAE 1020 OBS.: FORNECER BASE COM USINAGEM, FURAÇÃO E SOLDA COMPLETA.</t>
@@ -3813,21 +4203,26 @@
           <t>NDB4650173</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>ROTOR  TIPO DE CABEÇA: B/TAMANHO: NX549/NM076/ESTÁGIOS: 02/GEOMETRIA: S/      CLASSE PRESSÃO: 12/MATERIAL: AISI 316/TEMPERATURA: UM20/ESTRUTURA: MACIÇO/    CARAC. ESPECIAL: ESPECIAL PARA LÂMINA (EIXO SOLDADO)/</t>
@@ -3840,21 +4235,21 @@
           <t>NDB4650512</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>SAE 1020 P</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
           <t>MATERIAL: SAE 1020 PINTURA EXTERNA: COR VERDE EMBLEMA 2,5 G 3/4 PINTURA INTERNA: COR BRANCA</t>
@@ -3867,21 +4262,26 @@
           <t>NDB4650543</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
           <t>CARTUCHO PARA BOMBA DE FUSOS ESPECIAL MODELO: 3NS-/80-7- MATERIAL: FERRO FUNDIDO DIN EN 1563 EN GJS 500 7 (GGG-50)  **ESPECIAL = POS.15 DO ANEL-O DESLOCADO**  **MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.**</t>
@@ -3894,21 +4294,21 @@
           <t>NDB4760669</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>NEMOLAST S41</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM076/ESTÁGIOS: 02/GEOMETRIA: S/BORRACHA: NEMOLAST S41/     MATERIAL TUBO: 1020/</t>
@@ -3921,21 +4321,21 @@
           <t>NDB4761259</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>NEMOLAST S45</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 03/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
@@ -3948,21 +4348,21 @@
           <t>NDB4761365</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>NEMOLAST S45</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
           <t>ESTATOR  TAMANHO: NM045/ESTÁGIOS: 01/GEOMETRIA: S/BORRACHA: NEMOLAST S45/     MATERIAL TUBO: 1020/</t>
@@ -3975,21 +4375,21 @@
           <t>NDB4907943</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: J/SÉRIE: NES/TAMANHO: 60A/MATERIAL: AISI 304/          TIPO DA ROSCA: ROSCA S/ FIM/</t>
@@ -4002,21 +4402,21 @@
           <t>NDB4909488</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: B-SM/SÉRIE: NBS/TAMANHO: 40A/MATERIAL: AISI 316/       VEDAÇÃO SM: VED SM/TIPO DA ROSCA: ROSCA S/ FIM/</t>
@@ -4029,21 +4429,21 @@
           <t>NDB4909809</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM105/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 04/ MATERIAL: AISI 304/</t>
@@ -4056,21 +4456,21 @@
           <t>NDB4912285</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>AISI 304.</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA NES40A  MATERIAL AISI 304. COM CAMISA DE AQUECIMENTO. POLIDO INTERNAMENTE.</t>
@@ -4083,21 +4483,21 @@
           <t>NDB4912668</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
           <t>GARGANTA  NE 100      MATERIAL  AISI 316</t>
@@ -4110,21 +4510,26 @@
           <t>NDB4913019</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>AISI 304 P</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA NEC 60A    ESPECIAL BOCAL DE SUCÇÃO 4"SMS TANGENCIAL C/ BOCAL ADICIONAL P/ LIMPEZA CIP 2"SMS TANGENCIAL MATERIAL AISI 304 POLIDO INT/EXT.</t>
@@ -4137,21 +4542,21 @@
           <t>NDB4913022</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>AISI 304.</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
           <t>GARGANTA NEC 60A ESPECIAL P/CONEXÃO SANITÁRIA 4" TANGENCIAL MATERIAL: AISI 304.</t>
@@ -4164,21 +4569,26 @@
           <t>NDB4915156</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM053/EXECUÇÃO BOMBA: O/ESTÁGIOS: 04/       GEOMETRIA: S/CLASSE PRESSÃO: 24/MATERIAL: AISI 304/                           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: ESP./DIST. ARTICUL.: GA=1100mm/       CARAC. ESPECIAL: COM ROSCA EM TODA EXTENSÃO DO FUNIL,PARA CORPO DA BOMBA COM FUNIL 602 X 224/</t>
@@ -4191,21 +4601,21 @@
           <t>NDB4915826</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>AISI 304 C</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM031-H-12- MATERIAL  AISI 304 CONEXÃO SANITÁRIA 2.1/2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
@@ -4218,21 +4628,21 @@
           <t>NDB4916501</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>AISI 316 P</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM038-12   C/ CONEXÃO SANITÁRIA 3"SMS   MATERIAL:  AISI 316 POLIDO INTERNAMENTE. C/ CAMISA DE AQUECIMENTO.</t>
@@ -4245,21 +4655,21 @@
           <t>NDB4916711</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM045-F-12 MATERIAL  AISI 316 BOCA RETANGULAR 750 X 220 ACABAMENTO: POLIDO INTERNO</t>
@@ -4272,21 +4682,26 @@
           <t>NDB4916906</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>AISI 316L</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 14/ PLATAFORMA P: (P)/MATERIAL: AISI 316L/ACABAMENTO: ESP/                        CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
@@ -4299,21 +4714,26 @@
           <t>NDB4918768</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM031/EXECUÇÃO BOMBA: H/ESTÁGIOS: 02/       GEOMETRIA: S/CLASSE PRESSÃO: 12/PLATAFORMA: (P)/MATERIAL: AISI 304/           TIPO DA ROSCA: ROSCA S/ FIM/ACABAMENTO: POL./                                 TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
@@ -4326,21 +4746,21 @@
           <t>NDB4919675</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM076-14             01 DRENO COM CAMISA DE AQUECIMENTO MATERIAL  AISI 304 FLANGE CFE ANSI B16.5 150PSI 6" FF</t>
@@ -4353,21 +4773,21 @@
           <t>NDB4920476</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>AISI 316 C</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM021-12 MATERIAL  AISI 316 CONEXAO  ROSCA NPT 1.1/4" (+01 DRENO) BOCAL DE SUCÇÃO TANGENCIAL À DIREITA (VISTA DO ACIONAMENTO)</t>
@@ -4380,21 +4800,21 @@
           <t>NDB4920600</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>AISI 316L</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM031/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 48/ MATERIAL: AISI 316L/</t>
@@ -4407,21 +4827,26 @@
           <t>NDB4921649</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>AISI 420</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM038/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 420/ACABAMENTO: POLIDO/                      TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/</t>
@@ -4434,21 +4859,26 @@
           <t>NDB4923986</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM021-O-12 MATERIAL  AISI 316 BOCA RETANGULAR 104 X 204 STANDARD: COM 01 DRENO  (EXECUÇÃO C/ ROSCA SEM FIM EM TODA EXTENSÃO DO FUNIL).</t>
@@ -4461,21 +4891,21 @@
           <t>NDB4929016</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>VI-65/Alu</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
           <t>ESTATOR  NM093--02S  C/02CHANFROS(ESPECIAL) MATERIAL  NEMOLAST G91 (VI-65/Alu)</t>
@@ -4488,21 +4918,26 @@
           <t>NDB4929515</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>SAE 1020.</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM105-T---12        MATERIAL  SAE 1020. FLANGE 8"ANSI B16.5 / 150PSI / FF. C/ PLACA DE SUSTENTAÇÃO RETANGULAR (1200X800). PROFUNDIDADE DE IMERSÃO: 2800mm. DIMENSÕES: A=3368mm; B=3168mm; L=2084mm;</t>
@@ -4515,21 +4950,26 @@
           <t>NDB4934567</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO GG-30</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
           <t>CORPO DE DESGASTE PARA BOMBA DE FUSOS MODELO PARA CORPO FUNDIDO: 3NS-/40H5- MATERIAL: FERRO FUNDIDO GG-30 - BRUNIMENTO NO ALOJAMENTO DOS FUSOS MOVIDOS; - MEDIR RUGOSIDADE DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.</t>
@@ -4542,21 +4982,21 @@
           <t>NDB4941261</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>vesconite hilube</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr">
         <is>
           <t>BU MANCAL 2NS -/16-4-  MATERIAL: VESCONITE HILUBE</t>
@@ -4569,21 +5009,21 @@
           <t>NDB4941502</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
         <is>
           <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7</t>
@@ -4596,21 +5036,26 @@
           <t>NDB4942821</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>AÇO MOLA HRC-46</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr">
         <is>
           <t>PLACA DE ARRASTE PCP HASTE 1.1/2" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
@@ -4623,21 +5068,26 @@
           <t>NDB4942823</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>AÇO MOLA HRC-46</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
           <t>PLACA DE ARRASTE PCP HASTE 1.1/4" 15 TON (C/SISTEMA DE CENTRALIZAÇÃO CÔNICA) MATERIAL: SAE 1045  COMPONENTES BLOCO OXICORTADO  SAE 1045  C=44,45mm A=240,00 B=145,00 - 2PÇ PARAFUSO  SEXT. M24 x 120,00mm AÇO 8.8 DIN 933 ZINC TRIV BRANCO - 6PÇ ARRUELA  PRESSÃO M24 AÇO MOLA HRC-46 DIN 127 ZINC TRIV BRANCO - 6PÇ PORCA  SEXT. M24 AÇO 8.8 DIN 934 ZINCADO TRIVALENTE BRANCO - 6PÇ 250001     CHAPA   3,04MM SAE 1008/10 - 0,02590M²  PINTURA:ALARANJADO SEGURANÇA MUNSELL 2.5YR 6/14 OBS.: PROTEGER AS PEÇAS CONTRA CORROSÃO NAS PARTES NÃO PINTADAS</t>
@@ -4650,21 +5100,21 @@
           <t>NDB4946783</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>UNS S31803</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM105/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 02/ MATERIAL: UNS S31803/</t>
@@ -4677,21 +5127,26 @@
           <t>NDB4949110</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
         </is>
       </c>
-      <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr">
         <is>
           <t>PÉ DA BOMBA DE FUSOS 3NS-/40H5- E 3NS-/40H6- MATERIAL FERRO FUNDIDO NODULAR DIN EN 1563 EN GJS 500 7 CONEXÕES PARA O AQUECIMENTO: 3/8"BSP PRESSÃO MÁXIMA NA CÂMARA DE AQUECIMENTO: 16,0 BAR (T_MÁX: 200°C) PRESSÃO TH MÁXIMO NA CÂMARA DE AQUECIMENTO: 24,0 BAR  MODELO NR NB4949103 (IDENT NDB4949103)</t>
@@ -4704,21 +5159,26 @@
           <t>NDB4949924</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr">
         <is>
           <t>BOCAL DE SUCÇÃO  TAMANHO: 3NS-/-L5-/NORMA: DIN EN 1563 EN GJS 500 7/          EXECUÇÃO: BOCAL ORIENTÁVEL EM TODOS OS QUADRANTES/                            MATERIAL: FERRO FUNDIDO NODULAR/MODELO: NB 4949924/                           CERTIFICADO: COMPOSIÇÃO QUÍMICA E PROPRIEDADES MECÂNICAS ESPECÍFICAS PARA O ITEM ADQUIRIDO, NORMA DE FABRICAÇÃO, NÚMERO DA CORRIDA E LOTE/PESO/PÇ (KG): 5,10/</t>
@@ -4731,21 +5191,21 @@
           <t>NDB4955080</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>NBR C</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr">
         <is>
           <t>ESTATOR 2N 60 SBE (NBR COM 465 ACN) COM FERRAMENTA BB DIAM MENOR 59,6-0,70MM TUBO EVEN WALL</t>
@@ -4758,21 +5218,21 @@
           <t>NDB4960343</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>AISI 316</t>
         </is>
       </c>
-      <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM038-O-12        ESPECIAL MATERIAL  AISI 316 BOCA RETANGULAR 154 X 254mm ACABAMENTO: POLIDO INTERNO</t>
@@ -4785,21 +5245,21 @@
           <t>NDB4963984</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>SAE 1020</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM090-P-18  G=1"NPT MATERIAL  SAE 1020 BOCA RETANGULAR 750 X 720MM</t>
@@ -4812,21 +5272,26 @@
           <t>NDB4963990</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>AISI 304 C</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM038-H-12-              (CORPO C/ REPUXE) MATERIAL AISI 304 CONEXÃO SANITÁRIA 2"SMS POLIDO INTERNO/EXTERNAMENTE. ACABAMENTO SUPERFICIAL CFE.WN0113.</t>
@@ -4839,21 +5304,26 @@
           <t>NDB4969644</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: V/TAMANHO: NM045/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 304/ALTURA IMERSÃO: 2200mm/                 MEDIDA GA: GA=1692mm/MEDIDA B: B=1724mm/</t>
@@ -4866,21 +5336,26 @@
           <t>NDB4970419</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: F/TAMANHO: NM031/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ MATERIAL: AISI 304/ACABAMENTO: ESP/                                           CARAC. ESPECIAL: APENAS PARA BOMBAS EM CORTE (EXPOSIÇÕES)/</t>
@@ -4893,21 +5368,26 @@
           <t>NDB4972116</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: B/TAMANHO: NM063/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP/                         CARAC. ESPECIAL: PARA LUVA DE PROTEÇÃO/</t>
@@ -4920,21 +5400,26 @@
           <t>NDB4972950</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>AISI 420</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: K/TAMANHO: NM105/EXECUÇÃO BOMBA: BT/                   CLASSE PRESSÃO: 12/MATERIAL: AISI 420/ALTURA IMERSÃO: 2891mm/                 MEDIDA GA: GA=1841mm/MEDIDA B: B=1985mm/</t>
@@ -4947,21 +5432,21 @@
           <t>NDB4976156</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>AISI 316 C</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
           <t>CORPO DA BOMBA  NM063-14 MATERIAL AISI 316 CONEXÃO SANITÁRIA 3"TC POLIDO INTERNO</t>
@@ -4974,21 +5459,26 @@
           <t>NDB4976756</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>SAE 1020</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: J/TAMANHO: NM076/EXECUÇÃO BOMBA: Y/CLASSE PRESSÃO: 07/ PLATAFORMA P: (P)/MATERIAL: SAE 1020/ACABAMENTO: ESP/                         CARAC. ESPECIAL: MEDIDA A = 405mm/</t>
@@ -5001,21 +5491,26 @@
           <t>NDB4987821</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr">
         <is>
           <t>FLANGE DO CORPO  MODELO: 4NS-/-H1E/MATERIAL: ASTM A-36/MEDIDA B: B=280,00/    MEDIDA C: C=330,00/MEDIDA A: A=35,00/MEDIDA D: D=190,00/MEDIDA E: E=230,00/   MEDIDA F: F=10,00/MEDIDA G: G=41,28/MEDIDA H: H=140,00/MEDIDA J: J=40,00/     MEDIDA K: K=270,50/MEDIDA L: L=181,00/MEDIDA M: M=202,00/MEDIDA N: N=140,00/  MEDIDA R: R=350,00mm/MEDIDA R1: R1=180,00/</t>
@@ -5028,21 +5523,26 @@
           <t>NDB4987996</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
           <t>FLANGE DO CORPO  MODELO: 4NS-/-H4E/MATERIAL: ASTM A-36/MEDIDA B: B=430,00/    MEDIDA C: C=520,00/MEDIDA A: A=65,00/MEDIDA D: D=260,00/MEDIDA E: E=380,00/   MEDIDA F: F=25,00/MEDIDA G: G=50,80/MEDIDA H: H=230,00/MEDIDA J: J=50,00/     MEDIDA K: K=269,00/MEDIDA L: L=313,00/MEDIDA M: M=344,00/MEDIDA N: N=230,00/  MEDIDA R: R=590,00mm/MEDIDA R1: R1=430,00/</t>
@@ -5055,21 +5555,26 @@
           <t>NDB4991623</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>SCREW</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
           <t>BOMBA DE FUSOS NETZSCH MOD. 3NS 07/25M2E  DIÂMETRO EXTERNO/PASSO: Ø26/38 3 = 3 FUSOS NS = NETZSCH SCREW 07 = VAZÃO (0,7m³/h @ 1000 RPM @ 0 BAR) /25 = PRESSÃO DE DESCARGA MÁX. (bar) M = EXECUÇÃO MINI 2 = MANCAL NR. 2 E = ROLAMENTO EXTERNO BLINDADO COM VÁLVULA DE ALÍVIO INTEGRADA - 10 A 25 BAR ABERTURA VÁLVULA REGULADA 20 BAR FLANGES DE CONEXÃO 1.1/2" SAE J518C 3000 PSI</t>
@@ -5082,21 +5587,26 @@
           <t>NDB4992299</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>AISI 304</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr">
         <is>
           <t>EIXO ACL  ARTICULAÇÃO: H/TAMANHO: NM038/EXECUÇÃO BOMBA: H/CLASSE PRESSÃO: 12/ PLATAFORMA P: (P)/MATERIAL: AISI 304/ACABAMENTO: ESP,POLIDO/                  TIPO ACABAMENTO: POLIDO CONFORME NORMA WN0113/                                CARAC. ESPECIAL: SEM FUROS ADICIONAIS/</t>
@@ -5109,21 +5619,21 @@
           <t>NDB4992323</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
           <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/80-11- MATERIAL: FERRO FUNDIDO EN-GJS-500-7 SEM FURO PARA RETORNO DE ÓLEO.</t>
@@ -5136,21 +5646,26 @@
           <t>NDB4994183</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>see basic data text</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO GGG-50</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr">
         <is>
           <t>CARTUCHO PARA BOMBA DE FUSOS NOTOS MODELO: 3NS-/25-8- (MODELO ANTIGO - COMPRIMENTO MENOR) EXECUÇÃO: HOUSING; MATERIAL: FERRO FUNDIDO GGG-50;  **MEDIR RUGOSIDADE (RMAX=4) DAS PARTES INTERNAS DO CARTUCHO, ONDE SE ALOJAM OS FUSOS, ISSO PARA GARANTIR AS ESPECIFICAÇÕES  DO DESENHO.*</t>
@@ -5163,18 +5678,16 @@
           <t>5063255</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5182,18 +5695,16 @@
           <t>5063309</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5201,18 +5712,16 @@
           <t>5161252</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>NDB</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -601,9 +601,19 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>MG-SGM</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>SPECIAL</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FAF37-DRN90LP4</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -636,6 +646,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>MG-SG</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -676,9 +691,14 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>MG-M</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>SIC</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -716,9 +736,14 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>MG-M</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>SIC</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -756,6 +781,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>MG-SGM</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Grau D</t>
@@ -796,9 +826,14 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>MG-KGM</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -836,14 +871,19 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MG-SGM</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>NETZSCH</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -876,6 +916,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>MG-SGM</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Grau D</t>
@@ -916,6 +961,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>MG-M</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>PRINCIPAL</t>
@@ -956,6 +1006,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -996,6 +1051,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1036,6 +1096,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1076,6 +1141,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1116,6 +1186,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1156,6 +1231,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1196,6 +1276,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1236,6 +1321,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
@@ -1276,6 +1366,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1316,6 +1411,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1356,6 +1456,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1396,6 +1501,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1436,6 +1546,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1476,6 +1591,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1516,6 +1636,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1556,6 +1681,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1596,6 +1726,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -1636,6 +1771,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -1676,6 +1816,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1716,6 +1861,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1756,6 +1906,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1796,6 +1951,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1836,6 +1996,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1876,6 +2041,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1916,6 +2086,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1956,6 +2131,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1996,6 +2176,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>MG-M</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -2036,6 +2221,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2076,6 +2266,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2116,6 +2311,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2156,6 +2356,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2196,6 +2401,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2236,6 +2446,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
@@ -2276,6 +2491,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
@@ -2316,6 +2536,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2356,6 +2581,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2396,6 +2626,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2436,6 +2671,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2476,6 +2716,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>MG-SG</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>St</t>
@@ -2516,9 +2761,14 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>MG-KGM</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -2556,9 +2806,14 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>MG-KGM</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -2596,6 +2851,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2636,6 +2896,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>A-ZUB</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>BRONZE</t>
@@ -2676,6 +2941,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>MG-SGM</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>281</t>
@@ -2716,6 +2986,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>MG-SGM</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>Grau D</t>
@@ -2723,7 +2998,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>PERIPRO</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -2756,9 +3031,14 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>MG-SGM</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -2796,6 +3076,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>MG-KGM</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -2836,6 +3121,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>AISI 304L FLANGE CFE</t>
@@ -2876,6 +3166,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -2883,7 +3178,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>NM031BH</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -2916,6 +3211,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>NEMOLAST S459</t>
@@ -2956,6 +3256,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>TELA: TELA 1008</t>
@@ -2996,6 +3301,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>AISI 316    P</t>
@@ -3036,6 +3346,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>NEMOLAST S61M</t>
@@ -3076,6 +3391,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>NEMOLAST S41</t>
@@ -3116,6 +3436,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -3156,6 +3481,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -3196,6 +3526,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>PCP-NDHP</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>A-36</t>
@@ -3236,6 +3571,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>PCP-NDHP</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>A-36</t>
@@ -3276,6 +3616,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>NEMOLAST S61M</t>
@@ -3316,6 +3661,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3356,6 +3706,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3396,6 +3751,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3436,6 +3796,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3476,6 +3841,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>AISI 316.</t>
@@ -3516,6 +3886,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3556,6 +3931,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3596,6 +3976,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3636,6 +4021,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>HMSP-P</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>SAE 1045</t>
@@ -3676,6 +4066,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>PM-BT</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>ROTOR</t>
@@ -3716,6 +4111,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>HMSP-P</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>AISI 304 P</t>
@@ -3756,6 +4156,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>SAE 1020 C</t>
@@ -3763,7 +4168,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>ASME B16.5</t>
+          <t>2NS-/16H3-</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -3796,6 +4201,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -3803,7 +4213,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>HJ977GN</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -3836,6 +4246,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TXB-ET</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>SAE 1020  P</t>
@@ -3876,6 +4291,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -3916,6 +4336,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -3956,6 +4381,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>SAE 1020;</t>
@@ -3996,6 +4426,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>20MNCR5</t>
@@ -4036,6 +4471,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>TOOLOX 44</t>
@@ -4076,6 +4516,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>EN 1563 EN GJS 500 7</t>
@@ -4116,6 +4561,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TXLB-ET</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>SAE 4140</t>
@@ -4156,6 +4606,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>TXLB-ET</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>SAE 4140</t>
@@ -4196,6 +4651,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>AISI 304  C</t>
@@ -4236,6 +4696,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>AISI304L</t>
@@ -4243,7 +4708,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>MG1-G60</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -4276,6 +4741,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
@@ -4316,6 +4786,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>A-ZUB</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>Aço Carbono</t>
@@ -4356,6 +4831,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>SAE 1045</t>
@@ -4396,6 +4876,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -4436,6 +4921,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>A-36;</t>
@@ -4476,6 +4966,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -4516,6 +5011,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>PCP-NDHP</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>SAE 4140</t>
@@ -4556,6 +5056,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>NMBY</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>INOX 316 P</t>
@@ -4596,9 +5101,14 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>ACO</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -4636,6 +5146,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -4676,6 +5191,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -4716,6 +5236,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>NEMOLAST S05G</t>
@@ -4756,6 +5281,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>NEMOLAST S63</t>
@@ -4796,6 +5326,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>NE-STA</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>NEMOLAST S61H</t>
@@ -4836,6 +5371,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>1020</t>
@@ -4876,6 +5416,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>SAE 1020</t>
@@ -4916,6 +5461,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>GG-25</t>
@@ -4956,6 +5506,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>NE-STA</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>NEMOLAST S61H</t>
@@ -5076,6 +5631,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>PBDD-ET</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>1.4201</t>
@@ -5116,6 +5676,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>A-DIC</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>PERBUNAN</t>
@@ -5156,6 +5721,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>PBCM-ET</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>PTFE</t>
@@ -5196,6 +5766,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>A-VT</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>A2-70 (304)</t>
@@ -5236,6 +5811,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
@@ -5276,6 +5856,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
@@ -5316,6 +5901,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>HT-FL</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
@@ -5356,6 +5946,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>SAE 1020</t>
@@ -5396,6 +5991,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>NM-ROT</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -5436,6 +6036,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>SAE 1020 P</t>
@@ -5476,6 +6081,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
@@ -5651,6 +6261,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>NE-RT</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -5658,7 +6273,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -5691,6 +6306,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>NE-RT</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -5731,6 +6351,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -5851,6 +6476,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>NE-GH</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>AISI 304 P</t>
@@ -5858,7 +6488,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>NEC 60A</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -5898,7 +6528,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>NEC 60A</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -5931,6 +6561,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -5971,6 +6606,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>AISI 304 C</t>
@@ -6011,6 +6651,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>AISI 316 P</t>
@@ -6091,6 +6736,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>AISI 316L</t>
@@ -6131,6 +6781,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -6211,6 +6866,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>AISI 316 C</t>
@@ -6251,6 +6911,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>AISI 316L</t>
@@ -6291,6 +6956,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>AISI 420</t>
@@ -6331,6 +7001,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -6371,6 +7046,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>NM-STA</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>VI-65/Alu</t>
@@ -6418,7 +7098,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>NM105-T---</t>
+          <t>ANSI B16.5</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -6451,6 +7131,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO GG-30</t>
@@ -6491,6 +7176,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>vesconite hilube</t>
@@ -6531,6 +7221,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
@@ -6571,6 +7266,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>PCP-NDHP</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>AÇO MOLA HRC-46</t>
@@ -6611,6 +7311,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>PCP-NDHP</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>AÇO MOLA HRC-46</t>
@@ -6651,6 +7356,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>UNS S31803</t>
@@ -6691,6 +7401,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
@@ -6778,7 +7493,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -6811,6 +7526,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -6891,6 +7611,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>NM-GH</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>AISI 304 C</t>
@@ -6931,6 +7656,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -6971,6 +7701,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -7011,6 +7746,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -7051,6 +7791,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>AISI 420</t>
@@ -7131,6 +7876,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>SAE 1020</t>
@@ -7171,6 +7921,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -7211,6 +7966,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -7251,6 +8011,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>MSP3S25</t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>SCREW</t>
@@ -7291,6 +8056,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>NM-RT</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -7331,6 +8101,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
@@ -7369,6 +8144,11 @@
       <c r="D172" t="inlineStr">
         <is>
           <t>NDB</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>MSP-P</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -606,6 +606,11 @@
           <t>MG-SGM</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>SPECIAL</t>
@@ -651,6 +656,11 @@
           <t>MG-SG</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NM063</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -696,6 +706,11 @@
           <t>MG-M</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>SIC</t>
@@ -741,6 +756,11 @@
           <t>MG-M</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>SIC</t>
@@ -786,6 +806,11 @@
           <t>MG-SGM</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>Grau D</t>
@@ -831,9 +856,14 @@
           <t>MG-KGM</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>332</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -876,14 +906,19 @@
           <t>MG-SGM</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>332</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -921,6 +956,11 @@
           <t>MG-SGM</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>250MM</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Grau D</t>
@@ -966,6 +1006,11 @@
           <t>MG-M</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>PRINCIPAL</t>
@@ -1011,6 +1056,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1056,6 +1106,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1101,6 +1156,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1146,6 +1206,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1191,6 +1256,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1236,6 +1306,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1281,6 +1356,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1326,6 +1406,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
@@ -1371,6 +1456,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1416,6 +1506,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1461,6 +1556,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1506,6 +1606,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1551,6 +1656,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1596,6 +1706,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1641,6 +1756,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1686,6 +1806,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1731,6 +1856,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -1776,6 +1906,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -1821,6 +1956,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -1866,6 +2006,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1911,6 +2056,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -1956,6 +2106,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2001,6 +2156,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2046,6 +2206,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2091,6 +2256,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2136,6 +2306,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2181,6 +2356,11 @@
           <t>MG-M</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -2226,6 +2406,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2271,6 +2456,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2316,6 +2506,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2361,6 +2556,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2406,6 +2606,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2451,6 +2656,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
@@ -2496,6 +2706,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1.1/2"</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>ASTM A182 GR F316L</t>
@@ -2541,6 +2756,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2586,6 +2806,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2631,6 +2856,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>ASTM A182</t>
@@ -2676,6 +2906,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2721,6 +2956,11 @@
           <t>MG-SG</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NM031</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>St</t>
@@ -2766,9 +3006,14 @@
           <t>MG-KGM</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>332</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -2811,9 +3056,14 @@
           <t>MG-KGM</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>332</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -2856,6 +3106,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>ASTM A105</t>
@@ -2901,6 +3156,11 @@
           <t>A-ZUB</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NPT</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>BRONZE</t>
@@ -2946,6 +3206,11 @@
           <t>MG-SGM</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NM011</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>281</t>
@@ -2991,6 +3256,11 @@
           <t>MG-SGM</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>Grau D</t>
@@ -2998,7 +3268,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>PERIPRO</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -3036,6 +3306,11 @@
           <t>MG-SGM</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NM076</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>St</t>
@@ -3081,6 +3356,11 @@
           <t>MG-KGM</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>CAR</t>
@@ -3126,6 +3406,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NM105</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>AISI 304L FLANGE CFE</t>
@@ -3171,6 +3456,11 @@
           <t>AUB</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -3178,7 +3468,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>NM031BH</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -3216,6 +3506,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>NEMOLAST S459</t>
@@ -3261,6 +3556,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>NM038</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>TELA: TELA 1008</t>
@@ -3306,6 +3606,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>G=1/4"NPT</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>AISI 316    P</t>
@@ -3351,6 +3656,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NM045</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>NEMOLAST S61M</t>
@@ -3396,6 +3706,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NM063</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>NEMOLAST S41</t>
@@ -3441,6 +3756,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -3486,6 +3806,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -3531,6 +3856,11 @@
           <t>PCP-NDHP</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>A-36</t>
@@ -3576,6 +3906,11 @@
           <t>PCP-NDHP</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>A-36</t>
@@ -3621,6 +3956,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>NEMOLAST S61M</t>
@@ -3666,6 +4006,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>DN1</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3711,6 +4056,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>DN10</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3756,6 +4106,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>DN4</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3801,6 +4156,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>DN8</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3846,6 +4206,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>3/4" NPT</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>AISI 316.</t>
@@ -3891,6 +4256,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>DN12</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3936,6 +4306,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -3981,6 +4356,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>ASTM A106.</t>
@@ -4026,6 +4406,11 @@
           <t>HMSP-P</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>SAE 1045</t>
@@ -4071,6 +4456,11 @@
           <t>PM-BT</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Show-room</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>ROTOR</t>
@@ -4116,6 +4506,11 @@
           <t>HMSP-P</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>DN 32</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>AISI 304 P</t>
@@ -4161,6 +4556,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>1/2" NPT</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>SAE 1020 C</t>
@@ -4206,6 +4606,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -4251,6 +4656,11 @@
           <t>TXB-ET</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>facelift</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>SAE 1020  P</t>
@@ -4296,6 +4706,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -4341,6 +4756,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>DUPLEX UNS S31803</t>
@@ -4386,6 +4806,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>3/4" NPT</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>SAE 1020;</t>
@@ -4431,6 +4856,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>MANCAL: 3</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>20MNCR5</t>
@@ -4476,6 +4906,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>MANCAL: 2</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>TOOLOX 44</t>
@@ -4521,6 +4956,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1/2" BSP</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>EN 1563 EN GJS 500 7</t>
@@ -4566,6 +5006,11 @@
           <t>TXLB-ET</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>SAE 4140</t>
@@ -4611,6 +5056,11 @@
           <t>TXLB-ET</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>SAE 4140</t>
@@ -4656,6 +5106,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>AISI 304  C</t>
@@ -4701,6 +5156,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>G=1/4" NPT</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>AISI304L</t>
@@ -4746,6 +5206,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
@@ -4791,6 +5256,11 @@
           <t>A-ZUB</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>Aço Carbono</t>
@@ -4836,6 +5306,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>SAE 1045</t>
@@ -4881,6 +5356,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -4926,6 +5406,11 @@
           <t>AUB</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>A-36;</t>
@@ -4971,6 +5456,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -5016,6 +5506,11 @@
           <t>PCP-NDHP</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>SAE 4140</t>
@@ -5061,6 +5556,11 @@
           <t>NMBY</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>UNS-SEAL 100</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>INOX 316 P</t>
@@ -5106,9 +5606,14 @@
           <t>AUB</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>ACO</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -5151,6 +5656,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>NM038</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -5196,6 +5706,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>NM076</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -5241,6 +5756,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>NM090</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>NEMOLAST S05G</t>
@@ -5286,6 +5806,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>NM063</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>NEMOLAST S63</t>
@@ -5331,6 +5856,11 @@
           <t>NE-STA</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>NEMOLAST S61H</t>
@@ -5376,6 +5906,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>NM090</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>1020</t>
@@ -5421,6 +5956,11 @@
           <t>AUB</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>S/L/P(WP)</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>SAE 1020</t>
@@ -5466,6 +6006,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>DN 2</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>GG-25</t>
@@ -5511,6 +6056,11 @@
           <t>NE-STA</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>NEMOLAST S61H</t>
@@ -5551,6 +6101,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>50A</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>304</t>
@@ -5591,6 +6146,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -5636,6 +6196,11 @@
           <t>PBDD-ET</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>D=25</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>1.4201</t>
@@ -5681,6 +6246,11 @@
           <t>A-DIC</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>1/2"</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>PERBUNAN</t>
@@ -5726,6 +6296,11 @@
           <t>PBCM-ET</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>PTFE</t>
@@ -5771,6 +6346,11 @@
           <t>A-VT</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>M24</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>A2-70 (304)</t>
@@ -5816,6 +6396,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
@@ -5861,6 +6446,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>DN 100</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
@@ -5906,6 +6496,11 @@
           <t>HT-FL</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>DN 100</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>CFE. ASTM A 105.</t>
@@ -5951,6 +6546,11 @@
           <t>AUB</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>SAE 1020</t>
@@ -5996,6 +6596,11 @@
           <t>NM-ROT</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -6041,6 +6646,11 @@
           <t>HB</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>SAE 1020 P</t>
@@ -6086,6 +6696,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
@@ -6131,6 +6746,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NM076</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>NEMOLAST S41</t>
@@ -6176,6 +6796,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NM045</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>NEMOLAST S45</t>
@@ -6221,6 +6846,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NM045</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>NEMOLAST S45</t>
@@ -6266,6 +6896,11 @@
           <t>NE-RT</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>60A</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -6273,7 +6908,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -6311,6 +6946,11 @@
           <t>NE-RT</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>40A</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -6356,6 +6996,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NM105</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -6396,6 +7041,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>40A</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>AISI 304.</t>
@@ -6436,6 +7086,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -6481,6 +7136,11 @@
           <t>NE-GH</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>AISI 304 P</t>
@@ -6521,6 +7181,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>AISI 304.</t>
@@ -6566,6 +7231,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -6611,6 +7281,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>2.1/2"SMS</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>AISI 304 C</t>
@@ -6656,6 +7331,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NM038</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>AISI 316 P</t>
@@ -6696,6 +7376,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>750 X 220</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -6741,6 +7426,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>AISI 316L</t>
@@ -6786,6 +7476,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NM031</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -6826,6 +7521,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NM076</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -6871,6 +7571,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>1.1/4"</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>AISI 316 C</t>
@@ -6916,6 +7621,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NM031</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>AISI 316L</t>
@@ -6961,6 +7671,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NM038</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>AISI 420</t>
@@ -7006,6 +7721,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>104 X 204</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -7051,6 +7771,11 @@
           <t>NM-STA</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>VI-65/Alu</t>
@@ -7091,6 +7816,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>800mm</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>SAE 1020.</t>
@@ -7098,7 +7828,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>ANSI B16.5</t>
+          <t>NM105-T---</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -7136,6 +7866,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO GG-30</t>
@@ -7181,6 +7916,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>2NS -</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>vesconite hilube</t>
@@ -7226,6 +7966,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
@@ -7271,6 +8016,11 @@
           <t>PCP-NDHP</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>M24 x 120,00mm</t>
+        </is>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>AÇO MOLA HRC-46</t>
@@ -7316,6 +8066,11 @@
           <t>PCP-NDHP</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>M24 x 120,00mm</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>AÇO MOLA HRC-46</t>
@@ -7361,6 +8116,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>NM105</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>UNS S31803</t>
@@ -7406,6 +8166,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
@@ -7446,6 +8211,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>DIN EN 1563 EN GJS 500 7</t>
@@ -7486,6 +8256,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>NBR C</t>
@@ -7493,7 +8268,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -7531,6 +8306,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>154 X 254</t>
+        </is>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>AISI 316</t>
@@ -7571,6 +8351,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>G=1"NPT</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>SAE 1020</t>
@@ -7616,6 +8401,11 @@
           <t>NM-GH</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NM038</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>AISI 304 C</t>
@@ -7661,6 +8451,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>200MM</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -7706,6 +8501,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -7751,6 +8551,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -7796,6 +8601,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>NM105</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>AISI 420</t>
@@ -7836,6 +8646,11 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>NM063</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>AISI 316 C</t>
@@ -7881,6 +8696,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>A = 405mm</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>SAE 1020</t>
@@ -7926,6 +8746,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -7971,6 +8796,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>ASTM A-36</t>
@@ -8016,6 +8846,11 @@
           <t>MSP3S25</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>3000 PSI</t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>SCREW</t>
@@ -8061,6 +8896,11 @@
           <t>NM-RT</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>AISI 304</t>
@@ -8106,6 +8946,11 @@
           <t>MSP-P</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>3NS-</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>FERRO FUNDIDO</t>
@@ -8149,6 +8994,11 @@
       <c r="I172" t="inlineStr">
         <is>
           <t>MSP-P</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Housing</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>SIC</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SIC</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>250MM</t>
+          <t>35X70</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>St</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>NM031BH</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3NS-</t>
+          <t>22mm</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Show-room</t>
+          <t>N.MAC 50C</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2NS-/16H3-</t>
+          <t>ASME B16.5</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>MG1-G60</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>MB</t>
+          <t>25</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>NM038</t>
+          <t>3"SMS</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>3NS-</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -8403,7 +8403,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>NM038</t>
+          <t>2"SMS</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -596,6 +596,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -646,6 +651,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -696,6 +706,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -713,7 +728,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>SIC</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -746,6 +761,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -763,7 +783,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SIC</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,6 +816,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -846,6 +871,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -896,6 +926,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -946,6 +981,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -996,6 +1036,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1046,6 +1091,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1096,6 +1146,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1146,6 +1201,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1196,6 +1256,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1246,6 +1311,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1296,6 +1366,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1346,6 +1421,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1396,6 +1476,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1446,6 +1531,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1496,6 +1586,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1546,6 +1641,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1596,6 +1696,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1646,6 +1751,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1696,6 +1806,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1746,6 +1861,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1796,6 +1916,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1846,6 +1971,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1896,6 +2026,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1946,6 +2081,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -1996,6 +2136,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2046,6 +2191,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2096,6 +2246,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2146,6 +2301,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2196,6 +2356,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2246,6 +2411,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2296,6 +2466,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2346,6 +2521,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2396,6 +2576,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2446,6 +2631,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2496,6 +2686,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2546,6 +2741,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2596,6 +2796,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2646,6 +2851,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2696,6 +2906,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2746,6 +2961,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2796,6 +3016,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2846,6 +3071,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2896,6 +3126,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2946,6 +3181,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -2963,7 +3203,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>St</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -2996,6 +3236,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3046,6 +3291,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3096,6 +3346,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3146,6 +3401,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PÇ</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3196,6 +3456,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3246,6 +3511,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3296,6 +3566,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3313,7 +3588,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>St</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3346,6 +3621,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3396,6 +3676,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3446,6 +3731,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3496,6 +3786,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3546,6 +3841,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3596,6 +3896,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3646,6 +3951,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3696,6 +4006,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3746,6 +4061,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3796,6 +4116,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3846,6 +4171,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3896,6 +4226,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3946,6 +4281,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -3996,6 +4336,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4046,6 +4391,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4096,6 +4446,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4146,6 +4501,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4196,6 +4556,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4246,6 +4611,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4296,6 +4666,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4346,6 +4721,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4396,6 +4776,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4408,7 +4793,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4418,7 +4803,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -4446,6 +4831,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4458,7 +4848,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Show-room</t>
+          <t>N.MAC 50C</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4496,6 +4886,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4546,6 +4941,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4596,6 +4996,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4646,6 +5051,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4696,6 +5106,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4746,6 +5161,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4796,6 +5216,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4846,6 +5271,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4896,6 +5326,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4946,6 +5381,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -4996,6 +5436,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5046,6 +5491,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5096,6 +5546,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5146,6 +5601,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PÇ</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5196,6 +5656,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5246,6 +5711,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5296,6 +5766,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5346,6 +5821,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5396,6 +5876,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5446,6 +5931,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5496,6 +5986,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5546,6 +6041,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5596,6 +6096,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5646,6 +6151,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5696,6 +6206,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5746,6 +6261,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5796,6 +6316,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5846,6 +6371,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5896,6 +6426,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5946,6 +6481,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -5996,6 +6536,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6018,7 +6563,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>MB</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -6046,6 +6591,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6058,7 +6608,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6096,6 +6646,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6141,6 +6696,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6186,6 +6746,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6236,6 +6801,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6286,6 +6856,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6336,6 +6911,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6386,6 +6966,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6436,6 +7021,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6486,6 +7076,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6536,6 +7131,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6548,7 +7148,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -6586,6 +7186,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6636,6 +7241,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6648,7 +7258,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -6686,6 +7296,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6736,6 +7351,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6786,6 +7406,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6836,6 +7461,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6886,6 +7516,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6936,6 +7571,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -6986,6 +7626,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7036,6 +7681,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7081,6 +7731,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7126,6 +7781,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7148,7 +7808,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>NEC 60A</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -7176,6 +7836,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7193,7 +7858,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>NEC 60A</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -7221,6 +7886,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7271,6 +7941,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7321,6 +7996,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7333,7 +8013,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>NM038</t>
+          <t>3"SMS</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -7371,6 +8051,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7416,6 +8101,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7466,6 +8156,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7516,6 +8211,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7561,6 +8261,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7611,6 +8316,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7661,6 +8371,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7711,6 +8426,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7761,6 +8481,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7811,6 +8536,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7818,7 +8548,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>800mm</t>
+          <t>200x8</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -7828,7 +8558,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>NM105-T---</t>
+          <t>ANSI B16.5</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -7856,6 +8586,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7906,6 +8641,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -7956,6 +8696,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8006,6 +8751,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8056,6 +8806,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8106,6 +8861,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8156,6 +8916,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8206,6 +8971,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8251,6 +9021,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8268,7 +9043,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -8296,6 +9071,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8346,6 +9126,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8391,6 +9176,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8441,6 +9231,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8491,6 +9286,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8541,6 +9341,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8591,6 +9396,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8641,6 +9451,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8686,6 +9501,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8736,6 +9556,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8786,6 +9611,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8798,7 +9628,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -8836,6 +9666,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8886,6 +9721,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8936,6 +9776,11 @@
           <t>10</t>
         </is>
       </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>NDB</t>
@@ -8984,6 +9829,11 @@
       <c r="B172" t="inlineStr">
         <is>
           <t>10</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PC</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -496,12 +496,13 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Narrativa</t>
+          <t>SAP123</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>SAP123</t>
+          <t xml:space="preserve">Narrativa
+</t>
         </is>
       </c>
     </row>
@@ -513,7 +514,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MSTAE (X-Plant Mat.Status)_x000d_</t>
+          <t>MSTAE (X-Plant Mat.Status)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -528,7 +529,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MAKTX (PT)_x000d_</t>
+          <t>MAKTX (PT)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -567,11 +568,6 @@
         </is>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>Narrativa</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>Internal comment (narrative)</t>
         </is>
@@ -598,21 +594,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -620,27 +601,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>INOX</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>FAF37-DRN90LP4</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>verificar internal comment</t>
+          <t>TUBO: NTZ DIAM. NOMINAL: 238 PRESSÃO: 100 GEOMETRIA: ST VAZÃO 1.6 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO BORRACHA EST: 286 ANEL INOX SOLDA: NÃO</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MOTOREDUTOR NETZSCH-SEW PARA BOMBA: NM038B/CÓDIGO NETZSCH: NS37/              REDUÇÃO: I=4,22/ROTAÇÃO: N=416RPM/FORMA CONSTR: M1/POTÊNCIA MOTOR: 2,20KW/    FREQUENCIA: 60HZ/EFICIÊNCIA: ALTO RENDIMENTO PREMIUM (IR3)/                   REFRIGERAÇÃO: TFVF/NRº PÓLOS: 4/GRAU PROTEÇÃO: IP55/TENSÃO: 220/380/440/760V/ ISOLAMENTO: F/MODELO SEW: FAF37-DRN90LP4/V/TF/                                CARAC. ESPECIAL: COM TERMISTOR TIPO PTC - TF,VENT FORÇ"V" MONOF 50/60HZ: 220~277VAC; 50HZ: TRIÂNG,200~303VAC; ESTR,346~525VAC; 60HZ: TRIÂNG,220~332VAC; ESTR,380~575VAC/</t>
+          <t>TUBO: NTZ DIAM. NOMINAL: 238 PRESSÃO: 100 GEOMETRIA: ST VAZÃO 1.6 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO BORRACHA EST: 286 ANEL INOX SOLDA: NÃO</t>
         </is>
       </c>
     </row>
@@ -665,21 +646,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Redutor</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Reducer</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Reductor</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -821,21 +787,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -858,21 +809,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -920,21 +856,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -982,21 +903,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1004,7 +910,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>PIN</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1014,12 +920,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ400*120DT50-SH - DIAM. EXTERNO MÁX. 104 MM  ESTATOR 4" 286  TUBO DE EXTENSÃO 4"  CROSS OVER 2.7/8" EU BOX STOP PIN - 2.7/8" EU PIN TODAS AS PEÇAS DEVERÃO SER SOLDADAS</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ400*120DT50-SH - DIAM. EXTERNO MÁX. 104 MM  ESTATOR 4" 286  TUBO DE EXTENSÃO 4"  CROSS OVER 2.7/8" EU BOX STOP PIN - 2.7/8" EU PIN TODAS AS PEÇAS DEVERÃO SER SOLDADAS</t>
         </is>
       </c>
     </row>
@@ -1091,21 +997,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1153,21 +1044,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1215,21 +1091,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1277,21 +1138,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1339,21 +1185,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1401,21 +1232,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>2.3/8"</t>
@@ -1433,12 +1249,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ166*120ST0.8   ROTOR Z2 1045 HCP25 COUPLING 1/2" X 5/8"  ESTATOR 286 NU CROSS OVER - 1.66" X 2.3/8" EU BOX STOP PIN - 1.66" X 2.3/8" EU PIN</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ166*120ST0.8   ROTOR Z2 1045 HCP25 COUPLING 1/2" X 5/8"  ESTATOR 286 NU CROSS OVER - 1.66" X 2.3/8" EU BOX STOP PIN - 1.66" X 2.3/8" EU PIN</t>
         </is>
       </c>
     </row>
@@ -1463,21 +1279,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>4.1/2"</t>
@@ -1495,12 +1296,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ450*090DT150-SH ESTATOR 286 NUE - SOLDADO C/TUBO DE EXTENSÃO 4.1/2" NUE - SOLDADO C/LUVA SUPERIOR 4.1/2" NU X 3.1/2" EUE BOX - SOLDADA NO TUBO DE EXTENSÃO ROTOR P5 1045 HCP25 C/STOP PIN SOLDADO -  4.1/2" NU X 2.7/8" EU PIN</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ450*090DT150-SH ESTATOR 286 NUE - SOLDADO C/TUBO DE EXTENSÃO 4.1/2" NUE - SOLDADO C/LUVA SUPERIOR 4.1/2" NU X 3.1/2" EUE BOX - SOLDADA NO TUBO DE EXTENSÃO ROTOR P5 1045 HCP25 C/STOP PIN SOLDADO -  4.1/2" NU X 2.7/8" EU PIN</t>
         </is>
       </c>
     </row>
@@ -1525,21 +1326,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>4.1/2"</t>
@@ -1557,12 +1343,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ450*120DT150-SH ESTATOR 286 NUE - SOLDADO C/TUBO DE EXTENSÃO 4.1/2" NUE - SOLDADO C/LUVA SUPERIOR 4.1/2" NU X 3.1/2" EUE BOX - SOLDADA NO TUBO DE EXTENSÃO ROTOR P5 1045 HCP25 C/STOP PIN SOLDADO -  4.1/2" NU X 2.7/8" EU PIN</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ450*120DT150-SH ESTATOR 286 NUE - SOLDADO C/TUBO DE EXTENSÃO 4.1/2" NUE - SOLDADO C/LUVA SUPERIOR 4.1/2" NU X 3.1/2" EUE BOX - SOLDADA NO TUBO DE EXTENSÃO ROTOR P5 1045 HCP25 C/STOP PIN SOLDADO -  4.1/2" NU X 2.7/8" EU PIN</t>
         </is>
       </c>
     </row>
@@ -1587,21 +1373,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1649,21 +1420,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1711,21 +1467,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1773,21 +1514,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1835,21 +1561,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1897,21 +1608,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1959,21 +1655,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2021,21 +1702,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2083,21 +1749,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2145,21 +1796,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2207,21 +1843,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2239,12 +1860,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ400*200DT50 ROTOR P6 1045 HCP12 ESTATOR 286 NU TUBO DE EXTENSÃO 4" NU  LUVA ESTATOR 4" NU BOX X 4" NU BOX CROSS OVER 4" NU BOX  X 2.7/8" EU BOX STOP PIN - 4" NU X 2.7/8" EU PIN</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ400*200DT50 ROTOR P6 1045 HCP12 ESTATOR 286 NU TUBO DE EXTENSÃO 4" NU  LUVA ESTATOR 4" NU BOX X 4" NU BOX CROSS OVER 4" NU BOX  X 2.7/8" EU BOX STOP PIN - 4" NU X 2.7/8" EU PIN</t>
         </is>
       </c>
     </row>
@@ -2269,21 +1890,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -2331,21 +1937,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2393,21 +1984,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2455,21 +2031,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>4.1/2"</t>
@@ -2487,12 +2048,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ450*120DT150-SH ROTOR P7 1045 HCP25 ESTATOR 286 NU TUBO DE EXTENSAO 4.1/2" - 6PÉS (CLIENTE IRÁ SOLDAR POR CONTA) STOP PIN - 4.1/2" NU X 2.7/8" EU PIN SOLDADO CONEXÃO SUPERIOR 3.1/2" EU</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ450*120DT150-SH ROTOR P7 1045 HCP25 ESTATOR 286 NU TUBO DE EXTENSAO 4.1/2" - 6PÉS (CLIENTE IRÁ SOLDAR POR CONTA) STOP PIN - 4.1/2" NU X 2.7/8" EU PIN SOLDADO CONEXÃO SUPERIOR 3.1/2" EU</t>
         </is>
       </c>
     </row>
@@ -2517,21 +2078,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>4.1/2"</t>
@@ -2539,7 +2085,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ROTOR</t>
+          <t>V-630</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2549,12 +2095,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ450*162DT150 ROTOR P4 V-630 WITHOUT CHROME (OBS.: TO FORESSE DIMENSIONS  WITH LAYER OF 0,15 MM IN THE CREST POINT AND 0,18MM IN VALLEY POINT OF ROTOR.)  THE ROTOR CONEXION AND FLEXI ROD CONEXION WILL BE LEFT THREADS. ESTATOR 237 4.1/2 x 8 NU WITH REDUCED DIAMETER. THE CASING IS 7". O.D. FOR THE STATOR SHALL NOT OVER 132MM.  FLEXI ROD V-630 STOP PIN - 4.1/2" EU PIN</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ450*162DT150 ROTOR P4 V-630 WITHOUT CHROME (OBS.: TO FORESSE DIMENSIONS  WITH LAYER OF 0,15 MM IN THE CREST POINT AND 0,18MM IN VALLEY POINT OF ROTOR.)  THE ROTOR CONEXION AND FLEXI ROD CONEXION WILL BE LEFT THREADS. ESTATOR 237 4.1/2 x 8 NU WITH REDUCED DIAMETER. THE CASING IS 7". O.D. FOR THE STATOR SHALL NOT OVER 132MM.  FLEXI ROD V-630 STOP PIN - 4.1/2" EU PIN</t>
         </is>
       </c>
     </row>
@@ -2579,21 +2125,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>4.1/2"</t>
@@ -2611,12 +2142,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ450*240DT74  ROTOR P8 1045 HCP25 ESTATOR 286-R EU ADAPTER COUPLING 1.1/8" X 1" STOP PIN - 3.1/2" EU PIN CROSS OVER  4.1/2" EU X 3.1/2" EU EXTENSION TUBE 4.1/2" EU - 6 PÉS</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ450*240DT74  ROTOR P8 1045 HCP25 ESTATOR 286-R EU ADAPTER COUPLING 1.1/8" X 1" STOP PIN - 3.1/2" EU PIN CROSS OVER  4.1/2" EU X 3.1/2" EU EXTENSION TUBE 4.1/2" EU - 6 PÉS</t>
         </is>
       </c>
     </row>
@@ -2641,21 +2172,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2750,21 +2266,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2812,21 +2313,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -2874,21 +2360,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2911,21 +2382,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2948,21 +2404,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2985,21 +2426,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3047,21 +2473,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>120</t>
@@ -3109,21 +2520,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -3176,21 +2572,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3208,12 +2589,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>BOMBA PCP MOD. NTZ400*120ST25   ROTOR P6 1045 HCP25 ESTATOR 286-R NU LUVA ESTATOR 4" NU BOX  X  4" NU BOX TUBO DE EXTENSÃO 4" NU - 6 PÉS CROSS OVER 4" NU BOX  X 3-1/2" NU BOX STOP PIN - 3-1/2" NU PIN</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>BOMBA PCP MOD. NTZ400*120ST25   ROTOR P6 1045 HCP25 ESTATOR 286-R NU LUVA ESTATOR 4" NU BOX  X  4" NU BOX TUBO DE EXTENSÃO 4" NU - 6 PÉS CROSS OVER 4" NU BOX  X 3-1/2" NU BOX STOP PIN - 3-1/2" NU PIN</t>
         </is>
       </c>
     </row>
@@ -3238,21 +2619,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3270,12 +2636,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>BOMBA PCP MOD. NTZ400*120ST25   ROTOR P5 1045 HCP25 ESTATOR 286-R NU LUVA ESTATOR 4" NU BOX  X  4" NU BOX TUBO DE EXTENSÃO 4" NU - 6 PÉS CROSS OVER 4" NU BOX  X 3-1/2" NU BOX STOP PIN - 3-1/2" NU PIN</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>BOMBA PCP MOD. NTZ400*120ST25   ROTOR P5 1045 HCP25 ESTATOR 286-R NU LUVA ESTATOR 4" NU BOX  X  4" NU BOX TUBO DE EXTENSÃO 4" NU - 6 PÉS CROSS OVER 4" NU BOX  X 3-1/2" NU BOX STOP PIN - 3-1/2" NU PIN</t>
         </is>
       </c>
     </row>
@@ -3300,21 +2666,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3362,21 +2713,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Redutor</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Reducer</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Reductor</t>
-        </is>
-      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -3394,17 +2730,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>BOMBA PCP  TUBO: NTZ/DIAM. NOMINAL: 278/PRESSÃO: 120/GEOMETRIA: ST/VAZÃO 14/  SH: NÃO/PADDLE: NÃO/THT: NÃO/H: NÃO/LUVA ROT SH: NÃO/ANEL INOX SOLDA: NÃO/</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>BOMBA PCP  TUBO: NTZ/DIAM. NOMINAL: 278/PRESSÃO: 120/GEOMETRIA: ST/VAZÃO 14/  SH: NÃO/PADDLE: NÃO/THT: NÃO/H: NÃO/LUVA ROT SH: NÃO/ANEL INOX SOLDA: NÃO/</t>
         </is>
       </c>
     </row>
@@ -3429,21 +2765,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3491,21 +2812,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3553,21 +2859,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>2.3/8"</t>
@@ -3615,21 +2906,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Acoplador</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Coupler</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Acoplador</t>
-        </is>
-      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3647,12 +2923,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ400*300ST25-H   ROTOR P10 VL40 HCP12 ESTATOR 332-R - COM LUVAS 3.1/2" EU BOX NAS EXTREMIDADES TUBO DE EXTENSÃO 3-1/2" EU BOX - 6 FEET LUVA 3-1/2" EU BOX STOP PIN  - 3.1/2" EU PIN</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ400*300ST25-H   ROTOR P10 VL40 HCP12 ESTATOR 332-R - COM LUVAS 3.1/2" EU BOX NAS EXTREMIDADES TUBO DE EXTENSÃO 3-1/2" EU BOX - 6 FEET LUVA 3-1/2" EU BOX STOP PIN  - 3.1/2" EU PIN</t>
         </is>
       </c>
     </row>
@@ -3677,21 +2953,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3709,12 +2970,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ400*300ST25-H   ROTOR P9 VL40 HCP25 ESTATOR 286-R - COM LUVAS 3.1/2" EU BOX NAS EXTREMIDADES TUBO DE EXTENSÃO 3-1/2" EU BOX - 6 FEET LUVA 3-1/2" EU BOX STOP PIN  - 3.1/2" EU PIN</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ400*300ST25-H   ROTOR P9 VL40 HCP25 ESTATOR 286-R - COM LUVAS 3.1/2" EU BOX NAS EXTREMIDADES TUBO DE EXTENSÃO 3-1/2" EU BOX - 6 FEET LUVA 3-1/2" EU BOX STOP PIN  - 3.1/2" EU PIN</t>
         </is>
       </c>
     </row>
@@ -3739,21 +3000,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -3801,21 +3047,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3863,21 +3094,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Motoredutor</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Gear Motor</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Motorreductor</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -3999,21 +3215,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -4036,12 +3237,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
+          <t>TE DE BOMBEIO COM VÁLVULA DE SEGURANÇA P/ HASTE 1-1/2"  MATERIAL 1020/1045/NBR01 CONEXÃO SUPERIOR: FLANGE 3.1/8" - 2000 PSI  CONEXÃO INFERIOR: FLANGE 7.1/16"- 3000 PSI C/ROSCA 4-1/2 EU BOX CONEXÃO LATERAL: ROSCA FEMEA 3"LP E 2"LP                                               (SUBS. PELO ITEM NDB4995495) RING JOINT + PARAFUSOS, PORCAS E ARRUELAS CONEXÕES FLANGEADAS CONF. NORMA API 6A TIPO 6B CONEXÕES ROSCADAS CONF. NORMA API 5B</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>TE DE BOMBEIO COM VÁLVULA DE SEGURANÇA P/ HASTE 1-1/2"  MATERIAL 1020/1045/NBR01 CONEXÃO SUPERIOR: FLANGE 3.1/8" - 2000 PSI  CONEXÃO INFERIOR: FLANGE 7.1/16"- 3000 PSI C/ROSCA 4-1/2 EU BOX CONEXÃO LATERAL: ROSCA FEMEA 3"LP E 2"LP                                               (SUBS. PELO ITEM NDB4995495) RING JOINT + PARAFUSOS, PORCAS E ARRUELAS CONEXÕES FLANGEADAS CONF. NORMA API 6A TIPO 6B CONEXÕES ROSCADAS CONF. NORMA API 5B</t>
         </is>
       </c>
     </row>
@@ -4066,21 +3267,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -4098,12 +3284,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
+          <t>CONJ. EST/ROT/STOP PIN MOD. NTZ400*240ST50-H   ROTOR P10 1045 HCP25  ESTATOR 286 NU LUVA 4" NU BOX x 4" NU BOX LUVA ADAPTADORA 1" X 1-1/8"  STOP PIN 3.1/2" EU PIN</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>CONJ. EST/ROT/STOP PIN MOD. NTZ400*240ST50-H   ROTOR P10 1045 HCP25  ESTATOR 286 NU LUVA 4" NU BOX x 4" NU BOX LUVA ADAPTADORA 1" X 1-1/8"  STOP PIN 3.1/2" EU PIN</t>
         </is>
       </c>
     </row>
@@ -4128,21 +3314,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Quench</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Quench</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Quench</t>
-        </is>
-      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -4190,21 +3361,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -4257,21 +3413,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>special</t>
@@ -4319,21 +3460,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>special</t>
@@ -4381,21 +3507,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Anel Intermediário</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Intermediate Ring</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Anillo intermedio</t>
-        </is>
-      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>150</t>
@@ -4443,21 +3554,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Corpo Pcp</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Pcp housing</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Cuerpo Pcp</t>
-        </is>
-      </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>special</t>
@@ -4505,21 +3601,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Corpo Pcp</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Pcp housing</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Cuerpo Pcp</t>
-        </is>
-      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>special</t>
@@ -4567,21 +3648,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -4629,21 +3695,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -4661,17 +3712,17 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
+          <t>BOMBA PCP  TUBO: NTZ/DIAM. NOMINAL: 400/PRESSÃO: 090/GEOMETRIA: ST/VAZÃO 120/ SH: NÃO/PADDLE: NÃO/THT: NÃO/H: NÃO/LUVA ROT SH: NÃO/ANEL INOX SOLDA: NÃO/</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>BOMBA PCP  TUBO: NTZ/DIAM. NOMINAL: 400/PRESSÃO: 090/GEOMETRIA: ST/VAZÃO 120/ SH: NÃO/PADDLE: NÃO/THT: NÃO/H: NÃO/LUVA ROT SH: NÃO/ANEL INOX SOLDA: NÃO/</t>
         </is>
       </c>
     </row>
@@ -4696,21 +3747,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -4758,21 +3794,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>120</t>
@@ -4820,21 +3841,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>120</t>
@@ -4904,21 +3910,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4941,21 +3932,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -5003,21 +3979,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J78" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5065,21 +4026,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Adaptador</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Adapter</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Adaptador</t>
-        </is>
-      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -5097,12 +4043,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>BOMBA PCP MOD. - NTZ400*090ST120   ROTOR P5 1045 HCP25  ESTATOR 286 C/3.1/2" EU BOX STOP PIN - 3.1/2" EU PIN TUBO DE EXTENSÃO 3.1/2" EU PIN - 6 FEET</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>BOMBA PCP MOD. - NTZ400*090ST120   ROTOR P5 1045 HCP25  ESTATOR 286 C/3.1/2" EU BOX STOP PIN - 3.1/2" EU PIN TUBO DE EXTENSÃO 3.1/2" EU PIN - 6 FEET</t>
         </is>
       </c>
     </row>
@@ -5127,21 +4073,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Display/Stand Com Rotor</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Display/Stand with Rotor</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Expositor/Soporte con Rotor</t>
-        </is>
-      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -5189,24 +4120,9 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5253,7 +4169,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5298,21 +4214,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Eixo Ligação</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Connecting Shaft</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Eje de enlace</t>
-        </is>
-      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -5360,21 +4261,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Batente</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Quicio</t>
-        </is>
-      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>120</t>
@@ -5422,21 +4308,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>120</t>
@@ -5484,21 +4355,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>180</t>
@@ -5593,21 +4449,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Fuso Motor</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Motor Spindle</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Husillo del motor</t>
-        </is>
-      </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>100</t>
@@ -5655,21 +4496,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Fuso Motor</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Motor Spindle</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Husillo del motor</t>
-        </is>
-      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -5717,21 +4543,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>EU-M</t>
@@ -5779,21 +4590,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Eixo Movido</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Moved Shaft</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Accionado por eje</t>
-        </is>
-      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -5841,21 +4637,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Eixo motor</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Motor shaft</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Eje motor</t>
-        </is>
-      </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -5903,21 +4684,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Throat</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Garganta</t>
-        </is>
-      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -5965,26 +4731,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Porta selo</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Mechanical seal housing</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Caja del sello mecánico</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Aufnahmegehäuse</t>
-        </is>
-      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -6032,21 +4778,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -6094,24 +4825,9 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Suporte</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bracket</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Apoyo</t>
-        </is>
-      </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6126,12 +4842,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>BOMBA PCP NETZSCH MODELO NTZ350*100DT40-SH   ROTOR P6 1045 HCP25 ESTATOR 286 EU CROSS OVER 3-1/2" EU X 2-7/8" EU BOX - SOLDADO TUBO DE EXTENSÃO 3-1/2" - 6 PÉS - SOLDADO STOP PIN - 2-7/8" EU PIN - SOLDADO</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>BOMBA PCP NETZSCH MODELO NTZ350*100DT40-SH   ROTOR P6 1045 HCP25 ESTATOR 286 EU CROSS OVER 3-1/2" EU X 2-7/8" EU BOX - SOLDADO TUBO DE EXTENSÃO 3-1/2" - 6 PÉS - SOLDADO STOP PIN - 2-7/8" EU PIN - SOLDADO</t>
         </is>
       </c>
     </row>
@@ -6156,21 +4872,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Tampa Dianteira</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Front Cover</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Portada</t>
-        </is>
-      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -6218,21 +4919,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Conexão</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Connection</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Conexión</t>
-        </is>
-      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -6280,21 +4966,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Base-e</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Base plate</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Base-e</t>
-        </is>
-      </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -6342,21 +5013,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Tubo De Imersão</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Immersion Tube</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Tubo de inmersión</t>
-        </is>
-      </c>
       <c r="J100" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -6426,21 +5082,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Kit Bomba</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Pump Kit</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Kit de bomba</t>
-        </is>
-      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -6488,21 +5129,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Acoplamento</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Coupling</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Acoplamiento</t>
-        </is>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6510,7 +5136,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6555,21 +5181,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6622,21 +5233,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Eixo Ligação</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Connecting Shaft</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Eje de enlace</t>
-        </is>
-      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6689,21 +5285,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6756,21 +5337,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6823,21 +5389,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6890,21 +5441,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6957,26 +5493,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Perfil</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Perfil</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Profil</t>
-        </is>
-      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>PCP-NDH</t>
@@ -6999,12 +5515,12 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
+          <t>CABECOTE DE ACIONAMENTO PCP NDH030DH20-HB   C/FREIO HIDRÁULICO  P/HASTE DE 1 1/4" C/FLANGE 3.1/8" - 2000 PSI       ACESSÓRIOS: 01 - PLACA DE ARRASTE C/PROTEÇÃO 01 - JOGO DE POLIAS E CORREIAS PARA 250~300 RPM           01 - BASE METÁLICA AJUSTÁVEL PARA MOTOR 200L, 25 HP, 50 HZ, 380V, 6 POLOS SUPORTES 01 - RING JOINT R31</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>CABECOTE DE ACIONAMENTO PCP NDH030DH20-HB   C/FREIO HIDRÁULICO  P/HASTE DE 1 1/4" C/FLANGE 3.1/8" - 2000 PSI       ACESSÓRIOS: 01 - PLACA DE ARRASTE C/PROTEÇÃO 01 - JOGO DE POLIAS E CORREIAS PARA 250~300 RPM           01 - BASE METÁLICA AJUSTÁVEL PARA MOTOR 200L, 25 HP, 50 HZ, 380V, 6 POLOS SUPORTES 01 - RING JOINT R31</t>
         </is>
       </c>
     </row>
@@ -7081,21 +5597,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I112" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -7103,7 +5604,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7118,12 +5619,12 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ350*120ST16.4   ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS LUVA 3-1/2" NU BOX CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU BOX X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ350*120ST16.4   ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS LUVA 3-1/2" NU BOX CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU BOX X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7155,7 +5656,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -7170,12 +5671,12 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ350*120ST20  ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS LUVA 3-1/2" NU BOX CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU BOX X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ350*120ST20  ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS LUVA 3-1/2" NU BOX CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU BOX X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7207,7 +5708,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7222,12 +5723,12 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ350*120ST25  ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS LUVA 3-1/2" NU BOX CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU BOX X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ350*120ST25  ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS LUVA 3-1/2" NU BOX CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU BOX X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7274,12 +5775,12 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
+          <t>CABECOTE DE ACIONAMENTO PCP NDH030DH20-HB  C/FREIO HIDRÁULICO  P/HASTE DE 1 1/4" C/FLANGE 3.1/8" - 2000 PSI - RJ31       ACESSÓRIOS: 01 - PLACA DE ARRASTE 01 - POLIA MOVIDA A670           01 - POLIA MOTORA A170 01 - BELT SET 01 - PROTEÇÃO P/CORREIAS E POLIAS 01 - BASE METÁLICA AJUSTÁVEL PARA MOTOR 01 - SUPORTE  i=3,94</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>CABECOTE DE ACIONAMENTO PCP NDH030DH20-HB  C/FREIO HIDRÁULICO  P/HASTE DE 1 1/4" C/FLANGE 3.1/8" - 2000 PSI - RJ31       ACESSÓRIOS: 01 - PLACA DE ARRASTE 01 - POLIA MOVIDA A670           01 - POLIA MOTORA A170 01 - BELT SET 01 - PROTEÇÃO P/CORREIAS E POLIAS 01 - BASE METÁLICA AJUSTÁVEL PARA MOTOR 01 - SUPORTE  i=3,94</t>
         </is>
       </c>
     </row>
@@ -7311,7 +5812,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7326,12 +5827,12 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ400*120ST78  ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1-1/8" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU PIN X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ400*120ST78  ESTATOR 286 NU ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1-1/8" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU PIN X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7356,21 +5857,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Externo</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Outside</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Außen</t>
-        </is>
-      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -7393,12 +5879,12 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ400*150ST58  ESTATOR 286 NU BOX WELDED ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1-1/8" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU PIN X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ400*150ST58  ESTATOR 286 NU BOX WELDED ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1-1/8" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU PIN X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7423,21 +5909,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Parafuso</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Screw</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Tornillo</t>
-        </is>
-      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -7460,12 +5931,12 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ400*120ST40  ESTATOR 286 NU BOX WELDED ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU PIN X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ400*120ST40  ESTATOR 286 NU BOX WELDED ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 1" - SH TUBO DE EXTENSÃO 3-1/2" NU - 6 PÉS CROSS OVER 3-1/2" NU BOX  X 2-7/8" NU BOX STOP PIN - 3-1/2" NU PIN X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7512,12 +5983,12 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ278*150ST10  ESTATOR 286 NU  ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 7/8" - SH LUVA 2-7/8" NU BOX STOP PIN - 2-7/8" NU BOX X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ278*150ST10  ESTATOR 286 NU  ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 7/8" - SH LUVA 2-7/8" NU BOX STOP PIN - 2-7/8" NU BOX X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7564,12 +6035,12 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ278*120ST10  ESTATOR 286 NU  ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 7/8" - SH LUVA 2-7/8" NU BOX STOP PIN - 2-7/8" NU BOX X  2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ278*120ST10  ESTATOR 286 NU  ROTOR P4 1045 HCP25 SUB-COUPLING 7/8" X 7/8" - SH LUVA 2-7/8" NU BOX STOP PIN - 2-7/8" NU BOX X  2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7616,12 +6087,12 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
+          <t>CABECOTE DE ACIONAMENTO PCP NDH040DH20-HB  C/FREIO HIDRÁULICO  P/HASTE DE 1 1/4" C/FLANGE 3.1/8" - 2000 PSI - RJ31       ACESSÓRIOS: 01 - PLACA DE ARRASTE 01 - POLIA MOVIDA A670           01 - POLIA MOTORA A170 01 - BELT SET 01 - PROTEÇÃO P/CORREIAS E POLIAS 01 - BASE METÁLICA AJUSTÁVEL PARA MOTOR 01 - SUPORT 01 - RING JOINT  i=3,94</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>CABECOTE DE ACIONAMENTO PCP NDH040DH20-HB  C/FREIO HIDRÁULICO  P/HASTE DE 1 1/4" C/FLANGE 3.1/8" - 2000 PSI - RJ31       ACESSÓRIOS: 01 - PLACA DE ARRASTE 01 - POLIA MOVIDA A670           01 - POLIA MOTORA A170 01 - BELT SET 01 - PROTEÇÃO P/CORREIAS E POLIAS 01 - BASE METÁLICA AJUSTÁVEL PARA MOTOR 01 - SUPORT 01 - RING JOINT  i=3,94</t>
         </is>
       </c>
     </row>
@@ -7720,12 +6191,12 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ350*100ST25   ROTOR Z2 1045 HCP25 SUB-COUPLING 1" X 7/8" - SH ESTATOR 286 EU TUBO DE EXTENSÃO 3-1/2" EU - 6 PÉS LUVA 3-1/2" EU BOX CROSS OVER 3-1/2" EU BOX  X 2-7/8" NU BOX  STOP PIN 2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ350*100ST25   ROTOR Z2 1045 HCP25 SUB-COUPLING 1" X 7/8" - SH ESTATOR 286 EU TUBO DE EXTENSÃO 3-1/2" EU - 6 PÉS LUVA 3-1/2" EU BOX CROSS OVER 3-1/2" EU BOX  X 2-7/8" NU BOX  STOP PIN 2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7750,21 +6221,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -7787,12 +6243,12 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
+          <t>BOMBA PCP - NTZ350*100DT40   ROTOR Z2 1045 HCP25 SUB-COUPLING 1" X 7/8" - SH ESTATOR 286 EU TUBO DE EXTENSÃO 3-1/2" EU - 6 PÉS LUVA 3-1/2" EU BOX CROSS OVER 3-1/2" EU BOX  X 2-7/8" NU BOX  STOP PIN 2-7/8" NU PIN</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>BOMBA PCP - NTZ350*100DT40   ROTOR Z2 1045 HCP25 SUB-COUPLING 1" X 7/8" - SH ESTATOR 286 EU TUBO DE EXTENSÃO 3-1/2" EU - 6 PÉS LUVA 3-1/2" EU BOX CROSS OVER 3-1/2" EU BOX  X 2-7/8" NU BOX  STOP PIN 2-7/8" NU PIN</t>
         </is>
       </c>
     </row>
@@ -7817,21 +6273,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Corpo De Desgaste</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Wear housing</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Cuerpo de desgaste</t>
-        </is>
-      </c>
       <c r="I125" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -7844,12 +6285,12 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -7884,21 +6325,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I126" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -7916,7 +6342,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -7951,21 +6377,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I127" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -7983,7 +6394,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -8018,21 +6429,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8050,7 +6446,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -8097,12 +6493,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -8149,12 +6545,12 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -8201,12 +6597,12 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -8248,7 +6644,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8258,7 +6654,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -8305,12 +6701,12 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -8362,7 +6758,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -8414,7 +6810,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -8466,7 +6862,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -8518,7 +6914,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -8570,7 +6966,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -8622,7 +7018,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -8669,12 +7065,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -8721,12 +7117,12 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -8761,26 +7157,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Camisa</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Shell</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Camisa</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Mantel</t>
-        </is>
-      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8798,7 +7174,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -8850,7 +7226,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -8897,12 +7273,12 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -8937,21 +7313,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Polido</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Poliert</t>
-        </is>
-      </c>
       <c r="I145" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8964,12 +7325,12 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -9016,12 +7377,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -9056,21 +7417,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Estator </t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Stator</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Estator</t>
-        </is>
-      </c>
       <c r="I147" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9083,12 +7429,12 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -9175,21 +7521,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Corpo De Desgaste</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Wear housing</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Cuerpo de desgaste</t>
-        </is>
-      </c>
       <c r="I149" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9207,7 +7538,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -9242,21 +7573,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Mancal</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Bearing</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Cojinete</t>
-        </is>
-      </c>
       <c r="I150" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9274,7 +7590,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -9309,21 +7625,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Corpo De Desgaste</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Wear housing</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Cuerpo de desgaste</t>
-        </is>
-      </c>
       <c r="I151" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9336,12 +7637,12 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -9383,7 +7684,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -9450,12 +7751,12 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
+          <t>TE DE BOMBEIO 3-1/8"-3000PSI X 7-1/16"-3000PSI    CONEXÃO SUPERIOR: FLANGE 3.1/8" - 3000 PSI  CONEXÃO INFERIOR: FLANGE 7.1/16"- 3000 PSI  CONEXÃO LATERAL: ROSCA FEMEA 2"LP E 3"LP COM PARAFUSOS, PORCAS E ARRUELAS CONEXÕES FLANGEADAS CONF. NORMA API 6A TIPO 6B CONEXÕES ROSCADAS CONF. NORMA API 5B</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>TE DE BOMBEIO 3-1/8"-3000PSI X 7-1/16"-3000PSI    CONEXÃO SUPERIOR: FLANGE 3.1/8" - 3000 PSI  CONEXÃO INFERIOR: FLANGE 7.1/16"- 3000 PSI  CONEXÃO LATERAL: ROSCA FEMEA 2"LP E 3"LP COM PARAFUSOS, PORCAS E ARRUELAS CONEXÕES FLANGEADAS CONF. NORMA API 6A TIPO 6B CONEXÕES ROSCADAS CONF. NORMA API 5B</t>
         </is>
       </c>
     </row>
@@ -9487,7 +7788,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9532,21 +7833,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Pé Da Bomba</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Pump Foot</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Bomba de pie</t>
-        </is>
-      </c>
       <c r="I155" t="inlineStr">
         <is>
           <t>PCP-NDH</t>
@@ -9554,7 +7840,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9599,21 +7885,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Bocal De Sucção</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Suction Nozzle</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Boquilla de aspiración</t>
-        </is>
-      </c>
       <c r="I156" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9631,7 +7902,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -9678,12 +7949,12 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -9740,12 +8011,12 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
+          <t>TUBO: NTZ DIAM. NOMINAL: 278 PRESSÃO: 100 GEOMETRIA: ST VAZÃO 14 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO BORRACHA EST: 237 ANEL INOX SOLDA: NÃO OBS: -/-</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>TUBO: NTZ DIAM. NOMINAL: 278 PRESSÃO: 100 GEOMETRIA: ST VAZÃO 14 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO BORRACHA EST: 237 ANEL INOX SOLDA: NÃO OBS: -/-</t>
         </is>
       </c>
     </row>
@@ -9836,7 +8107,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>SAE4140</t>
+          <t>SAE1045</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -9846,12 +8117,12 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
+          <t>MODELO: SERVICE BOP HASTE: 1.1/4" CONEXÃO SUP: FLANGED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 3000 CON INT SUP: 3.1/2" NR CON INT SUP: EU API 5B CONEXÃO INF: FLANGED TAM CONEXÃO INF: 3.1/8" NORMA CON SUP: API 6A CL PR CON INF: 5000 NR CON INT INF: EU API 5B  DIAM PASSAGEM: 79 SAIDA PRODUÇÃO: 2" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: SAE1045 MAT PISTOES: SAE4140 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>MODELO: SERVICE BOP HASTE: 1.1/4" CONEXÃO SUP: FLANGED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 3000 CON INT SUP: 3.1/2" NR CON INT SUP: EU API 5B CONEXÃO INF: FLANGED TAM CONEXÃO INF: 3.1/8" NORMA CON SUP: API 6A CL PR CON INF: 5000 NR CON INT INF: EU API 5B  DIAM PASSAGEM: 79 SAIDA PRODUÇÃO: 2" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: SAE1045 MAT PISTOES: SAE4140 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
         </is>
       </c>
     </row>
@@ -9888,7 +8159,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>SAE4140</t>
+          <t>SAE1045</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -9898,12 +8169,12 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>MODELO: SERVICE BOP HASTE: 1.1/4" CONEXÃO SUP: FLANGED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 3000 CON INT SUP: 3.1/2" NR CON INT SUP: EU API 5B CONEXÃO INF: FLANGED TAM CONEXÃO INF: 3.1/8" NORMA CON SUP: API 6A CL PR CON INF: 3000 NR CON INT INF: EU API 5B  DIAM PASSAGEM: 79 SAIDA PRODUÇÃO: 2" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: SAE1045 MAT PISTOES: SAE4140 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>MODELO: SERVICE BOP HASTE: 1.1/4" CONEXÃO SUP: FLANGED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 3000 CON INT SUP: 3.1/2" NR CON INT SUP: EU API 5B CONEXÃO INF: FLANGED TAM CONEXÃO INF: 3.1/8" NORMA CON SUP: API 6A CL PR CON INF: 3000 NR CON INT INF: EU API 5B  DIAM PASSAGEM: 79 SAIDA PRODUÇÃO: 2" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: SAE1045 MAT PISTOES: SAE4140 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
         </is>
       </c>
     </row>
@@ -9945,17 +8216,17 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
+          <t>TUBO: NTZ DIAM. NOMINAL: 400 PRESSÃO: 090 GEOMETRIA: ST VAZÃO 78 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO DIAM LUVA ROTOR: SH BORRACHA EST: 299 ANEL INOX SOLDA: NÃO OBS: -/-</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>TUBO: NTZ DIAM. NOMINAL: 400 PRESSÃO: 090 GEOMETRIA: ST VAZÃO 78 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO DIAM LUVA ROTOR: SH BORRACHA EST: 299 ANEL INOX SOLDA: NÃO OBS: -/-</t>
         </is>
       </c>
     </row>
@@ -10002,12 +8273,12 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
+          <t>TUBO: NTZ DIAM. NOMINAL: 278 PRESSÃO: 180 GEOMETRIA: ST VAZÃO 10 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO DIAM LUVA ROTOR: SH BORRACHA EST: 286 ANEL INOX SOLDA: NÃO OBS: -/-</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>TUBO: NTZ DIAM. NOMINAL: 278 PRESSÃO: 180 GEOMETRIA: ST VAZÃO 10 SH: NÃO PADDLE: NÃO THT: NÃO H: NÃO DIAM LUVA ROTOR: SH BORRACHA EST: 286 ANEL INOX SOLDA: NÃO OBS: -/-</t>
         </is>
       </c>
     </row>
@@ -10084,21 +8355,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Medida</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Dimension</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Maß</t>
-        </is>
-      </c>
       <c r="I166" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -10106,7 +8362,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2.7/8"</t>
+          <t>1.1/4"</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -10121,12 +8377,12 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
+          <t>MODELO: COMPOSITE BOP HASTE: 1.1/4" CONEXÃO SUP: STUDDED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 2000 CONEXÃO INF: ROSCA PIN TAM CONEXÃO INF: 2.7/8" NORMA CON SUP: EU API 5B  DIAM PASSAGEM: 50 SAIDA PRODUÇÃO: 3" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: SAE1045 MAT PISTOES: SAE1045 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>MODELO: COMPOSITE BOP HASTE: 1.1/4" CONEXÃO SUP: STUDDED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 2000 CONEXÃO INF: ROSCA PIN TAM CONEXÃO INF: 2.7/8" NORMA CON SUP: EU API 5B  DIAM PASSAGEM: 50 SAIDA PRODUÇÃO: 3" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: SAE1045 MAT PISTOES: SAE1045 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
         </is>
       </c>
     </row>
@@ -10151,21 +8407,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="I167" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -10218,21 +8459,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Flange</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Reborde</t>
-        </is>
-      </c>
       <c r="I168" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -10285,21 +8511,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Bomba De Fusos</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Spindle Pump</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Bomba de husillo</t>
-        </is>
-      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -10352,21 +8563,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Polido</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Poliert</t>
-        </is>
-      </c>
       <c r="I170" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -10419,21 +8615,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Corpo De Desgaste</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Wear housing</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Cuerpo de desgaste</t>
-        </is>
-      </c>
       <c r="I171" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -10486,21 +8667,6 @@
           <t>NDB</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Corpo De Desgaste</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Wear housing</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Cuerpo de desgaste</t>
-        </is>
-      </c>
       <c r="I172" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -10768,7 +8934,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -10976,7 +9142,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.7/8"</t>
+          <t>1.1/4"</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -10991,12 +9157,12 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
+          <t>MODELO: COMPOSITE BOP HASTE: 1.1/4" CONEXÃO SUP: STUDDED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 2000 CON INT SUP: 2.7/8" NR CON INT SUP: EU API 5B CONEXÃO INF: STUDDED TAM CONEXÃO INF: 3.1/8" NORMA CON SUP: API 6A CL PR CON INF: 2000 NR CON INT INF: EU API 5B  DIAM PASSAGEM: 70 SAIDA PRODUÇÃO: 3" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: GGG50 MAT PISTOES: SAE1045 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>MODELO: COMPOSITE BOP HASTE: 1.1/4" CONEXÃO SUP: STUDDED TAM CONEXAO SUP: 3.1/8" NORMA CON SUP: API 6A CL PR CON SUP: 2000 CON INT SUP: 2.7/8" NR CON INT SUP: EU API 5B CONEXÃO INF: STUDDED TAM CONEXÃO INF: 3.1/8" NORMA CON SUP: API 6A CL PR CON INF: 2000 NR CON INT INF: EU API 5B  DIAM PASSAGEM: 70 SAIDA PRODUÇÃO: 3" NR SAIDA PROD: LP SAIDA AUXILIAR: 3" NR SAIDA AUX: LP MAT CO BOP: GGG50 MAT PISTOES: SAE1045 MAT VEDACAO: NBR RING JOINTS: SIM PORCAS E PARAFU: SIM</t>
         </is>
       </c>
     </row>
@@ -11038,17 +9204,17 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
+          <t>POT CABEÇOTE: 030 UNIDADE POT: Hp FORMA CONSTR: DH CARGA AXIAL 20 UN CARGA AXIAL: Lbs TIPO FREIO: HB TIPO VEDAÇÃO: GAXETAS POS VEDAÇÃO INFERIOR DIAM HASTE POL: 1.1/4" CONEXÃO INF: FLANGE TAM CONEXÃO: 7.1/16" CLASSE PRESSÃO: 3000 RING JOINT: SIM PRI/POR FL INF: SIM PROT POL E COR: SIM PROT CLAMP: SIM NORMA MOTOR: IEC TAM CARC MOTOR: 200M/L FREQ MOTOR: 50 QTDE POLOS: 6 FORNEC MOTOR: NÃO RPM CABEÇOTE: 240 DIAM POL MOV: 670 DIAM POL MOT: 170 BUCHA CÔNICA: SIM CORREIAS: STANDARD SUPORTE CABEÇ: SUPORTE MOTOR (1x) DES DIMENSIONAL: . OBSERVAÇÕES: - NOVA LANTERNA FUNDIDA</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>POT CABEÇOTE: 030 UNIDADE POT: Hp FORMA CONSTR: DH CARGA AXIAL 20 UN CARGA AXIAL: Lbs TIPO FREIO: HB TIPO VEDAÇÃO: GAXETAS POS VEDAÇÃO INFERIOR DIAM HASTE POL: 1.1/4" CONEXÃO INF: FLANGE TAM CONEXÃO: 7.1/16" CLASSE PRESSÃO: 3000 RING JOINT: SIM PRI/POR FL INF: SIM PROT POL E COR: SIM PROT CLAMP: SIM NORMA MOTOR: IEC TAM CARC MOTOR: 200M/L FREQ MOTOR: 50 QTDE POLOS: 6 FORNEC MOTOR: NÃO RPM CABEÇOTE: 240 DIAM POL MOV: 670 DIAM POL MOT: 170 BUCHA CÔNICA: SIM CORREIAS: STANDARD SUPORTE CABEÇ: SUPORTE MOTOR (1x) DES DIMENSIONAL: . OBSERVAÇÕES: - NOVA LANTERNA FUNDIDA</t>
         </is>
       </c>
     </row>
@@ -11095,12 +9261,12 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
+          <t>TUBO: NTZ DIAM. NOMINAL: 278 PRESSÃO: 120 GEOMETRIA: ST VAZÃO 7.0 SH: NÃO PADDLE: NÃO THT: NÃO ALTA PRESSÃO: NÃO TIPO PINO STOP: TIPO PINO CONEXAO INF. BO: 2.7/8"-EU (MACHO) P ROTOR: Z2 CAMADA DE CROMO: HCP25 MATERIAL ROTOR: 1045 ROSCA EST: EU-M BORRACHA EST: 286 ANEL INOX SOLDA: NÃO TESTE CFE: ESPECIAL (ESPECIFICADO PELO CLIENTE) MEIO DE TESTE: ÁGUA</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>TUBO: NTZ DIAM. NOMINAL: 278 PRESSÃO: 120 GEOMETRIA: ST VAZÃO 7.0 SH: NÃO PADDLE: NÃO THT: NÃO ALTA PRESSÃO: NÃO TIPO PINO STOP: TIPO PINO CONEXAO INF. BO: 2.7/8"-EU (MACHO) P ROTOR: Z2 CAMADA DE CROMO: HCP25 MATERIAL ROTOR: 1045 ROSCA EST: EU-M BORRACHA EST: 286 ANEL INOX SOLDA: NÃO TESTE CFE: ESPECIAL (ESPECIFICADO PELO CLIENTE) MEIO DE TESTE: ÁGUA</t>
         </is>
       </c>
     </row>
@@ -11147,12 +9313,12 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
+          <t>TUBO: NTZ DIAM. NOMINAL: 550 PRESSÃO: 150 GEOMETRIA: STM VAZÃO 140 SH: NÃO PADDLE: NÃO THT: NÃO ALTA PRESSÃO: NÃO TIPO PINO STOP: TIPO ESTRELA - COM RASGOS CONEXAO INF. BO: 5.1/2"-LTC (MACHO) CONEXAO SUP. BO: 4.1/2"-EU (FÊMEA) TUBO EXTENSÃO: 10FT CAMADA DE CROMO: S/CRM MATERIAL ROTOR: 4140 LUVA ADAP. ROT: 1" (FÊMEA) DIAM LUVA ROTOR: SH ROSCA EST: LTC-M BORRACHA EST: GGG50 ANEL INOX SOLDA: NÃO TESTE CFE: NDB147 (NETZSCH) MEIO DE TESTE: ÓLEO</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>TUBO: NTZ DIAM. NOMINAL: 550 PRESSÃO: 150 GEOMETRIA: STM VAZÃO 140 SH: NÃO PADDLE: NÃO THT: NÃO ALTA PRESSÃO: NÃO TIPO PINO STOP: TIPO ESTRELA - COM RASGOS CONEXAO INF. BO: 5.1/2"-LTC (MACHO) CONEXAO SUP. BO: 4.1/2"-EU (FÊMEA) TUBO EXTENSÃO: 10FT CAMADA DE CROMO: S/CRM MATERIAL ROTOR: 4140 LUVA ADAP. ROT: 1" (FÊMEA) DIAM LUVA ROTOR: SH ROSCA EST: LTC-M BORRACHA EST: GGG50 ANEL INOX SOLDA: NÃO TESTE CFE: NDB147 (NETZSCH) MEIO DE TESTE: ÓLEO</t>
         </is>
       </c>
     </row>
@@ -11199,12 +9365,12 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
+          <t>POT CABEÇOTE: 100 UNIDADE POT: Hp FORMA CONSTR: DH CARGA AXIAL 33 UN CARGA AXIAL: Lbs TIPO FREIO: MBD TIPO VEDAÇÃO: GAXETAS POS VEDAÇÃO INFERIOR DIAM HASTE POL: 1.1/2" CONEXÃO INF: FLANGE TAM CONEXÃO: 3.1/8" CLASSE PRESSÃO: 3000 RING JOINT: SIM PRI/POR FL INF: SIM PROT POL E COR: SIM PROT CLAMP: SIM NORMA MOTOR: IEC TAM CARC MOTOR: 280S/M FREQ MOTOR: 50 QTDE POLOS: 4 FORNEC MOTOR: NÃO ROTAÇÃO SAÍDA: 250 TORQUE SAÍDA: 3000 POT MOT INST: 100 HP DIAM POL MOV: 800 DIAM POL MOT: 138 BUCHA CÔNICA: NÃO CORREIAS: POWER BAND SUPORTE CABEÇ: SUPORTE MOTOR (1x) + SUPORTE BASE MOTORA (2x) OBSERVAÇÕES: 01 - POLIA MOTORA 150, I=5,33 (250 RPM)</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
           <t>verificar internal comment</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>POT CABEÇOTE: 100 UNIDADE POT: Hp FORMA CONSTR: DH CARGA AXIAL 33 UN CARGA AXIAL: Lbs TIPO FREIO: MBD TIPO VEDAÇÃO: GAXETAS POS VEDAÇÃO INFERIOR DIAM HASTE POL: 1.1/2" CONEXÃO INF: FLANGE TAM CONEXÃO: 3.1/8" CLASSE PRESSÃO: 3000 RING JOINT: SIM PRI/POR FL INF: SIM PROT POL E COR: SIM PROT CLAMP: SIM NORMA MOTOR: IEC TAM CARC MOTOR: 280S/M FREQ MOTOR: 50 QTDE POLOS: 4 FORNEC MOTOR: NÃO ROTAÇÃO SAÍDA: 250 TORQUE SAÍDA: 3000 POT MOT INST: 100 HP DIAM POL MOV: 800 DIAM POL MOT: 138 BUCHA CÔNICA: NÃO CORREIAS: POWER BAND SUPORTE CABEÇ: SUPORTE MOTOR (1x) + SUPORTE BASE MOTORA (2x) OBSERVAÇÕES: 01 - POLIA MOTORA 150, I=5,33 (250 RPM)</t>
         </is>
       </c>
     </row>

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -594,6 +594,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -646,6 +666,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -693,6 +733,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -740,6 +800,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -809,6 +889,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -856,6 +956,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -903,6 +1023,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -910,7 +1050,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PIN</t>
+          <t>286</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -950,6 +1090,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -997,6 +1157,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1044,6 +1224,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1091,6 +1291,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1138,6 +1358,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1185,6 +1425,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1232,6 +1492,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>2.3/8"</t>
@@ -1279,9 +1559,29 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.1/2"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1326,9 +1626,29 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4.1/2"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1373,6 +1693,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1420,6 +1760,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1467,6 +1827,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1514,6 +1894,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1561,6 +1961,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1608,6 +2028,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1655,6 +2095,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1702,6 +2162,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -1749,6 +2229,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1796,6 +2296,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1843,6 +2363,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1890,6 +2430,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -1937,6 +2497,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -1984,6 +2564,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2031,9 +2631,29 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Conexão</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Connection</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Conexión</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Verbindung</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>4.1/2"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2078,6 +2698,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>4.1/2"</t>
@@ -2085,7 +2725,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>V-630</t>
+          <t>ROTOR</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2125,9 +2765,29 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4.1/2"</t>
+          <t>1.1/8"</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2172,6 +2832,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -2219,6 +2899,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2266,6 +2966,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2313,6 +3033,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -2426,6 +3166,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2473,6 +3233,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>120</t>
@@ -2520,6 +3300,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -2572,6 +3372,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2619,6 +3439,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2666,6 +3506,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2730,7 +3590,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -2765,6 +3625,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2812,6 +3692,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -2859,6 +3759,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>2.3/8"</t>
@@ -2906,6 +3826,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -2953,6 +3893,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3000,6 +3960,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -3047,6 +4027,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3094,6 +4094,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -3146,6 +4166,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -3215,6 +4255,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Válvula De Segurança</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Safety Valve</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Válvula de seguridad</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sicherheitsventil</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -3267,6 +4327,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Luva Adaptadora</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Adapter Sleeve</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Manguito adaptador</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Adapterhülse</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3314,6 +4394,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -3361,6 +4461,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -3413,6 +4533,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>special</t>
@@ -3460,6 +4600,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
           <t>special</t>
@@ -3507,6 +4667,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>150</t>
@@ -3554,6 +4734,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>special</t>
@@ -3566,7 +4766,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -3601,6 +4801,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>special</t>
@@ -3648,6 +4868,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -3712,7 +4952,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -3747,6 +4987,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -3794,6 +5054,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
           <t>120</t>
@@ -3841,6 +5121,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>120</t>
@@ -3932,6 +5232,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -3979,6 +5299,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -4026,6 +5366,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -4073,6 +5433,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -4120,9 +5500,29 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4167,9 +5567,29 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4214,6 +5634,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -4261,6 +5701,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>120</t>
@@ -4273,7 +5733,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>NTZ 400</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -4308,6 +5768,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>120</t>
@@ -4320,7 +5800,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>NTZ 400</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -4355,6 +5835,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
           <t>180</t>
@@ -4367,7 +5867,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>NTZ 278</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -4402,6 +5902,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
           <t>100</t>
@@ -4449,6 +5969,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>100</t>
@@ -4496,6 +6036,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -4543,6 +6103,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>EU-M</t>
@@ -4590,6 +6170,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>2.7/8"</t>
@@ -4637,6 +6237,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -4684,6 +6304,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -4731,6 +6371,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -4778,6 +6438,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>1/2"</t>
@@ -4825,9 +6505,29 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -4872,6 +6572,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -4919,6 +6639,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -4966,6 +6706,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -5013,6 +6773,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
           <t>3.1/2"</t>
@@ -5082,6 +6862,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>7/8"</t>
@@ -5129,6 +6929,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5136,7 +6956,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -5181,6 +7001,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5233,6 +7073,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5285,6 +7145,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5337,6 +7217,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5389,6 +7289,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5441,6 +7361,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5493,6 +7433,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Placa De Arraste</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Drag Plate</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Placa de arrastre</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bremsplatte</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>PCP-NDH</t>
@@ -5505,7 +7465,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -5545,6 +7505,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5597,6 +7577,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5604,7 +7604,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -5649,6 +7649,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5656,7 +7676,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -5701,6 +7721,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5708,7 +7748,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -5753,6 +7793,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Placa De Arraste</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Drag Plate</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Placa de arrastre</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Bremsplatte</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
           <t>PCP-NDH</t>
@@ -5805,6 +7865,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5812,7 +7892,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -5857,6 +7937,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5909,6 +8009,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -5961,6 +8081,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6013,6 +8153,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6065,6 +8225,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Placa De Arraste</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Drag Plate</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Placa de arrastre</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Bremsplatte</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
           <t>PCP-NDH</t>
@@ -6117,6 +8297,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estator </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Estator</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Stator</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6169,6 +8369,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6221,6 +8441,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Tubo De Extensão</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Extension Tube</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Tubo de extensión</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Verlängerungsrohr</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -6290,7 +8530,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -6342,7 +8582,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -6394,7 +8634,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -6446,7 +8686,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -6498,7 +8738,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -6550,7 +8790,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -6602,7 +8842,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -6644,7 +8884,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -6654,7 +8894,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -6706,7 +8946,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -6758,7 +8998,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -6810,7 +9050,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -6862,7 +9102,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -6914,7 +9154,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -6966,7 +9206,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -7018,7 +9258,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -7070,7 +9310,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -7122,7 +9362,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -7174,7 +9414,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -7226,7 +9466,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -7278,7 +9518,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -7330,7 +9570,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -7382,7 +9622,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -7434,7 +9674,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -7538,7 +9778,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -7590,7 +9830,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -7642,7 +9882,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -7684,7 +9924,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -7729,6 +9969,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Parafuso</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Screw</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Tornillo</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Schraube</t>
+        </is>
+      </c>
       <c r="I153" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -7741,7 +10001,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -7788,7 +10048,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -7840,7 +10100,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -7902,7 +10162,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -7954,7 +10214,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -7989,6 +10249,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I158" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8095,6 +10375,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Junta de anillo</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Ringgelenk</t>
+        </is>
+      </c>
       <c r="I161" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -8107,7 +10407,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>SAE1045</t>
+          <t>SAE4140</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -8147,6 +10447,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Junta de anillo</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Ringgelenk</t>
+        </is>
+      </c>
       <c r="I162" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -8159,7 +10479,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>SAE1045</t>
+          <t>SAE4140</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -8199,6 +10519,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Luva Rotor</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Rotor Sleeve</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Guante de rotor</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Rotor-Handschuh</t>
+        </is>
+      </c>
       <c r="I163" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8216,7 +10556,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>299</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -8251,6 +10591,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Luva Rotor</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Rotor Sleeve</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Guante de rotor</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Rotor-Handschuh</t>
+        </is>
+      </c>
       <c r="I164" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8303,6 +10663,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I165" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8355,6 +10735,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Junta de anillo</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Ringgelenk</t>
+        </is>
+      </c>
       <c r="I166" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -8407,6 +10807,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I167" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8459,6 +10879,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8511,6 +10951,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8563,6 +11023,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I170" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8615,6 +11095,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I171" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8667,6 +11167,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I172" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8719,6 +11239,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I173" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8771,6 +11311,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I174" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8823,6 +11383,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I175" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8875,6 +11455,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I176" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8927,6 +11527,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I177" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -8934,7 +11554,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -8979,6 +11599,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I178" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9031,6 +11671,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I179" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9083,6 +11743,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Borracha</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Rubber</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Caucho</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Gummi</t>
+        </is>
+      </c>
       <c r="I180" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9135,6 +11815,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Junta de anillo</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Ringgelenk</t>
+        </is>
+      </c>
       <c r="I181" t="inlineStr">
         <is>
           <t>PCP-BOP</t>
@@ -9187,6 +11887,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Ring Joint</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Junta de anillo</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Ringgelenk</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr">
         <is>
           <t>PCP-NDH</t>
@@ -9239,6 +11959,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Pino Stop</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Stop Pin</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Pin de tope</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Anschlagstift</t>
+        </is>
+      </c>
       <c r="I183" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9291,6 +12031,26 @@
           <t>NDB</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Luva Rotor</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Rotor Sleeve</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Guante de rotor</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Rotor-Handschuh</t>
+        </is>
+      </c>
       <c r="I184" t="inlineStr">
         <is>
           <t>PCP-P</t>
@@ -9298,7 +12058,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>5.1/2"</t>
+          <t>4.1/2"</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -9341,6 +12101,26 @@
       <c r="D185" t="inlineStr">
         <is>
           <t>NDB</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Suporte Base Motora</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Motor Base Bracket</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Soporte de base de motor</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Halterung für Motorsockel</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3.1/2"</t>
+          <t>2.7/8"</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3.1/2"</t>
+          <t>2.7/8"</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3.1/2"</t>
+          <t>2.7/8"</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ROTOR</t>
+          <t>V-630</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1.1/8"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>3000 PSI</t>
+          <t>2000 PSI</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>SPECIAL</t>
+          <t>NETZSCH</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>06</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>NTZ 400</t>
+          <t>NETZSCH</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>NTZ 400</t>
+          <t>NETZSCH</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1.1/4"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>API 6A</t>
+          <t>API 5B</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>1.1/4"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -10484,7 +10484,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>API 6A</t>
+          <t>API 5B</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>NTZ</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>1.1/4"</t>
+          <t>2.7/8"</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>API 6A</t>
+          <t>API 5B</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.1/4"</t>
+          <t>2.7/8"</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>API 6A</t>
+          <t>API 5B</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>4.1/2"</t>
+          <t>5.1/2"</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">

--- a/planilhas/planilha_atualizada.xlsx
+++ b/planilhas/planilha_atualizada.xlsx
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2.7/8"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.7/8"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.7/8"</t>
+          <t>3.1/2"</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2000 PSI</t>
+          <t>3000 PSI</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>SPECIAL</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>NTZ 400</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>NETZSCH</t>
+          <t>NTZ 400</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>NTZ 278</t>
+          <t>NETZSCH</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -9253,7 +9253,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>St</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -10402,17 +10402,17 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>3.1/2"</t>
+          <t>1.1/4"</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>SAE4140</t>
+          <t>SAE1045</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>API 5B</t>
+          <t>API 6A</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -10474,17 +10474,17 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>3.1/2"</t>
+          <t>1.1/4"</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>SAE4140</t>
+          <t>SAE1045</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>API 5B</t>
+          <t>API 6A</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>NTZ</t>
+          <t>299</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2.7/8"</t>
+          <t>1.1/4"</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>API 5B</t>
+          <t>API 6A</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2.7/8"</t>
+          <t>1.1/4"</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>API 5B</t>
+          <t>API 6A</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -12058,12 +12058,12 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>5.1/2"</t>
+          <t>4.1/2"</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>ROTOR</t>
+          <t>GGG50</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
